--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89150185-DE4F-4A76-9534-1F103BE75069}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B38C0-F2D3-44F2-879D-749ED925F037}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="212">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -174,12 +174,6 @@
     <t>PASION LATINA</t>
   </si>
   <si>
-    <t>GABRIEL - REBECA</t>
-  </si>
-  <si>
-    <t>SANDUGA</t>
-  </si>
-  <si>
     <t>GABRIEL - EGLIMAR</t>
   </si>
   <si>
@@ -225,15 +219,9 @@
     <t>A&amp;A</t>
   </si>
   <si>
-    <t>JEFFERSON MACSENE</t>
-  </si>
-  <si>
     <t>MIGUEL VILLALOBOS</t>
   </si>
   <si>
-    <t>ISBEL ROBLES</t>
-  </si>
-  <si>
     <t>EDWARD LANDAEZ</t>
   </si>
   <si>
@@ -697,6 +685,9 @@
   </si>
   <si>
     <t>GENERO ADICONAL</t>
+  </si>
+  <si>
+    <t>JONATHAN ABOUD</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1397,6 +1388,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1448,28 +1463,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1786,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F680A068-AF74-4DC7-A18B-610ACE22163B}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,25 +1800,23 @@
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-    </row>
-    <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1838,194 +1836,148 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(F3:K3)</f>
-        <v>0</v>
+        <f>SUM(F3:J3)</f>
+        <v>36</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D7" si="0">SUM(F4:K4)</f>
-        <v>0</v>
+        <f>SUM(F4:J4)</f>
+        <v>31</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F5:J5)</f>
+        <v>29</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(F6:J6)</f>
+        <v>29</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
+      <c r="J6" s="11">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J6">
+    <sortCondition descending="1" ref="D3:D6"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2053,30 +2005,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2107,15 +2059,15 @@
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
         <v>0</v>
@@ -2150,8 +2102,8 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D12" si="0">SUM(F4:M4)</f>
         <v>0</v>
@@ -2186,8 +2138,8 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2222,8 +2174,8 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2258,8 +2210,8 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2294,8 +2246,8 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2330,8 +2282,8 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2366,8 +2318,8 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2402,8 +2354,8 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2438,8 +2390,8 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2511,22 +2463,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2578,7 +2530,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:N3)</f>
@@ -2992,21 +2944,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3054,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -3094,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -3134,10 +3086,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -3174,10 +3126,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -3214,10 +3166,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -3254,10 +3206,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -3294,10 +3246,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -3334,10 +3286,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -3374,10 +3326,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -3414,10 +3366,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -3454,10 +3406,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -3494,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>39</v>
@@ -3559,21 +3511,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3621,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -3661,10 +3613,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -3700,10 +3652,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -3739,10 +3691,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -3778,10 +3730,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -3817,10 +3769,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -3856,7 +3808,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>39</v>
@@ -3920,21 +3872,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3982,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -4022,10 +3974,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D8" si="0">SUM(F4:M4)</f>
@@ -4062,10 +4014,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4102,10 +4054,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4142,10 +4094,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4182,10 +4134,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -4245,20 +4197,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4303,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -4340,10 +4292,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D12" si="0">SUM(F4:L4)</f>
@@ -4377,10 +4329,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4414,10 +4366,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4451,10 +4403,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4488,10 +4440,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -4525,10 +4477,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -4562,10 +4514,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -4599,10 +4551,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -4636,10 +4588,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -4700,29 +4652,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4757,8 +4709,8 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -4790,8 +4742,8 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D12" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -4823,8 +4775,8 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4856,8 +4808,8 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4889,8 +4841,8 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4922,8 +4874,8 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4955,8 +4907,8 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4988,8 +4940,8 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5021,8 +4973,8 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5054,8 +5006,8 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5124,20 +5076,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5182,10 +5134,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5219,10 +5171,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D15" si="0">SUM(F4:L4)</f>
@@ -5256,10 +5208,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -5293,10 +5245,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -5330,10 +5282,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -5367,10 +5319,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -5404,10 +5356,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5441,10 +5393,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -5478,10 +5430,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -5515,10 +5467,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -5552,10 +5504,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -5589,10 +5541,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -5626,10 +5578,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -5687,20 +5639,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5745,10 +5697,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5782,10 +5734,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D15" si="0">SUM(F4:L4)</f>
@@ -5819,10 +5771,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -5856,10 +5808,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -5893,10 +5845,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -5930,10 +5882,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -5967,10 +5919,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -6004,10 +5956,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -6041,10 +5993,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -6078,10 +6030,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -6115,10 +6067,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -6152,10 +6104,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -6189,10 +6141,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -6250,29 +6202,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -6307,10 +6259,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="56"/>
+      <c r="B3" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="64"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -6342,10 +6294,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="58"/>
+      <c r="B4" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="66"/>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D7" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -6377,10 +6329,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="58"/>
+      <c r="B5" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="66"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6412,10 +6364,10 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="58"/>
+      <c r="B6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="66"/>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6447,10 +6399,10 @@
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6494,39 +6446,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D3B04C-C77B-48A6-913A-E5F52797CF8D}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-    </row>
-    <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6546,33 +6496,30 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="7">
-        <f>SUM(F3:K3)</f>
+        <v>129</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="15">
+        <f>SUM(F3:J3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -6591,22 +6538,19 @@
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D12" si="0">SUM(F4:K4)</f>
+        <v>121</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="16">
+        <f>SUM(F4:J4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -6625,22 +6569,19 @@
       <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="16">
+        <f>SUM(F5:J5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -6659,22 +6600,19 @@
       <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(F6:J6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -6693,22 +6631,19 @@
       <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
+      <c r="C7" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="16">
+        <f>SUM(F7:J7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -6727,22 +6662,19 @@
       <c r="J7" s="9">
         <v>0</v>
       </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="16">
+        <f>SUM(F8:J8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -6761,22 +6693,19 @@
       <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="16">
+        <f>SUM(F9:J9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -6795,22 +6724,19 @@
       <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="16">
+        <f>SUM(F10:J10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -6829,22 +6755,19 @@
       <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="16">
+        <f>SUM(F11:J11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -6863,47 +6786,72 @@
       <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="D12" s="16">
+        <f>SUM(F12:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="17">
+        <f>SUM(F13:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6930,20 +6878,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6988,10 +6936,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -7025,10 +6973,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D11" si="0">SUM(F4:L4)</f>
@@ -7063,7 +7011,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -7097,10 +7045,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -7134,10 +7082,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -7171,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -7209,7 +7157,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -7243,10 +7191,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -7280,10 +7228,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -7342,21 +7290,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7404,10 +7352,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -7444,10 +7392,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D15" si="0">SUM(F4:M4)</f>
@@ -7484,10 +7432,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -7524,10 +7472,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -7564,10 +7512,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -7604,10 +7552,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -7644,10 +7592,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9" s="9">
         <f>SUM(F9:M9)</f>
@@ -7684,10 +7632,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ref="D10:D12" si="1">SUM(F10:M10)</f>
@@ -7724,10 +7672,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="1"/>
@@ -7764,10 +7712,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
@@ -7804,10 +7752,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -7844,10 +7792,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -7884,10 +7832,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -7947,19 +7895,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8001,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>39</v>
@@ -8035,7 +7983,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>39</v>
@@ -8069,7 +8017,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>39</v>
@@ -8103,7 +8051,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>39</v>
@@ -8137,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>39</v>
@@ -8171,7 +8119,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>39</v>
@@ -8205,10 +8153,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D9" s="21">
         <f t="shared" si="0"/>
@@ -8239,10 +8187,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="21">
         <f t="shared" si="0"/>
@@ -8273,10 +8221,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" s="21">
         <f t="shared" si="0"/>
@@ -8307,10 +8255,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" s="21">
         <f t="shared" si="0"/>
@@ -8341,10 +8289,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="21">
         <f>SUM(F13:K13)</f>
@@ -8375,10 +8323,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D14" s="21">
         <f t="shared" ref="D14:D18" si="1">SUM(F14:K14)</f>
@@ -8409,10 +8357,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D15" s="21">
         <f t="shared" si="1"/>
@@ -8443,10 +8391,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" s="21">
         <f t="shared" si="1"/>
@@ -8477,10 +8425,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D17" s="21">
         <f t="shared" si="1"/>
@@ -8511,7 +8459,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>39</v>
@@ -8568,29 +8516,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -8625,10 +8573,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="56"/>
+      <c r="B3" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="64"/>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -8660,10 +8608,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="58"/>
+      <c r="B4" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="66"/>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D7" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -8695,10 +8643,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="58"/>
+      <c r="B5" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="66"/>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8730,10 +8678,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="58"/>
+      <c r="B6" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="66"/>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8765,10 +8713,10 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8831,29 +8779,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -8888,10 +8836,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="56"/>
+      <c r="B3" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="64"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -8923,10 +8871,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="58"/>
+      <c r="B4" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="66"/>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D7" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -8958,10 +8906,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="58"/>
+      <c r="B5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="66"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8993,10 +8941,10 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="58"/>
+      <c r="B6" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="66"/>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9028,10 +8976,10 @@
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="51"/>
+      <c r="B7" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="59"/>
       <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9095,22 +9043,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9161,10 +9109,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:N3)</f>
@@ -9204,7 +9152,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -9247,7 +9195,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -9290,10 +9238,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -9333,10 +9281,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -9376,7 +9324,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>39</v>
@@ -9443,27 +9391,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -9501,7 +9449,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -9538,10 +9486,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D16" si="0">SUM(F4:L4)</f>
@@ -9575,10 +9523,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -9612,10 +9560,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -9649,10 +9597,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -9686,10 +9634,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -9723,10 +9671,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -9760,10 +9708,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -9797,10 +9745,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -9834,10 +9782,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -9871,10 +9819,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -9908,10 +9856,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -9945,10 +9893,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
@@ -9982,7 +9930,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>39</v>
@@ -10042,27 +9990,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -10100,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -10137,10 +10085,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D10" si="0">SUM(F4:L4)</f>
@@ -10174,10 +10122,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -10211,10 +10159,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -10248,10 +10196,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -10286,7 +10234,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -10320,10 +10268,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -10357,7 +10305,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>39</v>
@@ -10417,29 +10365,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -10474,10 +10422,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="56"/>
+      <c r="B3" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="64"/>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -10509,10 +10457,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="58"/>
+      <c r="B4" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="66"/>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -10544,10 +10492,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="58"/>
+      <c r="B5" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="66"/>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10579,10 +10527,10 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10645,21 +10593,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10707,9 +10655,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="7">
@@ -10747,10 +10695,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>61</v>
+        <v>97</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>57</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D12" si="0">SUM(F4:M4)</f>
@@ -10787,10 +10735,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -10827,10 +10775,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>66</v>
+        <v>100</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>62</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -10867,10 +10815,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -10907,10 +10855,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -10947,10 +10895,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>62</v>
+        <v>104</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>58</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -10987,10 +10935,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>66</v>
+        <v>105</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>62</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -11027,10 +10975,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -11067,10 +11015,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -11107,37 +11055,37 @@
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>89</v>
+        <v>109</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
       </c>
       <c r="E13" s="40"/>
-      <c r="F13" s="64">
-        <v>0</v>
-      </c>
-      <c r="G13" s="64">
-        <v>0</v>
-      </c>
-      <c r="H13" s="64">
-        <v>0</v>
-      </c>
-      <c r="I13" s="64">
-        <v>0</v>
-      </c>
-      <c r="J13" s="64">
-        <v>0</v>
-      </c>
-      <c r="K13" s="64">
-        <v>0</v>
-      </c>
-      <c r="L13" s="64">
-        <v>0</v>
-      </c>
-      <c r="M13" s="65">
+      <c r="F13" s="47">
+        <v>0</v>
+      </c>
+      <c r="G13" s="47">
+        <v>0</v>
+      </c>
+      <c r="H13" s="47">
+        <v>0</v>
+      </c>
+      <c r="I13" s="47">
+        <v>0</v>
+      </c>
+      <c r="J13" s="47">
+        <v>0</v>
+      </c>
+      <c r="K13" s="47">
+        <v>0</v>
+      </c>
+      <c r="L13" s="47">
+        <v>0</v>
+      </c>
+      <c r="M13" s="48">
         <v>0</v>
       </c>
     </row>
@@ -11146,37 +11094,37 @@
         <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
       </c>
       <c r="E14" s="41"/>
-      <c r="F14" s="66">
-        <v>0</v>
-      </c>
-      <c r="G14" s="66">
-        <v>0</v>
-      </c>
-      <c r="H14" s="66">
-        <v>0</v>
-      </c>
-      <c r="I14" s="66">
-        <v>0</v>
-      </c>
-      <c r="J14" s="66">
-        <v>0</v>
-      </c>
-      <c r="K14" s="66">
-        <v>0</v>
-      </c>
-      <c r="L14" s="66">
-        <v>0</v>
-      </c>
-      <c r="M14" s="67">
+      <c r="F14" s="49">
+        <v>0</v>
+      </c>
+      <c r="G14" s="49">
+        <v>0</v>
+      </c>
+      <c r="H14" s="49">
+        <v>0</v>
+      </c>
+      <c r="I14" s="49">
+        <v>0</v>
+      </c>
+      <c r="J14" s="49">
+        <v>0</v>
+      </c>
+      <c r="K14" s="49">
+        <v>0</v>
+      </c>
+      <c r="L14" s="49">
+        <v>0</v>
+      </c>
+      <c r="M14" s="50">
         <v>0</v>
       </c>
     </row>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B38C0-F2D3-44F2-879D-749ED925F037}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19235679-A7D9-4500-AFEE-5EF4DEEDBC70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="214">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -174,18 +174,9 @@
     <t>PASION LATINA</t>
   </si>
   <si>
-    <t>GABRIEL - EGLIMAR</t>
-  </si>
-  <si>
     <t>ALMA SALSERA</t>
   </si>
   <si>
-    <t>CHRISTIAN - ISABEL</t>
-  </si>
-  <si>
-    <t>REINIER - MARIANGEL</t>
-  </si>
-  <si>
     <t>REINIER RODRIGUEZ</t>
   </si>
   <si>
@@ -688,6 +679,21 @@
   </si>
   <si>
     <t>JONATHAN ABOUD</t>
+  </si>
+  <si>
+    <t>REINER - MARIANGEL</t>
+  </si>
+  <si>
+    <t>GABRIEL - ISABEL</t>
+  </si>
+  <si>
+    <t>CHRISTIAN - EGLIMAR</t>
+  </si>
+  <si>
+    <t>ALMA LATINA</t>
+  </si>
+  <si>
+    <t>PASION SALSERA</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1795,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -1915,10 +1921,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:J5)</f>
@@ -1946,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:J6)</f>
@@ -2059,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2530,7 +2536,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:N3)</f>
@@ -3006,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -3046,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -3086,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -3126,10 +3132,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -3166,10 +3172,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -3206,10 +3212,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -3246,10 +3252,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -3286,10 +3292,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -3326,10 +3332,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -3366,10 +3372,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -3406,10 +3412,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -3446,7 +3452,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>39</v>
@@ -3573,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -3613,10 +3619,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -3652,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -3691,10 +3697,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -3730,10 +3736,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -3769,10 +3775,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -3808,7 +3814,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>39</v>
@@ -3934,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -3974,10 +3980,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D8" si="0">SUM(F4:M4)</f>
@@ -4014,10 +4020,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4054,10 +4060,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4094,10 +4100,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4134,10 +4140,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -4255,10 +4261,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -4292,10 +4298,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D12" si="0">SUM(F4:L4)</f>
@@ -4329,10 +4335,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4366,10 +4372,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4403,10 +4409,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4440,10 +4446,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -4477,10 +4483,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -4514,10 +4520,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -4551,10 +4557,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -4588,10 +4594,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -5134,10 +5140,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5171,10 +5177,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D15" si="0">SUM(F4:L4)</f>
@@ -5208,10 +5214,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -5245,10 +5251,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -5282,10 +5288,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -5319,10 +5325,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -5356,10 +5362,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5393,10 +5399,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -5430,10 +5436,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -5467,10 +5473,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -5504,10 +5510,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -5541,10 +5547,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -5578,10 +5584,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -5697,10 +5703,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5734,10 +5740,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D15" si="0">SUM(F4:L4)</f>
@@ -5771,10 +5777,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -5808,10 +5814,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -5845,10 +5851,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -5882,10 +5888,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -5919,10 +5925,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5956,10 +5962,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -5993,10 +5999,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -6030,10 +6036,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -6067,10 +6073,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -6104,10 +6110,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -6141,10 +6147,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -6260,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="15">
@@ -6295,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="16">
@@ -6330,7 +6336,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="16">
@@ -6365,7 +6371,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="16">
@@ -6513,10 +6519,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:J3)</f>
@@ -6544,10 +6550,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D4" s="16">
         <f>SUM(F4:J4)</f>
@@ -6575,10 +6581,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:J5)</f>
@@ -6606,10 +6612,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:J6)</f>
@@ -6637,10 +6643,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="16">
         <f>SUM(F7:J7)</f>
@@ -6668,10 +6674,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(F8:J8)</f>
@@ -6699,10 +6705,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="16">
         <f>SUM(F9:J9)</f>
@@ -6730,10 +6736,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(F10:J10)</f>
@@ -6761,10 +6767,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="16">
         <f>SUM(F11:J11)</f>
@@ -6792,10 +6798,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="16">
         <f>SUM(F12:J12)</f>
@@ -6823,10 +6829,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="17">
         <f>SUM(F13:J13)</f>
@@ -6936,10 +6942,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -6973,10 +6979,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D11" si="0">SUM(F4:L4)</f>
@@ -7011,7 +7017,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -7045,10 +7051,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -7082,10 +7088,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -7119,10 +7125,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -7157,7 +7163,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -7191,10 +7197,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -7228,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -7352,10 +7358,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -7392,10 +7398,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D15" si="0">SUM(F4:M4)</f>
@@ -7432,10 +7438,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -7472,10 +7478,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -7512,10 +7518,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -7552,10 +7558,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -7592,10 +7598,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="9">
         <f>SUM(F9:M9)</f>
@@ -7632,10 +7638,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ref="D10:D12" si="1">SUM(F10:M10)</f>
@@ -7672,10 +7678,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="1"/>
@@ -7712,10 +7718,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
@@ -7752,10 +7758,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -7792,10 +7798,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -7832,10 +7838,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -7949,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>39</v>
@@ -7983,7 +7989,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>39</v>
@@ -8017,7 +8023,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>39</v>
@@ -8051,7 +8057,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>39</v>
@@ -8085,7 +8091,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>39</v>
@@ -8119,7 +8125,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>39</v>
@@ -8153,10 +8159,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" s="21">
         <f t="shared" si="0"/>
@@ -8187,10 +8193,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="21">
         <f t="shared" si="0"/>
@@ -8221,10 +8227,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="21">
         <f t="shared" si="0"/>
@@ -8255,10 +8261,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="21">
         <f t="shared" si="0"/>
@@ -8289,10 +8295,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="21">
         <f>SUM(F13:K13)</f>
@@ -8323,10 +8329,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D14" s="21">
         <f t="shared" ref="D14:D18" si="1">SUM(F14:K14)</f>
@@ -8357,10 +8363,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="21">
         <f t="shared" si="1"/>
@@ -8391,10 +8397,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" s="21">
         <f t="shared" si="1"/>
@@ -8425,10 +8431,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="21">
         <f t="shared" si="1"/>
@@ -8459,7 +8465,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>39</v>
@@ -8574,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="7">
@@ -8609,7 +8615,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="9">
@@ -8644,7 +8650,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="9">
@@ -8679,7 +8685,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="9">
@@ -8837,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="15">
@@ -8872,7 +8878,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="16">
@@ -8907,7 +8913,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="16">
@@ -8942,7 +8948,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="16">
@@ -8977,7 +8983,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="17">
@@ -9109,10 +9115,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:N3)</f>
@@ -9152,7 +9158,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -9195,7 +9201,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -9238,10 +9244,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -9281,10 +9287,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -9324,7 +9330,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>39</v>
@@ -9411,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -9449,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -9486,10 +9492,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D16" si="0">SUM(F4:L4)</f>
@@ -9523,10 +9529,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -9560,10 +9566,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -9597,10 +9603,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -9634,10 +9640,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -9671,10 +9677,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -9708,10 +9714,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -9745,10 +9751,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -9782,10 +9788,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -9819,10 +9825,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -9856,10 +9862,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -9893,10 +9899,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
@@ -9930,7 +9936,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>39</v>
@@ -10010,7 +10016,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -10048,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -10085,10 +10091,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D10" si="0">SUM(F4:L4)</f>
@@ -10122,10 +10128,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -10159,10 +10165,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -10196,10 +10202,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -10234,7 +10240,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -10268,10 +10274,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -10305,7 +10311,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>39</v>
@@ -10423,7 +10429,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="7">
@@ -10458,7 +10464,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="9">
@@ -10493,7 +10499,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="9">
@@ -10655,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>39</v>
@@ -10695,10 +10701,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D12" si="0">SUM(F4:M4)</f>
@@ -10735,10 +10741,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -10775,10 +10781,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -10815,10 +10821,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -10855,10 +10861,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -10895,10 +10901,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -10935,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -10975,10 +10981,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -11015,10 +11021,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -11055,10 +11061,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -11094,7 +11100,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>39</v>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19235679-A7D9-4500-AFEE-5EF4DEEDBC70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268C65C3-734E-40E6-BAC1-6D71F12B7ED3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="1" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="213">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>ALMA SALSERA</t>
-  </si>
-  <si>
-    <t>REINIER RODRIGUEZ</t>
   </si>
   <si>
     <t>PASION LTINA</t>
@@ -700,7 +697,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,6 +733,12 @@
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1260,7 +1263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1476,6 +1479,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1794,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F680A068-AF74-4DC7-A18B-610ACE22163B}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1890,7 +1896,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -1921,10 +1927,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:J5)</f>
@@ -1952,10 +1958,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:J6)</f>
@@ -2065,7 +2071,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2536,7 +2542,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:N3)</f>
@@ -3012,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -3052,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -3092,10 +3098,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -3132,10 +3138,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -3172,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -3212,10 +3218,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -3252,10 +3258,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -3292,10 +3298,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -3332,10 +3338,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -3372,10 +3378,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -3412,10 +3418,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -3452,7 +3458,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>39</v>
@@ -3579,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -3619,10 +3625,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -3658,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -3697,10 +3703,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -3736,10 +3742,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -3775,10 +3781,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -3814,7 +3820,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>39</v>
@@ -3940,10 +3946,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -3980,10 +3986,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D8" si="0">SUM(F4:M4)</f>
@@ -4020,10 +4026,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4060,10 +4066,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4100,10 +4106,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4140,10 +4146,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -4261,10 +4267,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -4298,10 +4304,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D12" si="0">SUM(F4:L4)</f>
@@ -4335,10 +4341,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4372,10 +4378,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4409,10 +4415,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4446,10 +4452,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -4483,10 +4489,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -4520,10 +4526,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -4557,10 +4563,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -4594,10 +4600,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -5140,10 +5146,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5177,10 +5183,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D15" si="0">SUM(F4:L4)</f>
@@ -5214,10 +5220,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -5251,10 +5257,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -5288,10 +5294,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -5325,10 +5331,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -5362,10 +5368,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5399,10 +5405,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -5436,10 +5442,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -5473,10 +5479,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -5510,10 +5516,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>157</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>158</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -5547,10 +5553,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -5584,10 +5590,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>159</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>160</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -5703,10 +5709,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5740,10 +5746,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D15" si="0">SUM(F4:L4)</f>
@@ -5777,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -5814,10 +5820,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -5851,10 +5857,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -5888,10 +5894,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -5925,10 +5931,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5962,10 +5968,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -5999,10 +6005,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -6036,10 +6042,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -6073,10 +6079,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -6110,10 +6116,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -6147,10 +6153,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -6266,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="15">
@@ -6301,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="16">
@@ -6336,7 +6342,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="16">
@@ -6371,7 +6377,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="16">
@@ -6454,8 +6460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D3B04C-C77B-48A6-913A-E5F52797CF8D}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,30 +6525,30 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:J3)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -6550,30 +6556,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D4" s="16">
         <f>SUM(F4:J4)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6581,30 +6587,30 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="D5" s="75">
         <f>SUM(F5:J5)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -6612,30 +6618,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:J6)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6643,30 +6649,30 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D7" s="16">
         <f>SUM(F7:J7)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6674,30 +6680,30 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>208</v>
+        <v>107</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(F8:J8)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6705,30 +6711,30 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" s="16">
         <f>SUM(F9:J9)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6736,30 +6742,30 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="73" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>46</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(F10:J10)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6767,30 +6773,30 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="16">
         <f>SUM(F11:J11)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6798,30 +6804,30 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="16">
         <f>SUM(F12:J12)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6829,37 +6835,41 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D13" s="17">
         <f>SUM(F13:J13)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J13">
+    <sortCondition descending="1" ref="D3:D13"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6942,10 +6952,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -6979,10 +6989,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D11" si="0">SUM(F4:L4)</f>
@@ -7017,7 +7027,7 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -7051,10 +7061,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -7088,10 +7098,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -7125,10 +7135,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>182</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -7163,7 +7173,7 @@
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -7197,10 +7207,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -7234,10 +7244,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -7358,10 +7368,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -7398,10 +7408,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D15" si="0">SUM(F4:M4)</f>
@@ -7438,10 +7448,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -7478,10 +7488,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -7518,10 +7528,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -7558,10 +7568,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -7598,10 +7608,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="9">
         <f>SUM(F9:M9)</f>
@@ -7638,10 +7648,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ref="D10:D12" si="1">SUM(F10:M10)</f>
@@ -7678,10 +7688,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="1"/>
@@ -7718,10 +7728,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
@@ -7758,10 +7768,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -7798,10 +7808,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -7838,10 +7848,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -7955,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>39</v>
@@ -7989,7 +7999,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>39</v>
@@ -8023,7 +8033,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>39</v>
@@ -8057,7 +8067,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>39</v>
@@ -8091,7 +8101,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>39</v>
@@ -8125,7 +8135,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>39</v>
@@ -8159,10 +8169,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="21">
         <f t="shared" si="0"/>
@@ -8193,10 +8203,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="21">
         <f t="shared" si="0"/>
@@ -8227,10 +8237,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="21">
         <f t="shared" si="0"/>
@@ -8261,10 +8271,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="21">
         <f t="shared" si="0"/>
@@ -8295,10 +8305,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="21">
         <f>SUM(F13:K13)</f>
@@ -8329,10 +8339,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>204</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>205</v>
       </c>
       <c r="D14" s="21">
         <f t="shared" ref="D14:D18" si="1">SUM(F14:K14)</f>
@@ -8363,10 +8373,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="21">
         <f t="shared" si="1"/>
@@ -8397,10 +8407,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="21">
         <f t="shared" si="1"/>
@@ -8431,10 +8441,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="21">
         <f t="shared" si="1"/>
@@ -8465,7 +8475,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>39</v>
@@ -8580,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="7">
@@ -8615,7 +8625,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="9">
@@ -8650,7 +8660,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="9">
@@ -8685,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="9">
@@ -8843,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="15">
@@ -8878,7 +8888,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="16">
@@ -8913,7 +8923,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="16">
@@ -8948,7 +8958,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="66"/>
       <c r="D6" s="16">
@@ -8983,7 +8993,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="17">
@@ -9115,10 +9125,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:N3)</f>
@@ -9158,7 +9168,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
@@ -9201,7 +9211,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>39</v>
@@ -9244,10 +9254,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -9287,10 +9297,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -9330,7 +9340,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>39</v>
@@ -9417,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -9455,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -9492,10 +9502,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D16" si="0">SUM(F4:L4)</f>
@@ -9529,10 +9539,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -9566,10 +9576,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -9603,10 +9613,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -9640,10 +9650,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -9677,10 +9687,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -9714,10 +9724,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -9751,10 +9761,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -9788,10 +9798,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -9825,10 +9835,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -9862,10 +9872,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
@@ -9899,10 +9909,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="36" t="s">
         <v>81</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
@@ -9936,7 +9946,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>39</v>
@@ -10016,7 +10026,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -10054,7 +10064,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>39</v>
@@ -10091,10 +10101,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D10" si="0">SUM(F4:L4)</f>
@@ -10128,10 +10138,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -10165,10 +10175,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -10202,10 +10212,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -10240,7 +10250,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -10274,10 +10284,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -10311,7 +10321,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>39</v>
@@ -10429,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="7">
@@ -10464,7 +10474,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="9">
@@ -10499,7 +10509,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="9">
@@ -10661,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>39</v>
@@ -10701,10 +10711,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D12" si="0">SUM(F4:M4)</f>
@@ -10741,10 +10751,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -10781,10 +10791,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -10821,10 +10831,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -10861,10 +10871,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>99</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>100</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -10901,10 +10911,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -10941,10 +10951,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -10981,10 +10991,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>104</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -11021,10 +11031,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -11061,10 +11071,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -11100,7 +11110,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>39</v>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268C65C3-734E-40E6-BAC1-6D71F12B7ED3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776F2F1-F618-4E8A-AE65-15274B344DE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="1" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="9" activeTab="14" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,17 @@
     <sheet name="SOLISTA NOVEL FEMENINO" sheetId="12" r:id="rId7"/>
     <sheet name="TRIO FEMENINO" sheetId="7" r:id="rId8"/>
     <sheet name="PAREJAS NOVEL" sheetId="6" r:id="rId9"/>
-    <sheet name="GRUPO LIBRE" sheetId="5" r:id="rId10"/>
-    <sheet name="SOLO CHICAS" sheetId="24" r:id="rId11"/>
-    <sheet name="SOLISTA LIBRE MASCULINO" sheetId="4" r:id="rId12"/>
-    <sheet name="SOLISTA LIBRE FEMENINO" sheetId="13" r:id="rId13"/>
-    <sheet name="PAREJAS JUVENIL" sheetId="14" r:id="rId14"/>
-    <sheet name="SOLISTA INFANTIL FEMENINO" sheetId="15" r:id="rId15"/>
-    <sheet name="DUETO ABIERTO" sheetId="16" r:id="rId16"/>
-    <sheet name="SOLISTA NT MASCULINO" sheetId="17" r:id="rId17"/>
-    <sheet name="SOLISTA NT FEMENINO" sheetId="18" r:id="rId18"/>
-    <sheet name="GRUPO NOVEL" sheetId="19" r:id="rId19"/>
-    <sheet name="SOLISTA JUVENIL FEMENINO" sheetId="20" r:id="rId20"/>
-    <sheet name="PAREJAS NT" sheetId="22" r:id="rId21"/>
-    <sheet name="SOLISTA AFROCUBANO" sheetId="23" r:id="rId22"/>
+    <sheet name="SOLISTA LIBRE MASCULINO" sheetId="4" r:id="rId10"/>
+    <sheet name="SOLISTA LIBRE FEMENINO" sheetId="13" r:id="rId11"/>
+    <sheet name="PAREJAS JUVENIL" sheetId="14" r:id="rId12"/>
+    <sheet name="SOLISTA INFANTIL FEMENINO" sheetId="15" r:id="rId13"/>
+    <sheet name="DUETO ABIERTO" sheetId="16" r:id="rId14"/>
+    <sheet name="SOLISTA NT MASCULINO" sheetId="17" r:id="rId15"/>
+    <sheet name="SOLISTA NT FEMENINO" sheetId="18" r:id="rId16"/>
+    <sheet name="GRUPO NOVEL" sheetId="19" r:id="rId17"/>
+    <sheet name="SOLISTA JUVENIL FEMENINO" sheetId="20" r:id="rId18"/>
+    <sheet name="PAREJAS NT" sheetId="22" r:id="rId19"/>
+    <sheet name="SOLISTA AFROCUBANO" sheetId="23" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="199">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -117,9 +115,6 @@
     <t>PAREJAS NOVEL</t>
   </si>
   <si>
-    <t>GRUPO LIBRE</t>
-  </si>
-  <si>
     <t>SOLISTA LIBRE MASCULINO</t>
   </si>
   <si>
@@ -162,12 +157,6 @@
     <t>GENERO ADICIONAL</t>
   </si>
   <si>
-    <t>SOLO CHICAS</t>
-  </si>
-  <si>
-    <t>FEMEINIDAD</t>
-  </si>
-  <si>
     <t>EDWARD - LORENA</t>
   </si>
   <si>
@@ -219,18 +208,12 @@
     <t>HABANA EN CLAVE</t>
   </si>
   <si>
-    <t>FEED BACK LATIANO</t>
-  </si>
-  <si>
     <t>LA CLAVE MATURIN</t>
   </si>
   <si>
     <t>OLU</t>
   </si>
   <si>
-    <t>ARTE DANCE COMPANY</t>
-  </si>
-  <si>
     <t>ALTO VOLTAJE</t>
   </si>
   <si>
@@ -252,9 +235,6 @@
     <t>MIGUEL - LIANNYS</t>
   </si>
   <si>
-    <t>MARIA - GEREMICS</t>
-  </si>
-  <si>
     <t>JUAN ALVARADO</t>
   </si>
   <si>
@@ -267,9 +247,6 @@
     <t>JORGE BADELL</t>
   </si>
   <si>
-    <t>JOSE CANO</t>
-  </si>
-  <si>
     <t>DARWIN ROJAS</t>
   </si>
   <si>
@@ -285,9 +262,6 @@
     <t>JEFFERSON MACSEME</t>
   </si>
   <si>
-    <t>JOSE CONTRERAS</t>
-  </si>
-  <si>
     <t>MIGUEL MARACARA</t>
   </si>
   <si>
@@ -303,9 +277,6 @@
     <t>EDWIN GUEVARA</t>
   </si>
   <si>
-    <t>JORMAN GARCIA</t>
-  </si>
-  <si>
     <t>KAREN MELLADO</t>
   </si>
   <si>
@@ -321,60 +292,12 @@
     <t>NICOLE ESCALONA</t>
   </si>
   <si>
-    <t>ANNY PEREZ</t>
-  </si>
-  <si>
-    <t>NEGCELYS SUAREZ</t>
-  </si>
-  <si>
     <t>SARA CASTRO</t>
   </si>
   <si>
-    <t>EDWIN Y SARA</t>
-  </si>
-  <si>
-    <t>JESUS Y ROSNIELYS</t>
-  </si>
-  <si>
-    <t>SCLV</t>
-  </si>
-  <si>
-    <t>JEFERSON Y JHUANNY</t>
-  </si>
-  <si>
-    <t>ALEJANDRA Y MIGUEL</t>
-  </si>
-  <si>
-    <t>FRANKLIN Y ARIAGNA</t>
-  </si>
-  <si>
-    <t>REBECA Y GABRIEL</t>
-  </si>
-  <si>
     <t>ZANDUNGA</t>
   </si>
   <si>
-    <t>LAURA Y JHANFRAN</t>
-  </si>
-  <si>
-    <t>ANNY Y JOSE</t>
-  </si>
-  <si>
-    <t>JORGE Y VALENTINA</t>
-  </si>
-  <si>
-    <t>SON LATINO</t>
-  </si>
-  <si>
-    <t>ROYKER Y MARIA</t>
-  </si>
-  <si>
-    <t>ALI Y GABRIELA</t>
-  </si>
-  <si>
-    <t>JUAN Y LEYNERT</t>
-  </si>
-  <si>
     <t>REINER RODRIGUEZ</t>
   </si>
   <si>
@@ -399,9 +322,6 @@
     <t>F. AFROCARIBE Y TIMBA</t>
   </si>
   <si>
-    <t>GUSTAVO HERNANDEZ</t>
-  </si>
-  <si>
     <t>ELVIS PAEZ</t>
   </si>
   <si>
@@ -432,33 +352,12 @@
     <t>ISABEL ROBLES</t>
   </si>
   <si>
-    <t>ULISES Y BARBARA</t>
-  </si>
-  <si>
-    <t>JOSE Y RONAILYS</t>
-  </si>
-  <si>
-    <t>GABRIEL Y SUSEJ</t>
-  </si>
-  <si>
-    <t>IVANA Y ABRAHAN</t>
-  </si>
-  <si>
-    <t>JORK Y ANGYBETH</t>
-  </si>
-  <si>
     <t>FEDDBACK LATINO</t>
   </si>
   <si>
-    <t>KENGERLYN Y JOSUE</t>
-  </si>
-  <si>
     <t>CAMILA OLIVARES</t>
   </si>
   <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
     <t>MOVIDA EXPERIMENTAL</t>
   </si>
   <si>
@@ -468,18 +367,12 @@
     <t>ROCINI CEDEÑO</t>
   </si>
   <si>
-    <t>KENYERLY</t>
-  </si>
-  <si>
     <t>YARIELIS NOGALES</t>
   </si>
   <si>
     <t>ESENCIA LATINA</t>
   </si>
   <si>
-    <t>SARAH GARCIA</t>
-  </si>
-  <si>
     <t>SUSEJ</t>
   </si>
   <si>
@@ -510,9 +403,6 @@
     <t>NEHOMAR BRICEÑO</t>
   </si>
   <si>
-    <t>ANGEL CONTRERAS</t>
-  </si>
-  <si>
     <t>CHRISTIAN HERNANDEZ</t>
   </si>
   <si>
@@ -522,18 +412,12 @@
     <t>MANUEL GOMEZ</t>
   </si>
   <si>
-    <t>ANDRES PINEDA</t>
-  </si>
-  <si>
     <t>LA CLAVE</t>
   </si>
   <si>
     <t>YHONKEIBER LEMOS</t>
   </si>
   <si>
-    <t>PASION LATINO</t>
-  </si>
-  <si>
     <t>ANDREA AGUILERA</t>
   </si>
   <si>
@@ -546,9 +430,6 @@
     <t>AISSYS NOGUERA</t>
   </si>
   <si>
-    <t>ALEHANA MONAGAS</t>
-  </si>
-  <si>
     <t>ARIADNA GARCIA</t>
   </si>
   <si>
@@ -558,12 +439,6 @@
     <t>KEIYERI AGUILERA</t>
   </si>
   <si>
-    <t>KEIMAR GUITIERREZ</t>
-  </si>
-  <si>
-    <t>GRECIA</t>
-  </si>
-  <si>
     <t>CAMILA NARANJO</t>
   </si>
   <si>
@@ -600,18 +475,12 @@
     <t>LA KLAVE</t>
   </si>
   <si>
-    <t>VERONICA QUINTERO</t>
-  </si>
-  <si>
     <t>SOFIA GUTIERREZ</t>
   </si>
   <si>
     <t>ARNALDO - MARIALEX</t>
   </si>
   <si>
-    <t>GENDRIX - YASMIN</t>
-  </si>
-  <si>
     <t>RAFAEL - SABRINA</t>
   </si>
   <si>
@@ -627,12 +496,6 @@
     <t>LEHOMAR - VIVIANA</t>
   </si>
   <si>
-    <t>ANGEL - ALHANA</t>
-  </si>
-  <si>
-    <t>SAMY - GRECIA</t>
-  </si>
-  <si>
     <t>ANDRES - MARIANGELA</t>
   </si>
   <si>
@@ -651,30 +514,12 @@
     <t>CHRISTIAN GAVIDIA</t>
   </si>
   <si>
-    <t>JHONATAN ABOUL</t>
-  </si>
-  <si>
-    <t>IVANESCA POSCAN</t>
-  </si>
-  <si>
-    <t>JOSE MARTINES</t>
-  </si>
-  <si>
-    <t>ALEJANDRA BESSEK</t>
-  </si>
-  <si>
-    <t>TONI ZAPATADA</t>
-  </si>
-  <si>
     <t>F AFROCARIBE Y TIMBA</t>
   </si>
   <si>
     <t>ALBERT BASTIDAS</t>
   </si>
   <si>
-    <t>GENERO ADICONAL</t>
-  </si>
-  <si>
     <t>JONATHAN ABOUD</t>
   </si>
   <si>
@@ -691,6 +536,117 @@
   </si>
   <si>
     <t>PASION SALSERA</t>
+  </si>
+  <si>
+    <t>GEREMIK - MARIA</t>
+  </si>
+  <si>
+    <t>JHON JAVIER GUZMAN</t>
+  </si>
+  <si>
+    <t>CHRISTIAN RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JUAN - LEYNERT</t>
+  </si>
+  <si>
+    <t>ROYNER - MARIA</t>
+  </si>
+  <si>
+    <t>JHANFRAN - LAURA</t>
+  </si>
+  <si>
+    <t>GABRIEL - REBECA</t>
+  </si>
+  <si>
+    <t>FRANKLIN - ARIAGNA</t>
+  </si>
+  <si>
+    <t>JEFERSON -JHUANNY</t>
+  </si>
+  <si>
+    <t>JESUS - ROSNIELYS</t>
+  </si>
+  <si>
+    <t>EDWIN - SARA</t>
+  </si>
+  <si>
+    <t>JOSUE - KENGERLYN</t>
+  </si>
+  <si>
+    <t>JORK - ANGYBETH</t>
+  </si>
+  <si>
+    <t>ABRAHAN - IVANNA</t>
+  </si>
+  <si>
+    <t>JOSE - RONAILYS</t>
+  </si>
+  <si>
+    <t>ULISES - BARBARA</t>
+  </si>
+  <si>
+    <t>EVANGELINE BECERRA</t>
+  </si>
+  <si>
+    <t>SALSA&amp;ASHE</t>
+  </si>
+  <si>
+    <t>CAMILA ALVAREZ</t>
+  </si>
+  <si>
+    <t>ANDREA VERA</t>
+  </si>
+  <si>
+    <t>CHANTAL QUINTERO</t>
+  </si>
+  <si>
+    <t>VALERIA CORDOBA</t>
+  </si>
+  <si>
+    <t>AIRAM BASALO</t>
+  </si>
+  <si>
+    <t>SOFIA ALVAREZ</t>
+  </si>
+  <si>
+    <t>HENDRIX - YASMIN</t>
+  </si>
+  <si>
+    <t>JOSE MARTINEZ</t>
+  </si>
+  <si>
+    <t>JHONATAN ABOUD</t>
+  </si>
+  <si>
+    <t>OSWALDO - MAGDELYS</t>
+  </si>
+  <si>
+    <t>DOMUS DANCE</t>
+  </si>
+  <si>
+    <t>JENNIFER FARFAN</t>
+  </si>
+  <si>
+    <t>IRWING MORENO</t>
+  </si>
+  <si>
+    <t>ISAAC - KATHERINE</t>
+  </si>
+  <si>
+    <t>SABOR A RUMBA Y MANANA</t>
+  </si>
+  <si>
+    <t>ALEJANDRO PINEDA</t>
+  </si>
+  <si>
+    <t>GEREMIK NUÑEZ</t>
+  </si>
+  <si>
+    <t>REYNA</t>
+  </si>
+  <si>
+    <t>TUMBAO CARIBE</t>
   </si>
 </sst>
 </file>
@@ -754,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1259,11 +1215,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1319,9 +1314,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,9 +1321,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1343,31 +1332,16 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,12 +1371,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1415,19 +1383,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1437,6 +1411,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,16 +1449,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,18 +1798,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1865,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:J3)</f>
@@ -1896,10 +1879,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="9">
         <f>SUM(F4:J4)</f>
@@ -1927,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:J5)</f>
@@ -1958,10 +1941,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:J6)</f>
@@ -1996,952 +1979,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9597FAD-DE7C-4AAC-8C8C-0158DCDF96D6}">
-  <dimension ref="A1:M12"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="7">
-        <f>SUM(F3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D12" si="0">SUM(F4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E18832E-F7DA-45FD-A9DF-2EF3049439A8}">
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="57"/>
-    </row>
-    <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="7">
-        <f>SUM(F3:N3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D12" si="0">SUM(F4:N4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453C5705-CF6D-405F-9DAE-52D79583766A}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:M14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,21 +1998,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3004,24 +2046,24 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
+      <c r="B3" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -3054,57 +2096,38 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="68">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D14" si="0">SUM(F4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
+      <c r="B4" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>73</v>
+      <c r="B5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D14" si="0">SUM(F5:M5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -3134,14 +2157,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="68">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -3178,13 +2201,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F7:M7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -3214,14 +2237,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="68">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -3258,10 +2281,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -3294,14 +2317,14 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="68">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -3338,10 +2361,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -3374,14 +2397,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="68">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -3414,17 +2437,17 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>81</v>
+      <c r="B13" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F13:M13)</f>
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -3454,14 +2477,14 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="71">
         <v>12</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>39</v>
+      <c r="B14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
@@ -3501,12 +2524,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760712C0-88D3-4C15-9400-B76688D4D1C5}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,21 +2546,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3571,13 +2594,13 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3585,10 +2608,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -3625,10 +2648,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -3664,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -3703,10 +2726,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -3742,10 +2765,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -3781,10 +2804,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -3820,10 +2843,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -3862,12 +2885,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB0B8C-5748-4965-8F02-4BA9CCB48CA3}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3884,21 +2907,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3923,10 +2946,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>7</v>
@@ -3946,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -3986,13 +3009,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D8" si="0">SUM(F4:M4)</f>
+        <f t="shared" ref="D4:D7" si="0">SUM(F4:M4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4026,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4066,10 +3089,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4101,83 +3124,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -4189,18 +3172,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430099C8-7B15-44A4-94B7-5BE7B3D2596D}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K1:K1048576"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
@@ -4209,20 +3193,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4256,7 +3240,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
@@ -4266,11 +3250,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>81</v>
+      <c r="B3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -4304,13 +3288,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D12" si="0">SUM(F4:L4)</f>
+        <f t="shared" ref="D4:D14" si="0">SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4341,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4378,10 +3362,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4410,15 +3394,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4451,11 +3435,11 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>140</v>
+      <c r="B8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -4489,10 +3473,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -4526,10 +3510,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -4563,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -4595,45 +3579,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="B12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4643,12 +3698,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6972AB4-548C-46E5-AFA4-85F08BF384BD}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J1:J1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4664,29 +3719,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4708,7 +3763,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>9</v>
@@ -4721,8 +3776,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -4754,10 +3811,12 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
+      <c r="B4" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="60"/>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D12" si="0">SUM(F4:L4)</f>
+        <f t="shared" ref="D4:D5" si="0">SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4787,8 +3846,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="60"/>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4816,262 +3877,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B12:C12"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB712281-00E1-4FDC-A84D-5C48720B0CEB}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5088,20 +3911,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5129,7 +3952,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>8</v>
@@ -5145,11 +3968,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>81</v>
+      <c r="B3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5183,13 +4006,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D15" si="0">SUM(F4:L4)</f>
+        <f>SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -5220,13 +4043,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:L5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -5257,13 +4080,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:L6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -5294,13 +4117,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F7:L7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -5331,13 +4154,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F8:L8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -5368,13 +4191,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F9:L9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -5405,13 +4228,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:L10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -5441,14 +4264,14 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>53</v>
+      <c r="B11" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F11:L11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -5474,18 +4297,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>57</v>
+      <c r="B12" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F12:L12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -5511,114 +4334,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>12</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
-        <v>13</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="B13" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="11">
+        <f>SUM(F13:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -5630,12 +4379,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D675C796-FBE0-4A3C-AE52-1F243CD1E14C}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5651,20 +4400,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5692,7 +4441,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>8</v>
@@ -5704,15 +4453,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>157</v>
+      <c r="B3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5745,14 +4494,14 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>57</v>
+      <c r="B4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D15" si="0">SUM(F4:L4)</f>
+        <f>SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -5783,13 +4532,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>57</v>
+        <v>123</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:L5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -5820,13 +4569,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>57</v>
+        <v>124</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:L6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -5857,13 +4606,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>58</v>
+        <v>125</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F7:L7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -5894,13 +4643,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>57</v>
+        <v>127</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F8:L8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -5931,13 +4680,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>60</v>
+        <v>128</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F9:L9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -5967,14 +4716,14 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>86</v>
+      <c r="B10" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:L10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -6004,14 +4753,14 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>58</v>
+      <c r="B11" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>120</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F11:L11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -6037,151 +4786,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>11</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>12</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
-        <v>13</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
+      <c r="B12" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="11">
+        <f>SUM(F12:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
         <v>0</v>
       </c>
     </row>
@@ -6193,12 +4831,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B102081-BF9F-4B39-A50E-B8B2CCBD6642}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6214,29 +4852,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="A1" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -6261,7 +4899,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
@@ -6271,10 +4909,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="64"/>
+      <c r="B3" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -6306,12 +4944,12 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="66"/>
+      <c r="B4" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="60"/>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D7" si="0">SUM(F4:L4)</f>
+        <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -6341,10 +4979,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="66"/>
+      <c r="B5" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="60"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6372,80 +5010,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="16">
+      <c r="B6" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>5</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -6456,429 +5058,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D3B04C-C77B-48A6-913A-E5F52797CF8D}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-    </row>
-    <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="15">
-        <f>SUM(F3:J3)</f>
-        <v>39</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="16">
-        <f>SUM(F4:J4)</f>
-        <v>36</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9">
-        <v>7</v>
-      </c>
-      <c r="I4" s="9">
-        <v>7</v>
-      </c>
-      <c r="J4" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="75">
-        <f>SUM(F5:J5)</f>
-        <v>35</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9">
-        <v>7</v>
-      </c>
-      <c r="H5" s="9">
-        <v>6</v>
-      </c>
-      <c r="I5" s="9">
-        <v>7</v>
-      </c>
-      <c r="J5" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="16">
-        <f>SUM(F6:J6)</f>
-        <v>35</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>7</v>
-      </c>
-      <c r="G6" s="9">
-        <v>7</v>
-      </c>
-      <c r="H6" s="9">
-        <v>7</v>
-      </c>
-      <c r="I6" s="9">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="16">
-        <f>SUM(F7:J7)</f>
-        <v>34</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>7</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6</v>
-      </c>
-      <c r="H7" s="9">
-        <v>6</v>
-      </c>
-      <c r="I7" s="9">
-        <v>7</v>
-      </c>
-      <c r="J7" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="16">
-        <f>SUM(F8:J8)</f>
-        <v>34</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>7</v>
-      </c>
-      <c r="G8" s="9">
-        <v>7</v>
-      </c>
-      <c r="H8" s="9">
-        <v>7</v>
-      </c>
-      <c r="I8" s="9">
-        <v>6</v>
-      </c>
-      <c r="J8" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="16">
-        <f>SUM(F9:J9)</f>
-        <v>33</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>7</v>
-      </c>
-      <c r="G9" s="9">
-        <v>7</v>
-      </c>
-      <c r="H9" s="9">
-        <v>6</v>
-      </c>
-      <c r="I9" s="9">
-        <v>6</v>
-      </c>
-      <c r="J9" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="16">
-        <f>SUM(F10:J10)</f>
-        <v>32</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>7</v>
-      </c>
-      <c r="G10" s="9">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9">
-        <v>6</v>
-      </c>
-      <c r="I10" s="9">
-        <v>7</v>
-      </c>
-      <c r="J10" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="16">
-        <f>SUM(F11:J11)</f>
-        <v>32</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9">
-        <v>6</v>
-      </c>
-      <c r="H11" s="9">
-        <v>6</v>
-      </c>
-      <c r="I11" s="9">
-        <v>7</v>
-      </c>
-      <c r="J11" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="16">
-        <f>SUM(F12:J12)</f>
-        <v>30</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>7</v>
-      </c>
-      <c r="G12" s="9">
-        <v>4</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5</v>
-      </c>
-      <c r="I12" s="9">
-        <v>7</v>
-      </c>
-      <c r="J12" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="17">
-        <f>SUM(F13:J13)</f>
-        <v>27</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
-        <v>7</v>
-      </c>
-      <c r="G13" s="11">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11">
-        <v>5</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5</v>
-      </c>
-      <c r="J13" s="11">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J13">
-    <sortCondition descending="1" ref="D3:D13"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394F48B-B19C-45C2-AECE-BC9AD5D4CB9B}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6894,20 +5079,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6935,7 +5120,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>8</v>
@@ -6947,15 +5132,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
+      <c r="B3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -6988,14 +5173,14 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>176</v>
+      <c r="B4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D11" si="0">SUM(F4:L4)</f>
+        <f>SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -7025,49 +5210,34 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="C5" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>178</v>
+      <c r="B6" s="70" t="s">
+        <v>197</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:L6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -7098,13 +5268,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F7:L7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -7135,13 +5305,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F8:L8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -7171,12 +5341,14 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="C9" s="8" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F9:L9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -7207,13 +5379,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:L10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -7240,41 +5412,45 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D11" s="9">
+        <f>SUM(F11:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="70"/>
+      <c r="C17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7284,18 +5460,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDEA901-26C0-41C5-B438-AE40E4689819}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
@@ -7306,21 +5483,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7345,10 +5522,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>7</v>
@@ -7367,11 +5544,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>43</v>
+      <c r="B3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -7408,13 +5585,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D15" si="0">SUM(F4:M4)</f>
+        <f>SUM(F4:M4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -7443,18 +5620,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:M5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -7487,14 +5664,14 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>57</v>
+      <c r="B6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:M6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -7528,13 +5705,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F7:M7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -7568,13 +5745,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F8:M8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -7608,10 +5785,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9">
         <f>SUM(F9:M9)</f>
@@ -7648,13 +5825,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ref="D10:D12" si="1">SUM(F10:M10)</f>
+        <f t="shared" ref="D10:D11" si="0">SUM(F10:M10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -7688,13 +5865,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -7728,13 +5905,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="1"/>
+        <f>SUM(F12:M12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -7768,13 +5945,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F13:M13)</f>
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -7808,13 +5985,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F14:M14)</f>
         <v>0</v>
       </c>
       <c r="E14" s="9"/>
@@ -7848,13 +6025,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(F15:M15)</f>
         <v>0</v>
       </c>
       <c r="E15" s="11"/>
@@ -7891,12 +6068,429 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D3B04C-C77B-48A6-913A-E5F52797CF8D}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:D13" si="0">SUM(F3:J3)</f>
+        <v>39</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="48">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9">
+        <v>6</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9">
+        <v>7</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9">
+        <v>7</v>
+      </c>
+      <c r="J7" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9">
+        <v>7</v>
+      </c>
+      <c r="I8" s="9">
+        <v>6</v>
+      </c>
+      <c r="J8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <v>6</v>
+      </c>
+      <c r="H11" s="9">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>7</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4</v>
+      </c>
+      <c r="H12" s="9">
+        <v>5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>7</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J13">
+    <sortCondition descending="1" ref="D3:D13"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB67CF2-EE9A-43D1-97E0-98D4A8CEBB5B}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7911,19 +6505,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
+      <c r="A1" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7964,33 +6558,33 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="B3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7">
         <f>SUM(F3:K3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24">
-        <v>0</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="25">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -7998,33 +6592,33 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="21">
-        <f t="shared" ref="D4:D12" si="0">SUM(F4:K4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
-        <v>0</v>
-      </c>
-      <c r="K4" s="26">
+      <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9">
+        <f>SUM(F4:K4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8032,33 +6626,33 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0</v>
-      </c>
-      <c r="K5" s="26">
+      <c r="B5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9">
+        <f>SUM(F5:K5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8066,33 +6660,33 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9">
+        <f>SUM(F6:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8100,67 +6694,67 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0</v>
-      </c>
-      <c r="K7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9">
+        <f>SUM(F7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0</v>
-      </c>
-      <c r="K8" s="26">
+      <c r="B8" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9">
+        <f>SUM(F8:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8168,33 +6762,33 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0</v>
-      </c>
-      <c r="K9" s="26">
+      <c r="B9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="9">
+        <f>SUM(F9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8202,33 +6796,33 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0</v>
-      </c>
-      <c r="K10" s="26">
+      <c r="B10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM(F10:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8236,33 +6830,33 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0</v>
-      </c>
-      <c r="K11" s="26">
+      <c r="B11" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="9">
+        <f>SUM(F11:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
         <v>0</v>
       </c>
     </row>
@@ -8271,236 +6865,168 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0</v>
-      </c>
-      <c r="K12" s="26">
+        <v>88</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="9">
+        <f>SUM(F12:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="B13" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="9">
         <f>SUM(F13:K13)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <v>0</v>
-      </c>
-      <c r="K13" s="26">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="21">
-        <f t="shared" ref="D14:D18" si="1">SUM(F14:K14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0</v>
-      </c>
-      <c r="J14" s="21">
-        <v>0</v>
-      </c>
-      <c r="K14" s="26">
+      <c r="B14" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="9">
+        <f>SUM(F14:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="21">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21">
-        <v>0</v>
-      </c>
-      <c r="K15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="B15" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="9">
+        <f>SUM(F15:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21">
-        <v>0</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0</v>
-      </c>
-      <c r="J16" s="21">
-        <v>0</v>
-      </c>
-      <c r="K16" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
-        <v>15</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
-        <v>0</v>
-      </c>
-      <c r="G17" s="21">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
-        <v>0</v>
-      </c>
-      <c r="I17" s="21">
-        <v>0</v>
-      </c>
-      <c r="J17" s="21">
-        <v>0</v>
-      </c>
-      <c r="K17" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
-        <v>16</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34">
-        <v>0</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
-        <v>0</v>
-      </c>
-      <c r="I18" s="34">
-        <v>0</v>
-      </c>
-      <c r="J18" s="34">
-        <v>0</v>
-      </c>
-      <c r="K18" s="35">
+        <v>48</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="11">
+        <f>SUM(F16:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
         <v>0</v>
       </c>
     </row>
@@ -8517,7 +7043,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8532,29 +7058,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -8579,7 +7105,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
@@ -8589,10 +7115,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="64"/>
+      <c r="B3" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -8624,10 +7150,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="66"/>
+      <c r="B4" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="60"/>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D7" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -8659,10 +7185,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="66"/>
+      <c r="B5" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="60"/>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8694,10 +7220,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="66"/>
+      <c r="B6" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="60"/>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8729,10 +7255,10 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="59"/>
+      <c r="B7" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="52"/>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8776,10 +7302,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1327F-AF52-4ADA-901C-E6B09506EFE9}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8795,29 +7321,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -8842,7 +7368,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
@@ -8852,10 +7378,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="64"/>
+      <c r="B3" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -8887,12 +7413,12 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="66"/>
+      <c r="B4" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="60"/>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D7" si="0">SUM(F4:L4)</f>
+        <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -8922,10 +7448,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="66"/>
+      <c r="B5" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="60"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8953,85 +7479,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="16">
+      <c r="B6" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>5</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9041,8 +7531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA92949-7923-4D45-8C1E-60B0E78D5892}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9059,22 +7549,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9099,10 +7589,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>7</v>
@@ -9117,18 +7607,18 @@
         <v>10</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>43</v>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:N3)</f>
@@ -9163,15 +7653,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D8" si="0">SUM(F4:N4)</f>
@@ -9210,11 +7700,11 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
+      <c r="B5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -9254,10 +7744,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -9297,10 +7787,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -9340,10 +7830,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
@@ -9390,8 +7880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06B992C-4A7F-4E98-963A-7EDF114C98D5}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9407,27 +7897,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -9451,7 +7941,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>9</v>
@@ -9460,21 +7950,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="7">
         <v>0</v>
       </c>
@@ -9501,17 +7991,17 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>69</v>
+      <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D16" si="0">SUM(F4:L4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="9">
         <v>0</v>
       </c>
@@ -9538,17 +8028,17 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>48</v>
+      <c r="B5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="9">
         <v>0</v>
       </c>
@@ -9575,17 +8065,17 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>58</v>
+      <c r="B6" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="9">
         <v>0</v>
       </c>
@@ -9613,16 +8103,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="9">
         <v>0</v>
       </c>
@@ -9650,16 +8140,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="9">
         <v>0</v>
       </c>
@@ -9687,16 +8177,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="9">
         <v>0</v>
       </c>
@@ -9724,16 +8214,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="39"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="9">
         <v>0</v>
       </c>
@@ -9761,16 +8251,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="9">
         <v>0</v>
       </c>
@@ -9798,16 +8288,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="9">
         <v>0</v>
       </c>
@@ -9835,16 +8325,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="9">
         <v>0</v>
       </c>
@@ -9872,16 +8362,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="9">
         <v>0</v>
       </c>
@@ -9905,20 +8395,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>81</v>
+      <c r="B15" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="9">
         <v>0</v>
       </c>
@@ -9942,20 +8432,20 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>39</v>
+      <c r="B16" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="11">
         <v>0</v>
       </c>
@@ -9988,10 +8478,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89B93C4-1CE9-4F81-BA7F-58C99A42AC22}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10006,27 +8496,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -10050,7 +8540,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>9</v>
@@ -10059,15 +8549,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
+      <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -10100,14 +8590,14 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>86</v>
+      <c r="B4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D10" si="0">SUM(F4:L4)</f>
+        <f t="shared" ref="D4:D8" si="0">SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -10138,10 +8628,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -10175,10 +8665,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -10212,10 +8702,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -10244,112 +8734,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
         <v>0</v>
       </c>
     </row>
@@ -10363,10 +8781,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1021F680-C14A-4717-B22D-46CE59336C86}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10381,29 +8799,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -10428,20 +8846,20 @@
         <v>9</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="64"/>
+      <c r="B3" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="58"/>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -10470,50 +8888,33 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="68">
         <v>2</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
+      <c r="B4" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="66"/>
+      <c r="B5" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="60"/>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D7" si="0">SUM(F5:L5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -10539,49 +8940,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="11">
+      <c r="B6" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="7">
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10589,10 +9026,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3335CB4-F25D-400F-A591-705EE0F995EE}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10609,21 +9046,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10648,10 +9085,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>7</v>
@@ -10670,79 +9107,79 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>39</v>
+      <c r="B3" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="24">
-        <v>0</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0</v>
-      </c>
-      <c r="H3" s="24">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="24">
-        <v>0</v>
-      </c>
-      <c r="K3" s="24">
-        <v>0</v>
-      </c>
-      <c r="L3" s="24">
-        <v>0</v>
-      </c>
-      <c r="M3" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="31"/>
+      <c r="F3" s="22">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>53</v>
+      <c r="B4" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D12" si="0">SUM(F4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
-        <v>0</v>
-      </c>
-      <c r="M4" s="26">
+        <f t="shared" ref="D4:D9" si="0">SUM(F4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0</v>
+      </c>
+      <c r="M4" s="24">
         <v>0</v>
       </c>
     </row>
@@ -10750,39 +9187,39 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>94</v>
+      <c r="B5" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="21">
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <v>0</v>
-      </c>
-      <c r="M5" s="26">
+      <c r="E5" s="32"/>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0</v>
+      </c>
+      <c r="M5" s="24">
         <v>0</v>
       </c>
     </row>
@@ -10790,39 +9227,39 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>58</v>
+      <c r="B6" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <v>0</v>
-      </c>
-      <c r="M6" s="26">
+      <c r="E6" s="32"/>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
         <v>0</v>
       </c>
     </row>
@@ -10830,39 +9267,39 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>86</v>
+      <c r="B7" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <v>0</v>
-      </c>
-      <c r="M7" s="26">
+      <c r="E7" s="32"/>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
         <v>0</v>
       </c>
     </row>
@@ -10870,39 +9307,39 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>99</v>
+      <c r="B8" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="21">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0</v>
-      </c>
-      <c r="K8" s="21">
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <v>0</v>
-      </c>
-      <c r="M8" s="26">
+      <c r="E8" s="32"/>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
         <v>0</v>
       </c>
     </row>
@@ -10910,237 +9347,78 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>54</v>
+      <c r="B9" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="21">
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0</v>
-      </c>
-      <c r="K9" s="21">
-        <v>0</v>
-      </c>
-      <c r="L9" s="21">
-        <v>0</v>
-      </c>
-      <c r="M9" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="E9" s="32"/>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
-        <v>0</v>
-      </c>
-      <c r="I10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0</v>
-      </c>
-      <c r="L10" s="21">
-        <v>0</v>
-      </c>
-      <c r="M10" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="21">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
-        <v>0</v>
-      </c>
-      <c r="I11" s="21">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21">
-        <v>0</v>
-      </c>
-      <c r="K11" s="21">
-        <v>0</v>
-      </c>
-      <c r="L11" s="21">
-        <v>0</v>
-      </c>
-      <c r="M11" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
-        <v>0</v>
-      </c>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0</v>
-      </c>
-      <c r="K12" s="21">
-        <v>0</v>
-      </c>
-      <c r="L12" s="21">
-        <v>0</v>
-      </c>
-      <c r="M12" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>11</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="47">
-        <v>0</v>
-      </c>
-      <c r="G13" s="47">
-        <v>0</v>
-      </c>
-      <c r="H13" s="47">
-        <v>0</v>
-      </c>
-      <c r="I13" s="47">
-        <v>0</v>
-      </c>
-      <c r="J13" s="47">
-        <v>0</v>
-      </c>
-      <c r="K13" s="47">
-        <v>0</v>
-      </c>
-      <c r="L13" s="47">
-        <v>0</v>
-      </c>
-      <c r="M13" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="49">
-        <v>0</v>
-      </c>
-      <c r="G14" s="49">
-        <v>0</v>
-      </c>
-      <c r="H14" s="49">
-        <v>0</v>
-      </c>
-      <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="J14" s="49">
-        <v>0</v>
-      </c>
-      <c r="K14" s="49">
-        <v>0</v>
-      </c>
-      <c r="L14" s="49">
-        <v>0</v>
-      </c>
-      <c r="M14" s="50">
+      <c r="B10" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40">
+        <v>0</v>
+      </c>
+      <c r="H10" s="40">
+        <v>0</v>
+      </c>
+      <c r="I10" s="40">
+        <v>0</v>
+      </c>
+      <c r="J10" s="40">
+        <v>0</v>
+      </c>
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40">
+        <v>0</v>
+      </c>
+      <c r="M10" s="41">
         <v>0</v>
       </c>
     </row>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776F2F1-F618-4E8A-AE65-15274B344DE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71A5DC7-4AA4-40A4-81A5-A8109AB73ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="9" activeTab="14" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="13" activeTab="15" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="200">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -647,6 +647,9 @@
   </si>
   <si>
     <t>TUMBAO CARIBE</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1398,6 +1401,27 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1449,24 +1473,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,18 +1850,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1998,21 +2050,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2096,7 +2148,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="52">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -2105,16 +2157,16 @@
       <c r="C4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -2157,7 +2209,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="68">
+      <c r="A6" s="52">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2237,7 +2289,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="52">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2317,7 +2369,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
+      <c r="A10" s="52">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2397,7 +2449,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="68">
+      <c r="A12" s="52">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2477,7 +2529,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71">
+      <c r="A14" s="55">
         <v>12</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -2546,21 +2598,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2907,21 +2959,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3177,7 +3229,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,20 +3245,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3620,10 +3672,10 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="51" t="s">
         <v>179</v>
       </c>
       <c r="D13" s="9">
@@ -3719,29 +3771,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3776,10 +3828,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -3811,10 +3863,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D5" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -3846,10 +3898,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3893,7 +3945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB712281-00E1-4FDC-A84D-5C48720B0CEB}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3911,20 +3963,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3975,7 +4027,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(F3:L3)</f>
+        <f t="shared" ref="D3:D13" si="0">SUM(F3:L3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -4012,7 +4064,7 @@
         <v>198</v>
       </c>
       <c r="D4" s="9">
-        <f>SUM(F4:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4049,7 +4101,7 @@
         <v>115</v>
       </c>
       <c r="D5" s="9">
-        <f>SUM(F5:L5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -4086,7 +4138,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(F6:L6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -4123,7 +4175,7 @@
         <v>198</v>
       </c>
       <c r="D7" s="9">
-        <f>SUM(F7:L7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -4160,7 +4212,7 @@
         <v>115</v>
       </c>
       <c r="D8" s="9">
-        <f>SUM(F8:L8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -4197,7 +4249,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="9">
-        <f>SUM(F9:L9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -4234,7 +4286,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="9">
-        <f>SUM(F10:L10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -4271,7 +4323,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="9">
-        <f>SUM(F11:L11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -4308,7 +4360,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="9">
-        <f>SUM(F12:L12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -4345,7 +4397,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="11">
-        <f>SUM(F13:L13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="11"/>
@@ -4383,7 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D675C796-FBE0-4A3C-AE52-1F243CD1E14C}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -4400,20 +4452,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4464,7 +4516,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(F3:L3)</f>
+        <f t="shared" ref="D3:D12" si="0">SUM(F3:L3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -4501,7 +4553,7 @@
         <v>120</v>
       </c>
       <c r="D4" s="9">
-        <f>SUM(F4:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4538,7 +4590,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="9">
-        <f>SUM(F5:L5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -4575,7 +4627,7 @@
         <v>53</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(F6:L6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -4612,7 +4664,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="9">
-        <f>SUM(F7:L7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -4649,7 +4701,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="9">
-        <f>SUM(F8:L8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -4686,7 +4738,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="9">
-        <f>SUM(F9:L9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -4723,7 +4775,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="9">
-        <f>SUM(F10:L10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -4760,7 +4812,7 @@
         <v>120</v>
       </c>
       <c r="D11" s="9">
-        <f>SUM(F11:L11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -4797,7 +4849,7 @@
         <v>73</v>
       </c>
       <c r="D12" s="11">
-        <f>SUM(F12:L12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="11"/>
@@ -4852,29 +4904,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4909,10 +4961,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -4944,10 +4996,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -4979,10 +5031,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5014,10 +5066,10 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5063,7 +5115,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,20 +5131,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5230,14 +5282,14 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="54" t="s">
         <v>197</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(F6:L6)</f>
+        <f t="shared" ref="D6:D11" si="0">SUM(F6:L6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -5274,7 +5326,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="9">
-        <f>SUM(F7:L7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -5311,7 +5363,7 @@
         <v>135</v>
       </c>
       <c r="D8" s="9">
-        <f>SUM(F8:L8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -5348,7 +5400,7 @@
         <v>140</v>
       </c>
       <c r="D9" s="9">
-        <f>SUM(F9:L9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -5385,7 +5437,7 @@
         <v>136</v>
       </c>
       <c r="D10" s="9">
-        <f>SUM(F10:L10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -5422,7 +5474,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="9">
-        <f>SUM(F11:L11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -5449,7 +5501,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="8"/>
     </row>
   </sheetData>
@@ -5483,21 +5535,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5551,7 +5603,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(F3:M3)</f>
+        <f t="shared" ref="D3:D9" si="0">SUM(F3:M3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -5591,7 +5643,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="9">
-        <f>SUM(F4:M4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -5631,7 +5683,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="9">
-        <f>SUM(F5:M5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -5671,7 +5723,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(F6:M6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -5711,7 +5763,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="9">
-        <f>SUM(F7:M7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -5751,7 +5803,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="9">
-        <f>SUM(F8:M8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -5791,7 +5843,7 @@
         <v>55</v>
       </c>
       <c r="D9" s="9">
-        <f>SUM(F9:M9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -5831,7 +5883,7 @@
         <v>194</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" ref="D10:D11" si="0">SUM(F10:M10)</f>
+        <f t="shared" ref="D10:D11" si="1">SUM(F10:M10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -5871,7 +5923,7 @@
         <v>190</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -6087,18 +6139,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6505,19 +6557,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6565,7 +6617,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(F3:K3)</f>
+        <f t="shared" ref="D3:D16" si="0">SUM(F3:K3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -6599,7 +6651,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="9">
-        <f>SUM(F4:K4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -6633,7 +6685,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="9">
-        <f>SUM(F5:K5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -6667,7 +6719,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(F6:K6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -6701,7 +6753,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="9">
-        <f>SUM(F7:K7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -6735,7 +6787,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="9">
-        <f>SUM(F8:K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -6769,7 +6821,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="9">
-        <f>SUM(F9:K9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -6803,7 +6855,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="9">
-        <f>SUM(F10:K10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -6837,7 +6889,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="9">
-        <f>SUM(F11:K11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -6871,7 +6923,7 @@
         <v>154</v>
       </c>
       <c r="D12" s="9">
-        <f>SUM(F12:K12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -6905,7 +6957,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="9">
-        <f>SUM(F13:K13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -6939,7 +6991,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="9">
-        <f>SUM(F14:K14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="9"/>
@@ -6973,7 +7025,7 @@
         <v>73</v>
       </c>
       <c r="D15" s="9">
-        <f>SUM(F15:K15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="9"/>
@@ -7007,7 +7059,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="11">
-        <f>SUM(F16:K16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="11"/>
@@ -7043,7 +7095,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7058,32 +7110,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7115,10 +7167,12 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>199</v>
+      </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -7150,10 +7204,12 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="80" t="s">
+        <v>199</v>
+      </c>
       <c r="D4" s="9">
         <f t="shared" ref="D4:D7" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -7185,10 +7241,12 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="80" t="s">
+        <v>199</v>
+      </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7220,10 +7278,12 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="80" t="s">
+        <v>199</v>
+      </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7255,10 +7315,12 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="78" t="s">
+        <v>199</v>
+      </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7287,14 +7349,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7305,7 +7361,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7321,29 +7377,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="74" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -7378,10 +7434,12 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="58"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -7413,10 +7471,12 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="60"/>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -7448,10 +7508,12 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="60"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7483,10 +7545,12 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="52"/>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7515,13 +7579,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7549,22 +7608,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7897,20 +7956,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8065,10 +8124,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="50" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="9">
@@ -8496,20 +8555,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8784,7 +8843,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8799,29 +8858,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="65"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="72"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="74" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -8856,10 +8915,12 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="58"/>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -8888,31 +8949,35 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="68">
+      <c r="A4" s="52">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="60"/>
       <c r="D5" s="9">
         <f t="shared" ref="D5:D7" si="0">SUM(F5:L5)</f>
         <v>0</v>
@@ -8944,10 +9009,12 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="60"/>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8979,10 +9046,12 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="52"/>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9011,14 +9080,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:C7"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9046,21 +9109,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71A5DC7-4AA4-40A4-81A5-A8109AB73ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7FBC58-CBE5-4EA7-9E04-4EB0411F44FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="13" activeTab="15" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="2" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="200">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -253,9 +253,6 @@
     <t>INDEPENDIENTE</t>
   </si>
   <si>
-    <t>JHANFRAN LEAL</t>
-  </si>
-  <si>
     <t>JUAN BAUTISTA</t>
   </si>
   <si>
@@ -589,9 +586,6 @@
     <t>EVANGELINE BECERRA</t>
   </si>
   <si>
-    <t>SALSA&amp;ASHE</t>
-  </si>
-  <si>
     <t>CAMILA ALVAREZ</t>
   </si>
   <si>
@@ -650,6 +644,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>ALAN SANABRIA</t>
+  </si>
+  <si>
+    <t>JHANFRAN AGRO</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1085,17 +1085,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1180,40 +1169,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1225,21 +1188,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1251,8 +1201,21 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1261,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,16 +1280,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1335,32 +1292,20 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,19 +1319,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1401,25 +1337,19 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1482,19 +1412,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,22 +1451,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1850,18 +1839,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1931,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -1962,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:J5)</f>
@@ -1993,10 +1982,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:J6)</f>
@@ -2034,46 +2023,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453C5705-CF6D-405F-9DAE-52D79583766A}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="12" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2092,30 +2081,30 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>73</v>
+      <c r="B3" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>72</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -2148,38 +2137,57 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
+      <c r="D4" s="42">
+        <f>SUM(F4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42">
+        <v>0</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0</v>
+      </c>
+      <c r="I4" s="42">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0</v>
+      </c>
+      <c r="K4" s="42">
+        <v>0</v>
+      </c>
+      <c r="L4" s="42">
+        <v>0</v>
+      </c>
+      <c r="M4" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ref="D5:D14" si="0">SUM(F5:M5)</f>
+        <f>SUM(F5:M5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -2209,17 +2217,17 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:M6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -2253,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>47</v>
@@ -2289,17 +2297,17 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F8:M8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -2333,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F9:M9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -2369,17 +2377,17 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="D10" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:M10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -2413,13 +2421,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F11:M11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -2449,17 +2457,17 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F12:M12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -2492,11 +2500,11 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>73</v>
+      <c r="B13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(F13:M13)</f>
@@ -2529,17 +2537,17 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="44">
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(F14:M14)</f>
         <v>0</v>
       </c>
       <c r="E14" s="11"/>
@@ -2580,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760712C0-88D3-4C15-9400-B76688D4D1C5}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,30 +2606,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2640,29 +2648,29 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="7">
@@ -2699,13 +2707,14 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="91" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
+        <f>SUM(F4:M4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -2738,13 +2747,14 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="9">
+        <f>SUM(F5:M5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -2777,13 +2787,14 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="91" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="9">
+        <f>SUM(F6:M6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -2816,13 +2827,14 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="91" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="9">
+        <f>SUM(F7:M7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -2855,13 +2867,14 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="91" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="9">
+        <f>SUM(F8:M8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -2894,13 +2907,14 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="11">
+        <f t="shared" ref="D4:D9" si="0">SUM(F9:M9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="11"/>
@@ -2942,7 +2956,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2959,30 +2973,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="93" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3020,10 +3034,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="7">
@@ -3060,10 +3074,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="91" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
@@ -3100,10 +3114,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9">
@@ -3140,11 +3154,11 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>100</v>
+      <c r="B6" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>99</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -3180,10 +3194,10 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="11">
@@ -3229,7 +3243,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,20 +3259,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3299,16 +3313,16 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
       </c>
@@ -3336,17 +3350,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D14" si="0">SUM(F4:L4)</f>
+      <c r="C4" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16">
+        <f>SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -3373,17 +3387,17 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="16">
+        <f>SUM(F5:L5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -3410,17 +3424,17 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(F6:L6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -3446,18 +3460,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
+      <c r="D7" s="16">
+        <f>SUM(F7:L7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -3484,17 +3498,17 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
+      <c r="B8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="16">
+        <f>SUM(F8:L8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -3521,17 +3535,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
+      <c r="D9" s="16">
+        <f>SUM(F9:L9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -3558,17 +3572,17 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
+      <c r="D10" s="16">
+        <f>SUM(F10:L10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -3595,17 +3609,17 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
+      <c r="D11" s="16">
+        <f>SUM(F11:L11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -3632,17 +3646,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="16">
+        <f>SUM(F12:L12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -3669,17 +3683,17 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
+      <c r="B13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="16">
+        <f>SUM(F13:L13)</f>
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -3706,17 +3720,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="11">
-        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" ref="D4:D14" si="0">SUM(F14:L14)</f>
         <v>0</v>
       </c>
       <c r="E14" s="11"/>
@@ -3755,7 +3769,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3771,20 +3785,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3794,7 +3808,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -3831,7 +3845,9 @@
       <c r="B3" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="65" t="s">
+        <v>197</v>
+      </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -3866,9 +3882,11 @@
       <c r="B4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="67" t="s">
+        <v>197</v>
+      </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D5" si="0">SUM(F4:L4)</f>
+        <f>SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -3894,48 +3912,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
+      <c r="C5" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" ref="D4:D5" si="0">SUM(F5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3946,7 +3962,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3963,29 +3979,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="93" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4020,10 +4036,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="7">
@@ -4057,11 +4073,11 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>198</v>
+      <c r="B4" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>196</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
@@ -4094,11 +4110,11 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4131,10 +4147,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="91" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="9">
@@ -4168,11 +4184,11 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>198</v>
+      <c r="B7" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>196</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4205,11 +4221,11 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>115</v>
+      <c r="B8" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>114</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -4242,10 +4258,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="91" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="9">
@@ -4279,10 +4295,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="91" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="9">
@@ -4316,11 +4332,11 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>120</v>
+      <c r="B11" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>119</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -4349,15 +4365,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>73</v>
+      <c r="B12" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>72</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -4390,10 +4406,10 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="95" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="11">
@@ -4435,7 +4451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D675C796-FBE0-4A3C-AE52-1F243CD1E14C}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -4452,20 +4468,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4510,9 +4526,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="7">
@@ -4547,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
@@ -4584,9 +4600,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="9">
@@ -4621,9 +4637,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="9">
@@ -4658,9 +4674,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="9">
@@ -4695,9 +4711,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="9">
@@ -4732,10 +4748,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>77</v>
+        <v>127</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -4768,10 +4784,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="9">
@@ -4805,11 +4821,11 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>120</v>
+      <c r="B11" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -4842,11 +4858,11 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>73</v>
+      <c r="B12" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -4904,29 +4920,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4961,10 +4977,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -4996,10 +5012,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="67"/>
+      <c r="B4" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="56"/>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -5031,10 +5047,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5066,10 +5082,10 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5131,20 +5147,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5189,10 +5205,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5226,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>50</v>
@@ -5263,10 +5279,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5282,11 +5298,11 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>197</v>
+      <c r="B6" s="43" t="s">
+        <v>195</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D11" si="0">SUM(F6:L6)</f>
@@ -5320,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>50</v>
@@ -5357,10 +5373,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -5394,10 +5410,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5431,10 +5447,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -5468,10 +5484,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -5501,7 +5517,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="8"/>
     </row>
   </sheetData>
@@ -5535,21 +5551,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5597,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>53</v>
@@ -5637,7 +5653,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>53</v>
@@ -5677,7 +5693,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>42</v>
@@ -5717,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>40</v>
@@ -5757,7 +5773,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>53</v>
@@ -5797,7 +5813,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>40</v>
@@ -5837,7 +5853,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>55</v>
@@ -5877,10 +5893,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ref="D10:D11" si="1">SUM(F10:M10)</f>
@@ -5917,10 +5933,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="1"/>
@@ -5957,7 +5973,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>42</v>
@@ -5997,7 +6013,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>53</v>
@@ -6037,10 +6053,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="9">
         <f>SUM(F14:M14)</f>
@@ -6077,7 +6093,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>40</v>
@@ -6139,18 +6155,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6191,7 +6207,7 @@
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="15">
@@ -6222,7 +6238,7 @@
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="16">
@@ -6253,10 +6269,10 @@
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="39">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -6284,7 +6300,7 @@
       <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="16">
@@ -6313,9 +6329,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="16">
@@ -6344,9 +6360,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="16">
@@ -6377,7 +6393,7 @@
       <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="37" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="16">
@@ -6408,7 +6424,7 @@
       <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="16">
@@ -6439,7 +6455,7 @@
       <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="16">
@@ -6468,9 +6484,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="16">
@@ -6499,10 +6515,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>71</v>
+        <v>90</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
@@ -6542,7 +6558,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6557,19 +6573,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6645,7 +6661,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -6679,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>36</v>
@@ -6747,7 +6763,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>36</v>
@@ -6781,7 +6797,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -6815,7 +6831,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
@@ -6849,7 +6865,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>53</v>
@@ -6883,7 +6899,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>51</v>
@@ -6916,11 +6932,11 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>154</v>
+      <c r="B12" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>153</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -6950,10 +6966,10 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="B13" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="9">
@@ -6984,10 +7000,10 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="9">
@@ -7018,11 +7034,11 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>73</v>
+      <c r="B15" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
@@ -7052,10 +7068,10 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="11">
@@ -7094,8 +7110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BF9B02-1681-42B0-A240-EB1D3AF59772}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7110,30 +7126,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="82" t="s">
-        <v>199</v>
+      <c r="C2" s="77" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -7154,24 +7170,24 @@
         <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>199</v>
+      <c r="B3" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>197</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -7204,14 +7220,14 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="80" t="s">
-        <v>199</v>
+      <c r="C4" s="74" t="s">
+        <v>197</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D7" si="0">SUM(F4:L4)</f>
+        <f>SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -7241,14 +7257,14 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>199</v>
+      <c r="B5" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>197</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:L5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -7274,79 +7290,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="78" t="s">
+      <c r="B6" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
+      <c r="C6" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUM(F6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7358,10 +7340,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1327F-AF52-4ADA-901C-E6B09506EFE9}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7377,32 +7359,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7421,24 +7403,24 @@
         <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>55</v>
+      <c r="B3" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>197</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -7468,17 +7450,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="85" t="s">
         <v>54</v>
       </c>
+      <c r="C4" s="85" t="s">
+        <v>197</v>
+      </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
+        <f>SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -7505,17 +7487,17 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="84" t="s">
+      <c r="B5" s="85" t="s">
         <v>53</v>
       </c>
+      <c r="C5" s="85" t="s">
+        <v>197</v>
+      </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:L5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -7542,17 +7524,17 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="85" t="s">
+      <c r="B6" s="86" t="s">
         <v>52</v>
       </c>
+      <c r="C6" s="86" t="s">
+        <v>197</v>
+      </c>
       <c r="D6" s="17">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:L6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -7577,6 +7559,9 @@
       <c r="L6" s="11">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7590,42 +7575,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA92949-7923-4D45-8C1E-60B0E78D5892}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61"/>
-    </row>
-    <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
+    </row>
+    <row r="2" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7648,38 +7634,38 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="15">
         <f>SUM(F3:N3)</f>
         <v>0</v>
       </c>
@@ -7712,18 +7698,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D8" si="0">SUM(F4:N4)</f>
+      <c r="D4" s="16">
+        <f>SUM(F4:N4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -7756,17 +7742,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
+      <c r="D5" s="16">
+        <f>SUM(F5:N5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -7799,17 +7785,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
+      <c r="D6" s="16">
+        <f>SUM(F6:N6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -7842,17 +7828,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
+      <c r="D7" s="16">
+        <f>SUM(F7:N7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -7885,17 +7871,17 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
+      <c r="D8" s="17">
+        <f>SUM(F8:N8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="11"/>
@@ -7937,10 +7923,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06B992C-4A7F-4E98-963A-7EDF114C98D5}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,20 +7942,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8003,27 +7989,27 @@
         <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="7">
         <v>0</v>
       </c>
@@ -8050,17 +8036,17 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D16" si="0">SUM(F4:L4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="32"/>
+      <c r="D4" s="16">
+        <f>SUM(F4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="26"/>
       <c r="F4" s="9">
         <v>0</v>
       </c>
@@ -8087,17 +8073,17 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="32"/>
+      <c r="D5" s="16">
+        <f>SUM(F5:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26"/>
       <c r="F5" s="9">
         <v>0</v>
       </c>
@@ -8124,17 +8110,17 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="32"/>
+      <c r="B6" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(F6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="26"/>
       <c r="F6" s="9">
         <v>0</v>
       </c>
@@ -8161,17 +8147,17 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="32"/>
+      <c r="B7" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="16">
+        <f>SUM(F7:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="26"/>
       <c r="F7" s="9">
         <v>0</v>
       </c>
@@ -8199,16 +8185,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="32"/>
+        <v>41</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="16">
+        <f>SUM(F8:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="26"/>
       <c r="F8" s="9">
         <v>0</v>
       </c>
@@ -8236,16 +8222,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="32"/>
+        <v>190</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="16">
+        <f>SUM(F9:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="26"/>
       <c r="F9" s="9">
         <v>0</v>
       </c>
@@ -8273,16 +8259,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="32"/>
+        <v>65</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="16">
+        <f>SUM(F10:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="26"/>
       <c r="F10" s="9">
         <v>0</v>
       </c>
@@ -8310,16 +8296,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="32"/>
+        <v>199</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="16">
+        <f>SUM(F11:L11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26"/>
       <c r="F11" s="9">
         <v>0</v>
       </c>
@@ -8347,16 +8333,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="32"/>
+        <v>67</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="16">
+        <f>SUM(F12:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="26"/>
       <c r="F12" s="9">
         <v>0</v>
       </c>
@@ -8384,16 +8370,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="32"/>
+        <v>44</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="16">
+        <f>SUM(F13:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="26"/>
       <c r="F13" s="9">
         <v>0</v>
       </c>
@@ -8421,16 +8407,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="32"/>
+        <v>68</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="16">
+        <f>SUM(F14:L14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="26"/>
       <c r="F14" s="9">
         <v>0</v>
       </c>
@@ -8457,73 +8443,110 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="16">
+        <f>SUM(F15:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="16">
+        <f>SUM(F16:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="C17" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
+      <c r="D17" s="17">
+        <f>SUM(F17:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
         <v>0</v>
       </c>
     </row>
@@ -8539,8 +8562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89B93C4-1CE9-4F81-BA7F-58C99A42AC22}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8552,23 +8575,24 @@
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8602,23 +8626,23 @@
         <v>32</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
       </c>
@@ -8646,17 +8670,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D8" si="0">SUM(F4:L4)</f>
+      <c r="D4" s="16">
+        <f>SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -8683,17 +8707,17 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="16">
+        <f>SUM(F5:L5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -8720,17 +8744,17 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
+      <c r="C6" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(F6:L6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -8757,17 +8781,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
+      <c r="D7" s="16">
+        <f>SUM(F7:L7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -8794,17 +8818,17 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
+      <c r="D8" s="17">
+        <f>SUM(F8:L8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="11"/>
@@ -8843,7 +8867,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8855,33 +8879,34 @@
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="72"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="74" t="s">
+      <c r="B2" s="63" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -8902,26 +8927,26 @@
         <v>8</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
       </c>
@@ -8949,37 +8974,54 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="C4" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="82">
+        <f>SUM(F4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42">
+        <v>0</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0</v>
+      </c>
+      <c r="I4" s="42">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0</v>
+      </c>
+      <c r="K4" s="42">
+        <v>0</v>
+      </c>
+      <c r="L4" s="42">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" ref="D5:D7" si="0">SUM(F5:L5)</f>
+      <c r="C5" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="16">
+        <f>SUM(F5:L5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -9009,14 +9051,14 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
+      <c r="C6" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(F6:L6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -9046,14 +9088,14 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="77" t="s">
+      <c r="B7" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
+      <c r="C7" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" ref="D7" si="0">SUM(F7:L7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="11"/>
@@ -9091,15 +9133,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3335CB4-F25D-400F-A591-705EE0F995EE}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
@@ -9109,21 +9151,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9148,340 +9190,341 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15">
+        <f>SUM(F3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D10" si="0">SUM(F4:M4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="B9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="7">
-        <f>SUM(F3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D9" si="0">SUM(F4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="20">
-        <v>0</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20">
-        <v>0</v>
-      </c>
-      <c r="M4" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="42" t="s">
+      <c r="B10" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="20">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20">
-        <v>0</v>
-      </c>
-      <c r="M7" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="20">
-        <v>0</v>
-      </c>
-      <c r="M8" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
-        <v>8</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="40">
-        <v>0</v>
-      </c>
-      <c r="H10" s="40">
-        <v>0</v>
-      </c>
-      <c r="I10" s="40">
-        <v>0</v>
-      </c>
-      <c r="J10" s="40">
-        <v>0</v>
-      </c>
-      <c r="K10" s="40">
-        <v>0</v>
-      </c>
-      <c r="L10" s="40">
-        <v>0</v>
-      </c>
-      <c r="M10" s="41">
+      <c r="E10" s="28"/>
+      <c r="F10" s="34">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34">
+        <v>0</v>
+      </c>
+      <c r="J10" s="34">
+        <v>0</v>
+      </c>
+      <c r="K10" s="34">
+        <v>0</v>
+      </c>
+      <c r="L10" s="35">
+        <v>0</v>
+      </c>
+      <c r="M10" s="34">
         <v>0</v>
       </c>
     </row>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7FBC58-CBE5-4EA7-9E04-4EB0411F44FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30DEB48-07C1-4CF3-B7E1-470610A17F8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="2" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
@@ -7111,7 +7111,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7184,36 +7184,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C3" s="72" t="s">
         <v>197</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7221,36 +7221,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="74" t="s">
         <v>197</v>
       </c>
       <c r="D4" s="9">
         <f>SUM(F4:L4)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7258,36 +7258,36 @@
         <v>3</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C5" s="74" t="s">
         <v>197</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:L5)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7295,42 +7295,45 @@
         <v>4</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C6" s="70" t="s">
         <v>197</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:L6)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L6" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="96"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L6">
+    <sortCondition descending="1" ref="D3:D6"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -7576,7 +7579,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7749,7 +7752,7 @@
         <v>161</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:N5)</f>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30DEB48-07C1-4CF3-B7E1-470610A17F8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59B349-40A1-486B-87CE-86D0F4CECD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="2" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="5" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,113 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TECNO</author>
+  </authors>
+  <commentList>
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{3DBC6AE7-64D1-4B6F-AC94-C7C209CB3657}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Exceso acrobacia
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TECNO</author>
+  </authors>
+  <commentList>
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{B00F95A8-5E83-4F7D-8CAF-06695DAC50CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ACROBACIA FUERA DE PONCHE E INICIO
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TECNO</author>
+  </authors>
+  <commentList>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{29DE654A-A641-4176-B5FE-83DDB58F82E3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+EXCESO DE INTERPRETACION MUSICAL
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="200">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -208,9 +313,6 @@
     <t>HABANA EN CLAVE</t>
   </si>
   <si>
-    <t>LA CLAVE MATURIN</t>
-  </si>
-  <si>
     <t>OLU</t>
   </si>
   <si>
@@ -241,9 +343,6 @@
     <t>PARTICIPANTE</t>
   </si>
   <si>
-    <t>SCLV ARAGUA</t>
-  </si>
-  <si>
     <t>JORGE BADELL</t>
   </si>
   <si>
@@ -650,13 +749,19 @@
   </si>
   <si>
     <t>JHANFRAN AGRO</t>
+  </si>
+  <si>
+    <t>PENALIZACION</t>
+  </si>
+  <si>
+    <t>OSCAIR OROPEZA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +803,39 @@
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1224,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,10 +1587,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1478,6 +1616,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1507,6 +1648,28 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1920,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -1951,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:J5)</f>
@@ -1982,10 +2145,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>158</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:J6)</f>
@@ -2059,10 +2222,10 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="91" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2100,11 +2263,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>72</v>
+      <c r="B3" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>70</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -2181,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>36</v>
@@ -2221,10 +2384,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="9">
         <f>SUM(F6:M6)</f>
@@ -2261,7 +2424,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>47</v>
@@ -2301,10 +2464,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="9">
         <f>SUM(F8:M8)</f>
@@ -2341,10 +2504,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="9">
         <f>SUM(F9:M9)</f>
@@ -2381,10 +2544,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="9">
         <f>SUM(F10:M10)</f>
@@ -2421,7 +2584,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>42</v>
@@ -2461,10 +2624,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="9">
         <f>SUM(F12:M12)</f>
@@ -2501,10 +2664,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(F13:M13)</f>
@@ -2626,10 +2789,10 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="91" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2667,10 +2830,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="7">
@@ -2707,10 +2870,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="94" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
@@ -2747,11 +2910,11 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>53</v>
+      <c r="B5" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:M5)</f>
@@ -2787,11 +2950,11 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>66</v>
+      <c r="B6" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="9">
         <f>SUM(F6:M6)</f>
@@ -2827,11 +2990,11 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="91" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>53</v>
+      <c r="B7" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="9">
         <f>SUM(F7:M7)</f>
@@ -2867,10 +3030,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="94" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="9">
@@ -2907,10 +3070,10 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="92" t="s">
+      <c r="B9" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="95" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="11">
@@ -2993,10 +3156,10 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3034,10 +3197,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="90" t="s">
+      <c r="B3" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="7">
@@ -3074,10 +3237,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="91" t="s">
+      <c r="B4" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="94" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
@@ -3114,10 +3277,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="91" t="s">
+      <c r="B5" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="94" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9">
@@ -3154,11 +3317,11 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>99</v>
+      <c r="B6" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -3194,11 +3357,11 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>54</v>
+      <c r="B7" s="95" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
@@ -3317,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -3354,10 +3517,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="16">
         <f>SUM(F4:L4)</f>
@@ -3391,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:L5)</f>
@@ -3428,10 +3591,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
@@ -3465,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>42</v>
@@ -3502,10 +3665,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(F8:L8)</f>
@@ -3539,7 +3702,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>51</v>
@@ -3576,10 +3739,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(F10:L10)</f>
@@ -3613,7 +3776,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>42</v>
@@ -3650,10 +3813,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="16">
         <f>SUM(F12:L12)</f>
@@ -3687,10 +3850,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="16">
         <f>SUM(F13:L13)</f>
@@ -3724,10 +3887,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" ref="D4:D14" si="0">SUM(F14:L14)</f>
@@ -3808,7 +3971,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -3846,7 +4009,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -3883,7 +4046,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D4" s="9">
         <f>SUM(F4:L4)</f>
@@ -3920,7 +4083,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D4:D5" si="0">SUM(F5:L5)</f>
@@ -3998,10 +4161,10 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="96" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4036,11 +4199,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>53</v>
+      <c r="B3" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D13" si="0">SUM(F3:L3)</f>
@@ -4073,11 +4236,11 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>196</v>
+      <c r="B4" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>194</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
@@ -4110,11 +4273,11 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>114</v>
+      <c r="B5" s="94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>112</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4147,11 +4310,11 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>53</v>
+      <c r="B6" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>52</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4184,11 +4347,11 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>196</v>
+      <c r="B7" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>194</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4221,11 +4384,11 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="91" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="94" t="s">
         <v>114</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>112</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -4258,10 +4421,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="94" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="9">
@@ -4295,11 +4458,11 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>53</v>
+      <c r="B10" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="94" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -4332,11 +4495,11 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>119</v>
+      <c r="B11" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>117</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -4369,11 +4532,11 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>72</v>
+      <c r="B12" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>70</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -4406,10 +4569,10 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="95" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="95" t="s">
+      <c r="B13" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="98" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="11">
@@ -4526,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D12" si="0">SUM(F3:L3)</f>
@@ -4563,10 +4726,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
@@ -4600,10 +4763,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4637,10 +4800,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -4674,10 +4837,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4711,10 +4874,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -4748,10 +4911,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -4785,10 +4948,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -4822,10 +4985,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -4859,10 +5022,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -5013,7 +5176,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="16">
@@ -5048,7 +5211,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="16">
@@ -5205,10 +5368,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5242,7 +5405,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>50</v>
@@ -5279,10 +5442,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5299,10 +5462,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D11" si="0">SUM(F6:L6)</f>
@@ -5336,7 +5499,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>50</v>
@@ -5373,10 +5536,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -5410,10 +5573,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5447,10 +5610,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -5484,10 +5647,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -5613,10 +5776,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" ref="D3:D9" si="0">SUM(F3:M3)</f>
@@ -5653,10 +5816,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
@@ -5693,7 +5856,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>42</v>
@@ -5733,7 +5896,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>40</v>
@@ -5773,10 +5936,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -5813,7 +5976,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>40</v>
@@ -5853,10 +6016,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5893,10 +6056,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ref="D10:D11" si="1">SUM(F10:M10)</f>
@@ -5933,10 +6096,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="1"/>
@@ -5973,7 +6136,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>42</v>
@@ -6013,10 +6176,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(F13:M13)</f>
@@ -6053,10 +6216,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D14" s="9">
         <f>SUM(F14:M14)</f>
@@ -6093,7 +6256,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>40</v>
@@ -6329,10 +6492,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
@@ -6360,7 +6523,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>38</v>
@@ -6484,7 +6647,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>38</v>
@@ -6515,10 +6678,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
@@ -6661,7 +6824,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -6695,7 +6858,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>36</v>
@@ -6763,7 +6926,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>36</v>
@@ -6797,7 +6960,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -6831,7 +6994,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
@@ -6865,10 +7028,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -6899,7 +7062,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>51</v>
@@ -6933,10 +7096,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -6967,10 +7130,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -7001,7 +7164,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>50</v>
@@ -7035,10 +7198,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
@@ -7110,7 +7273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37BF9B02-1681-42B0-A240-EB1D3AF59772}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L6"/>
     </sheetView>
   </sheetViews>
@@ -7148,8 +7311,8 @@
       <c r="B2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="77" t="s">
-        <v>197</v>
+      <c r="C2" s="78" t="s">
+        <v>195</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -7187,7 +7350,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -7224,7 +7387,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D4" s="9">
         <f>SUM(F4:L4)</f>
@@ -7258,10 +7421,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:L5)</f>
@@ -7298,7 +7461,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:L6)</f>
@@ -7328,7 +7491,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="96"/>
+      <c r="B7" s="99"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L6">
@@ -7342,50 +7505,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1327F-AF52-4ADA-901C-E6B09506EFE9}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A1327F-AF52-4ADA-901C-E6B09506EFE9}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="87" t="s">
-        <v>197</v>
+      <c r="C2" s="90" t="s">
+        <v>195</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>4</v>
@@ -7414,172 +7579,187 @@
       <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L3" s="100">
+        <v>8</v>
+      </c>
+      <c r="M3" s="103"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D4" s="16">
-        <f>SUM(F4:L4)</f>
-        <v>0</v>
+        <f>F4+G4+H4+I4+J4+K4+L4-M4</f>
+        <v>48</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L4" s="101">
+        <v>7</v>
+      </c>
+      <c r="M4" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="16">
-        <f>SUM(F5:L5)</f>
-        <v>0</v>
+        <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
+        <v>48</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="L5" s="101">
+        <v>7</v>
+      </c>
+      <c r="M5" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="17">
         <f>SUM(F6:L6)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="96"/>
+        <v>6</v>
+      </c>
+      <c r="L6" s="102">
+        <v>6</v>
+      </c>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="99"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M6">
+    <sortCondition descending="1" ref="D3:D6"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA92949-7923-4D45-8C1E-60B0E78D5892}">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA92949-7923-4D45-8C1E-60B0E78D5892}">
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7594,9 +7774,10 @@
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
@@ -7614,7 +7795,7 @@
       <c r="M1" s="49"/>
       <c r="N1" s="50"/>
     </row>
-    <row r="2" spans="1:14" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7654,11 +7835,14 @@
       <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="105" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -7670,167 +7854,171 @@
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:N3)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="N3" s="100">
+        <v>7</v>
+      </c>
+      <c r="O3" s="89"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
         <f>SUM(F4:N4)</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="N4" s="101">
+        <v>8</v>
+      </c>
+      <c r="O4" s="87"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:N5)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I5" s="106">
+        <v>7</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="N5" s="101">
+        <v>7</v>
+      </c>
+      <c r="O5" s="87"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:N6)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N6" s="101">
+        <v>7</v>
+      </c>
+      <c r="O6" s="87"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -7838,134 +8026,144 @@
         <v>57</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D7" s="16">
-        <f>SUM(F7:N7)</f>
-        <v>0</v>
+        <f>F7+G7+H7+I7+J7+K7+L7+M7+N7-O7</f>
+        <v>68</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="N7" s="101">
+        <v>7</v>
+      </c>
+      <c r="O7" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="17">
         <f>SUM(F8:N8)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="N8" s="102">
+        <v>6</v>
+      </c>
+      <c r="O8" s="88"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O8">
+    <sortCondition descending="1" ref="D3:D8"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06B992C-4A7F-4E98-963A-7EDF114C98D5}">
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06B992C-4A7F-4E98-963A-7EDF114C98D5}">
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="50"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -7986,212 +8184,222 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="M2" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>45</v>
+      <c r="B3" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="100">
+        <v>8</v>
+      </c>
+      <c r="M3" s="103"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D4" s="16">
         <f>SUM(F4:L4)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+        <v>7</v>
+      </c>
+      <c r="L4" s="101">
+        <v>6</v>
+      </c>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:L5)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="L5" s="101">
+        <v>7</v>
+      </c>
+      <c r="M5" s="87"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="81" t="s">
+      <c r="B6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="L6" s="101">
+        <v>7</v>
+      </c>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="81" t="s">
+      <c r="B7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="16">
+        <f>F7+G7+H7+I7+J7+K7+L7-M7</f>
         <v>40</v>
-      </c>
-      <c r="D7" s="16">
-        <f>SUM(F7:L7)</f>
-        <v>0</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>50</v>
+      <c r="L7" s="101">
+        <v>6</v>
+      </c>
+      <c r="M7" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(F8:L8)</f>
@@ -8216,19 +8424,20 @@
       <c r="K8" s="9">
         <v>0</v>
       </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="L8" s="101">
+        <v>0</v>
+      </c>
+      <c r="M8" s="87"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="D9" s="16">
         <f>SUM(F9:L9)</f>
@@ -8253,19 +8462,20 @@
       <c r="K9" s="9">
         <v>0</v>
       </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="L9" s="101">
+        <v>0</v>
+      </c>
+      <c r="M9" s="87"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(F10:L10)</f>
@@ -8290,19 +8500,20 @@
       <c r="K10" s="9">
         <v>0</v>
       </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="L10" s="101">
+        <v>0</v>
+      </c>
+      <c r="M10" s="87"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D11" s="16">
         <f>SUM(F11:L11)</f>
@@ -8327,19 +8538,20 @@
       <c r="K11" s="9">
         <v>0</v>
       </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="L11" s="101">
+        <v>0</v>
+      </c>
+      <c r="M11" s="87"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="16">
         <f>SUM(F12:L12)</f>
@@ -8364,19 +8576,20 @@
       <c r="K12" s="9">
         <v>0</v>
       </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="L12" s="101">
+        <v>0</v>
+      </c>
+      <c r="M12" s="87"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D13" s="16">
         <f>SUM(F13:L13)</f>
@@ -8401,19 +8614,20 @@
       <c r="K13" s="9">
         <v>0</v>
       </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="L13" s="101">
+        <v>0</v>
+      </c>
+      <c r="M13" s="87"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D14" s="16">
         <f>SUM(F14:L14)</f>
@@ -8438,19 +8652,20 @@
       <c r="K14" s="9">
         <v>0</v>
       </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="L14" s="101">
+        <v>0</v>
+      </c>
+      <c r="M14" s="87"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D15" s="16">
         <f>SUM(F15:L15)</f>
@@ -8475,25 +8690,26 @@
       <c r="K15" s="9">
         <v>0</v>
       </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="L15" s="101">
+        <v>0</v>
+      </c>
+      <c r="M15" s="87"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="81" t="s">
-        <v>72</v>
+      <c r="B16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>68</v>
       </c>
       <c r="D16" s="16">
         <f>SUM(F16:L16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="9">
         <v>0</v>
       </c>
@@ -8512,52 +8728,96 @@
       <c r="K16" s="9">
         <v>0</v>
       </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="L16" s="101">
+        <v>0</v>
+      </c>
+      <c r="M16" s="87"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="80" t="s">
+      <c r="B17" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="16">
+        <f>SUM(F17:L17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="101">
+        <v>0</v>
+      </c>
+      <c r="M17" s="87"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="17">
-        <f>SUM(F17:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
+      <c r="D18" s="17">
+        <f>SUM(F18:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="102">
+        <v>0</v>
+      </c>
+      <c r="M18" s="88"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M18">
+    <sortCondition descending="1" ref="D3:D18"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8602,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -8640,10 +8900,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -8677,7 +8937,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>36</v>
@@ -8714,10 +8974,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:L5)</f>
@@ -8751,10 +9011,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
@@ -8788,10 +9048,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="16">
         <f>SUM(F7:L7)</f>
@@ -8825,7 +9085,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>36</v>
@@ -8909,7 +9169,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -8944,10 +9204,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -8984,7 +9244,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D4" s="82">
         <f>SUM(F4:L4)</f>
@@ -9018,10 +9278,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:L5)</f>
@@ -9058,7 +9318,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
@@ -9095,7 +9355,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ref="D7" si="0">SUM(F7:L7)</f>
@@ -9216,7 +9476,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>42</v>
@@ -9256,7 +9516,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>42</v>
@@ -9296,7 +9556,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>36</v>
@@ -9336,10 +9596,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
@@ -9376,10 +9636,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
@@ -9416,7 +9676,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>51</v>
@@ -9456,7 +9716,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>42</v>
@@ -9496,7 +9756,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="80" t="s">
         <v>36</v>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59B349-40A1-486B-87CE-86D0F4CECD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C1C73-91A8-40E2-8F78-F4BD79160768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="5" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="6" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,31 @@
     <author>TECNO</author>
   </authors>
   <commentList>
-    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{29DE654A-A641-4176-B5FE-83DDB58F82E3}">
+    <comment ref="M15" authorId="0" shapeId="0" xr:uid="{F62DAFF1-0369-4DF3-99A4-1F049D7FE296}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MAS DE 4 CUENTAS SEGUIDAS GENERO FOLKLORE CUBANO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{29DE654A-A641-4176-B5FE-83DDB58F82E3}">
       <text>
         <r>
           <rPr>
@@ -358,9 +382,6 @@
     <t>JEFFERSON MACSEME</t>
   </si>
   <si>
-    <t>MIGUEL MARACARA</t>
-  </si>
-  <si>
     <t>SAOCO Y SON</t>
   </si>
   <si>
@@ -637,9 +658,6 @@
     <t>GEREMIK - MARIA</t>
   </si>
   <si>
-    <t>JHON JAVIER GUZMAN</t>
-  </si>
-  <si>
     <t>CHRISTIAN RODRIGUEZ</t>
   </si>
   <si>
@@ -755,6 +773,12 @@
   </si>
   <si>
     <t>OSCAIR OROPEZA</t>
+  </si>
+  <si>
+    <t>MIGUEL MARACANA</t>
+  </si>
+  <si>
+    <t>JHON JAIVER GUZMAN</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1668,7 +1692,10 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2083,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -2114,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:J5)</f>
@@ -2145,10 +2172,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:J6)</f>
@@ -2264,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:M3)</f>
@@ -2344,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>36</v>
@@ -2384,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>64</v>
@@ -2424,7 +2451,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>47</v>
@@ -2464,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>64</v>
@@ -2504,10 +2531,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="D9" s="9">
         <f>SUM(F9:M9)</f>
@@ -2544,10 +2571,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="D10" s="9">
         <f>SUM(F10:M10)</f>
@@ -2584,7 +2611,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>42</v>
@@ -2624,10 +2651,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="9">
         <f>SUM(F12:M12)</f>
@@ -2664,10 +2691,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(F13:M13)</f>
@@ -2831,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="93" t="s">
         <v>36</v>
@@ -2871,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="94" t="s">
         <v>42</v>
@@ -2911,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="94" t="s">
         <v>52</v>
@@ -2951,7 +2978,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="94" t="s">
         <v>64</v>
@@ -2991,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="94" t="s">
         <v>52</v>
@@ -3031,7 +3058,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="94" t="s">
         <v>42</v>
@@ -3071,7 +3098,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="95" t="s">
         <v>36</v>
@@ -3198,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="93" t="s">
         <v>42</v>
@@ -3238,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="94" t="s">
         <v>42</v>
@@ -3278,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="94" t="s">
         <v>42</v>
@@ -3318,10 +3345,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -3358,7 +3385,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>53</v>
@@ -3480,10 +3507,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -3517,7 +3544,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>64</v>
@@ -3554,7 +3581,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>64</v>
@@ -3591,7 +3618,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>64</v>
@@ -3628,7 +3655,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>42</v>
@@ -3665,10 +3692,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(F8:L8)</f>
@@ -3702,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>51</v>
@@ -3739,10 +3766,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>103</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(F10:L10)</f>
@@ -3776,7 +3803,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>42</v>
@@ -3813,10 +3840,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="16">
         <f>SUM(F12:L12)</f>
@@ -3850,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>64</v>
@@ -3887,10 +3914,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" ref="D4:D14" si="0">SUM(F14:L14)</f>
@@ -3971,7 +3998,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -4009,7 +4036,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -4046,7 +4073,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="9">
         <f>SUM(F4:L4)</f>
@@ -4083,7 +4110,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" ref="D4:D5" si="0">SUM(F5:L5)</f>
@@ -4200,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="94" t="s">
         <v>52</v>
@@ -4237,10 +4264,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
@@ -4274,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="94" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>112</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -4311,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="94" t="s">
         <v>52</v>
@@ -4348,10 +4375,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4385,10 +4412,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -4422,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="94" t="s">
         <v>50</v>
@@ -4459,7 +4486,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="94" t="s">
         <v>52</v>
@@ -4496,10 +4523,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -4533,10 +4560,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -4570,7 +4597,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="98" t="s">
         <v>36</v>
@@ -4689,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>52</v>
@@ -4726,10 +4753,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
@@ -4763,7 +4790,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>52</v>
@@ -4800,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>52</v>
@@ -4837,7 +4864,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>52</v>
@@ -4874,7 +4901,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>54</v>
@@ -4911,10 +4938,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -4948,7 +4975,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>52</v>
@@ -4985,10 +5012,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -5022,10 +5049,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -5176,7 +5203,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="56"/>
       <c r="D4" s="16">
@@ -5368,10 +5395,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -5405,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>50</v>
@@ -5442,10 +5469,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5462,10 +5489,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D11" si="0">SUM(F6:L6)</f>
@@ -5499,7 +5526,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>50</v>
@@ -5536,10 +5563,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -5573,10 +5600,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5610,10 +5637,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -5647,10 +5674,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
@@ -5776,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>52</v>
@@ -5816,7 +5843,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>52</v>
@@ -5856,7 +5883,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>42</v>
@@ -5896,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>40</v>
@@ -5936,7 +5963,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>52</v>
@@ -5976,7 +6003,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>40</v>
@@ -6016,7 +6043,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>54</v>
@@ -6056,10 +6083,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ref="D10:D11" si="1">SUM(F10:M10)</f>
@@ -6096,10 +6123,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="1"/>
@@ -6136,7 +6163,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>42</v>
@@ -6176,7 +6203,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>52</v>
@@ -6216,10 +6243,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="9">
         <f>SUM(F14:M14)</f>
@@ -6256,7 +6283,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>40</v>
@@ -6492,7 +6519,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>52</v>
@@ -6523,7 +6550,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>38</v>
@@ -6647,7 +6674,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>38</v>
@@ -6678,10 +6705,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
@@ -6824,7 +6851,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -6858,7 +6885,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>36</v>
@@ -6926,7 +6953,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>36</v>
@@ -6960,7 +6987,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
@@ -6994,7 +7021,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
@@ -7028,7 +7055,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>52</v>
@@ -7062,7 +7089,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>51</v>
@@ -7096,10 +7123,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
@@ -7130,7 +7157,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>52</v>
@@ -7164,7 +7191,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>50</v>
@@ -7198,10 +7225,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
@@ -7312,7 +7339,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -7350,7 +7377,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -7387,7 +7414,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="9">
         <f>SUM(F4:L4)</f>
@@ -7421,10 +7448,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:L5)</f>
@@ -7461,7 +7488,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:L6)</f>
@@ -7550,7 +7577,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>4</v>
@@ -7580,7 +7607,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -7591,7 +7618,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -7629,7 +7656,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="16">
         <f>F4+G4+H4+I4+J4+K4+L4-M4</f>
@@ -7666,10 +7693,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
@@ -7706,10 +7733,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="17">
         <f>SUM(F6:L6)</f>
@@ -7839,7 +7866,7 @@
         <v>9</v>
       </c>
       <c r="O2" s="105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -7979,10 +8006,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:N6)</f>
@@ -8125,8 +8152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06B992C-4A7F-4E98-963A-7EDF114C98D5}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8196,44 +8223,44 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>36</v>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="7">
         <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L3" s="100">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M3" s="103"/>
     </row>
@@ -8241,37 +8268,37 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>42</v>
+      <c r="B4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="16">
         <f>SUM(F4:L4)</f>
-        <v>46</v>
-      </c>
-      <c r="E4" s="26"/>
+        <v>61</v>
+      </c>
+      <c r="E4" s="27"/>
       <c r="F4" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H4" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9">
         <v>8</v>
       </c>
       <c r="K4" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L4" s="101">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M4" s="87"/>
     </row>
@@ -8279,37 +8306,37 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>70</v>
+      <c r="B5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:L5)</f>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>6</v>
-      </c>
-      <c r="H5" s="9">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="H5" s="106">
+        <v>9</v>
       </c>
       <c r="I5" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K5" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L5" s="101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M5" s="87"/>
     </row>
@@ -8318,36 +8345,36 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L6" s="101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" s="87"/>
     </row>
@@ -8356,76 +8383,74 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7" s="16">
-        <f>F7+G7+H7+I7+J7+K7+L7-M7</f>
-        <v>40</v>
+        <f>SUM(F7:L7)</f>
+        <v>58</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" s="9">
         <v>7</v>
       </c>
       <c r="K7" s="9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L7" s="101">
-        <v>6</v>
-      </c>
-      <c r="M7" s="104">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="81" t="s">
-        <v>40</v>
+      <c r="B8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(F8:L8)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="101">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M8" s="87"/>
     </row>
@@ -8433,37 +8458,37 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>50</v>
+      <c r="B9" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>36</v>
       </c>
       <c r="D9" s="16">
         <f>SUM(F9:L9)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9" s="101">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M9" s="87"/>
     </row>
@@ -8472,36 +8497,36 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(F10:L10)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E10" s="26"/>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="101">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M10" s="87"/>
     </row>
@@ -8510,36 +8535,36 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11" s="16">
         <f>SUM(F11:L11)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" s="101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M11" s="87"/>
     </row>
@@ -8547,37 +8572,37 @@
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>51</v>
+      <c r="B12" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>69</v>
       </c>
       <c r="D12" s="16">
         <f>SUM(F12:L12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="26"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="27"/>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L12" s="101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M12" s="87"/>
     </row>
@@ -8585,37 +8610,37 @@
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>53</v>
+      <c r="B13" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="16">
         <f>SUM(F13:L13)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H13" s="106">
+        <v>7</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13" s="101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M13" s="87"/>
     </row>
@@ -8624,36 +8649,36 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="16">
         <f>SUM(F14:L14)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L14" s="101">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M14" s="87"/>
     </row>
@@ -8662,74 +8687,76 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="D15" s="16">
-        <f>SUM(F15:L15)</f>
-        <v>0</v>
+        <f>F15+G15+H15+I15+J15+K15+L15-M15</f>
+        <v>44</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="H15" s="106">
+        <v>7</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L15" s="101">
-        <v>0</v>
-      </c>
-      <c r="M15" s="87"/>
+        <v>7</v>
+      </c>
+      <c r="M15" s="104">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="23" t="s">
         <v>68</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>69</v>
       </c>
       <c r="D16" s="16">
         <f>SUM(F16:L16)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I16" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J16" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K16" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L16" s="101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M16" s="87"/>
     </row>
@@ -8737,37 +8764,37 @@
       <c r="A17" s="13">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>70</v>
+      <c r="B17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="16">
         <f>SUM(F17:L17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="E17" s="26"/>
       <c r="F17" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G17" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K17" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17" s="101">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M17" s="87"/>
     </row>
@@ -8775,39 +8802,41 @@
       <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="80" t="s">
-        <v>36</v>
+      <c r="B18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="17">
-        <f>SUM(F18:L18)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="28"/>
+        <f>F18+G18+H18+I18+J18+K18+L18-M18</f>
+        <v>40</v>
+      </c>
+      <c r="E18" s="107"/>
       <c r="F18" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K18" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" s="102">
-        <v>0</v>
-      </c>
-      <c r="M18" s="88"/>
+        <v>6</v>
+      </c>
+      <c r="M18" s="108">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M18">
@@ -8825,8 +8854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89B93C4-1CE9-4F81-BA7F-58C99A42AC22}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8883,16 +8912,16 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -8900,36 +8929,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>74</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -8937,7 +8966,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>36</v>
@@ -8974,10 +9003,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:L5)</f>
@@ -9011,10 +9040,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
@@ -9048,7 +9077,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>64</v>
@@ -9085,7 +9114,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>36</v>
@@ -9118,6 +9147,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L8">
+    <sortCondition descending="1" ref="D3:D8"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -9169,7 +9201,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -9204,10 +9236,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -9244,7 +9276,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="82">
         <f>SUM(F4:L4)</f>
@@ -9281,7 +9313,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:L5)</f>
@@ -9318,7 +9350,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
@@ -9355,7 +9387,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" ref="D7" si="0">SUM(F7:L7)</f>
@@ -9476,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>42</v>
@@ -9516,7 +9548,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>42</v>
@@ -9556,7 +9588,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>36</v>
@@ -9596,10 +9628,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
@@ -9636,10 +9668,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
@@ -9676,7 +9708,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>51</v>
@@ -9716,7 +9748,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>42</v>
@@ -9756,7 +9788,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="80" t="s">
         <v>36</v>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C1C73-91A8-40E2-8F78-F4BD79160768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B462FF4B-D5B8-4325-8C6D-272CAC3D91D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="6" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
@@ -8855,7 +8855,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8929,14 +8929,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
@@ -8946,13 +8946,13 @@
         <v>7</v>
       </c>
       <c r="H3" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" s="7">
         <v>7</v>
@@ -8966,36 +8966,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D4" s="16">
         <f>SUM(F4:L4)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="L4" s="106">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -9003,36 +9003,36 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:L5)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -9040,36 +9040,36 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -9077,36 +9077,36 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D7" s="16">
         <f>SUM(F7:L7)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9121,29 +9121,29 @@
       </c>
       <c r="D8" s="17">
         <f>SUM(F8:L8)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G8" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B462FF4B-D5B8-4325-8C6D-272CAC3D91D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E1110-A696-4EB4-929A-4194611C1165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" activeTab="6" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="2" activeTab="7" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -178,8 +178,43 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TECNO</author>
+  </authors>
+  <commentList>
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{B093FC23-DA7A-4FE0-8548-4EADA7CE3CA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MAS DE 15 SEG EN INTERPRETACION MUSICAL
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="200">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -875,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1372,6 +1407,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1386,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1625,7 +1671,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1689,6 +1735,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1697,6 +1746,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7981,7 +8033,7 @@
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="107">
         <v>7</v>
       </c>
       <c r="J5" s="9">
@@ -8323,7 +8375,7 @@
       <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="H5" s="106">
+      <c r="H5" s="107">
         <v>9</v>
       </c>
       <c r="I5" s="9">
@@ -8627,7 +8679,7 @@
       <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="106">
+      <c r="H13" s="107">
         <v>7</v>
       </c>
       <c r="I13" s="9">
@@ -8703,7 +8755,7 @@
       <c r="G15" s="9">
         <v>7</v>
       </c>
-      <c r="H15" s="106">
+      <c r="H15" s="107">
         <v>7</v>
       </c>
       <c r="I15" s="9">
@@ -8812,7 +8864,7 @@
         <f>F18+G18+H18+I18+J18+K18+L18-M18</f>
         <v>40</v>
       </c>
-      <c r="E18" s="107"/>
+      <c r="E18" s="108"/>
       <c r="F18" s="11">
         <v>5</v>
       </c>
@@ -8834,7 +8886,7 @@
       <c r="L18" s="102">
         <v>6</v>
       </c>
-      <c r="M18" s="108">
+      <c r="M18" s="109">
         <v>2</v>
       </c>
     </row>
@@ -8854,7 +8906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89B93C4-1CE9-4F81-BA7F-58C99A42AC22}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -8994,7 +9046,7 @@
       <c r="K4" s="9">
         <v>7</v>
       </c>
-      <c r="L4" s="106">
+      <c r="L4" s="107">
         <v>8</v>
       </c>
     </row>
@@ -9158,26 +9210,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1021F680-C14A-4717-B22D-46CE59336C86}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1021F680-C14A-4717-B22D-46CE59336C86}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -9191,9 +9244,10 @@
       <c r="I1" s="60"/>
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="60"/>
+      <c r="M1" s="61"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9219,208 +9273,222 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="110" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L3" s="100">
+        <v>9</v>
+      </c>
+      <c r="M3" s="103"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="82">
         <f>SUM(F4:L4)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="42">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="42">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="42">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="42">
-        <v>0</v>
-      </c>
-      <c r="L4" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L4" s="106">
+        <v>8</v>
+      </c>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="85" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="16">
-        <f>SUM(F5:L5)</f>
-        <v>0</v>
+        <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
+        <v>53</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="L5" s="101">
+        <v>7</v>
+      </c>
+      <c r="M5" s="104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="85" t="s">
         <v>193</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L6" s="101">
+        <v>8</v>
+      </c>
+      <c r="M6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="C7" s="86" t="s">
         <v>193</v>
       </c>
       <c r="D7" s="17">
-        <f t="shared" ref="D7" si="0">SUM(F7:L7)</f>
-        <v>0</v>
+        <f>SUM(F7:L7)</f>
+        <v>50</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L7" s="102">
+        <v>7</v>
+      </c>
+      <c r="M7" s="88"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M7">
+    <sortCondition descending="1" ref="D3:D7"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843E1110-A696-4EB4-929A-4194611C1165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C74B3E-04DC-4000-A5E9-EE434B30793B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="2" activeTab="7" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="2" activeTab="8" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="200">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -910,7 +910,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1282,51 +1282,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1432,7 +1387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1488,32 +1443,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1525,12 +1467,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,16 +1484,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,13 +1601,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1688,11 +1621,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1732,16 +1665,16 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1749,6 +1682,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2081,18 +2020,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2281,30 +2220,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="83" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2342,10 +2281,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="84" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="7">
@@ -2379,7 +2318,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2388,33 +2327,33 @@
       <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="35">
         <f>SUM(F4:M4)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42">
-        <v>0</v>
-      </c>
-      <c r="G4" s="42">
-        <v>0</v>
-      </c>
-      <c r="H4" s="42">
-        <v>0</v>
-      </c>
-      <c r="I4" s="42">
-        <v>0</v>
-      </c>
-      <c r="J4" s="42">
-        <v>0</v>
-      </c>
-      <c r="K4" s="42">
-        <v>0</v>
-      </c>
-      <c r="L4" s="42">
-        <v>0</v>
-      </c>
-      <c r="M4" s="42">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35">
+        <v>0</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0</v>
+      </c>
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+      <c r="K4" s="35">
+        <v>0</v>
+      </c>
+      <c r="L4" s="35">
+        <v>0</v>
+      </c>
+      <c r="M4" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2459,7 +2398,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2539,7 +2478,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="34">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2619,7 +2558,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="34">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2699,7 +2638,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="34">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2742,10 +2681,10 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="9">
@@ -2779,13 +2718,13 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
+      <c r="A14" s="37">
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="11">
@@ -2848,30 +2787,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="83" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2909,10 +2848,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="85" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="7">
@@ -2949,10 +2888,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
@@ -2989,10 +2928,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="9">
@@ -3029,10 +2968,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="86" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="9">
@@ -3069,10 +3008,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="9">
@@ -3109,10 +3048,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="9">
@@ -3149,10 +3088,10 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="87" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="11">
@@ -3215,30 +3154,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3276,10 +3215,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="85" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="7">
@@ -3316,10 +3255,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
@@ -3356,10 +3295,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="86" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9">
@@ -3396,10 +3335,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="86" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="9">
@@ -3436,10 +3375,10 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="87" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="11">
@@ -3501,20 +3440,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3561,7 +3500,7 @@
       <c r="B3" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="29" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="15">
@@ -3598,7 +3537,7 @@
       <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="16">
@@ -3635,7 +3574,7 @@
       <c r="B5" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="16">
@@ -3672,7 +3611,7 @@
       <c r="B6" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="16">
@@ -3709,7 +3648,7 @@
       <c r="B7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="16">
@@ -3746,7 +3685,7 @@
       <c r="B8" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="16">
@@ -3783,7 +3722,7 @@
       <c r="B9" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="16">
@@ -3820,7 +3759,7 @@
       <c r="B10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="30" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="16">
@@ -3857,7 +3796,7 @@
       <c r="B11" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="16">
@@ -3894,7 +3833,7 @@
       <c r="B12" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="16">
@@ -3931,7 +3870,7 @@
       <c r="B13" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="16">
@@ -3968,7 +3907,7 @@
       <c r="B14" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="17">
@@ -4027,29 +3966,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="56" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4084,10 +4023,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="58" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="7">
@@ -4121,10 +4060,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="60" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="9">
@@ -4158,10 +4097,10 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="62" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="11">
@@ -4221,29 +4160,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4278,10 +4217,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7">
@@ -4315,10 +4254,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="86" t="s">
         <v>192</v>
       </c>
       <c r="D4" s="9">
@@ -4352,10 +4291,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="86" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="9">
@@ -4389,10 +4328,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="9">
@@ -4426,10 +4365,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="86" t="s">
         <v>192</v>
       </c>
       <c r="D7" s="9">
@@ -4463,10 +4402,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="86" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="9">
@@ -4500,10 +4439,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="86" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="9">
@@ -4537,10 +4476,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="86" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="9">
@@ -4574,10 +4513,10 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="89" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="9">
@@ -4607,14 +4546,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="89" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="9">
@@ -4648,10 +4587,10 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="90" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="11">
@@ -4710,20 +4649,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4770,7 +4709,7 @@
       <c r="B3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7">
@@ -4807,7 +4746,7 @@
       <c r="B4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="9">
@@ -4844,7 +4783,7 @@
       <c r="B5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="9">
@@ -4881,7 +4820,7 @@
       <c r="B6" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="9">
@@ -4918,7 +4857,7 @@
       <c r="B7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="9">
@@ -4955,7 +4894,7 @@
       <c r="B8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="9">
@@ -4992,7 +4931,7 @@
       <c r="B9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="26" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="9">
@@ -5026,10 +4965,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="9">
@@ -5063,10 +5002,10 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="27" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="9">
@@ -5100,10 +5039,10 @@
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="28" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="11">
@@ -5162,29 +5101,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5219,10 +5158,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -5254,10 +5193,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -5289,10 +5228,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5324,10 +5263,10 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5389,20 +5328,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5540,7 +5479,7 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="36" t="s">
         <v>191</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -5759,7 +5698,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="8"/>
     </row>
   </sheetData>
@@ -5793,21 +5732,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6397,18 +6336,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6449,7 +6388,7 @@
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="15">
@@ -6480,7 +6419,7 @@
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="16">
@@ -6511,10 +6450,10 @@
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -6542,7 +6481,7 @@
       <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="16">
@@ -6573,7 +6512,7 @@
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="16">
@@ -6604,7 +6543,7 @@
       <c r="B8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="16">
@@ -6635,7 +6574,7 @@
       <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="16">
@@ -6666,7 +6605,7 @@
       <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="16">
@@ -6697,7 +6636,7 @@
       <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="16">
@@ -6728,7 +6667,7 @@
       <c r="B12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="16">
@@ -6759,7 +6698,7 @@
       <c r="B13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="17">
@@ -6815,19 +6754,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7174,10 +7113,10 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D12" s="9">
@@ -7208,10 +7147,10 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="9">
@@ -7242,10 +7181,10 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="9">
@@ -7276,10 +7215,10 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="9">
@@ -7310,10 +7249,10 @@
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="11">
@@ -7368,29 +7307,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="71" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -7425,10 +7364,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="65" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="7">
@@ -7462,10 +7401,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="67" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="9">
@@ -7499,10 +7438,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="67" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="9">
@@ -7536,10 +7475,10 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="63" t="s">
         <v>193</v>
       </c>
       <c r="D6" s="11">
@@ -7570,7 +7509,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
+      <c r="B7" s="91"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L6">
@@ -7605,33 +7544,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7666,10 +7605,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="76" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="15">
@@ -7695,19 +7634,19 @@
       <c r="K3" s="7">
         <v>7</v>
       </c>
-      <c r="L3" s="100">
-        <v>8</v>
-      </c>
-      <c r="M3" s="103"/>
+      <c r="L3" s="92">
+        <v>8</v>
+      </c>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="77" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="16">
@@ -7733,10 +7672,10 @@
       <c r="K4" s="9">
         <v>6</v>
       </c>
-      <c r="L4" s="101">
-        <v>7</v>
-      </c>
-      <c r="M4" s="104">
+      <c r="L4" s="93">
+        <v>7</v>
+      </c>
+      <c r="M4" s="96">
         <v>2</v>
       </c>
     </row>
@@ -7744,10 +7683,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="77" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="77" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="16">
@@ -7773,10 +7712,10 @@
       <c r="K5" s="9">
         <v>7</v>
       </c>
-      <c r="L5" s="101">
-        <v>7</v>
-      </c>
-      <c r="M5" s="104">
+      <c r="L5" s="93">
+        <v>7</v>
+      </c>
+      <c r="M5" s="96">
         <v>2</v>
       </c>
     </row>
@@ -7784,10 +7723,10 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="78" t="s">
         <v>193</v>
       </c>
       <c r="D6" s="17">
@@ -7813,13 +7752,13 @@
       <c r="K6" s="11">
         <v>6</v>
       </c>
-      <c r="L6" s="102">
-        <v>6</v>
-      </c>
-      <c r="M6" s="87"/>
+      <c r="L6" s="94">
+        <v>6</v>
+      </c>
+      <c r="M6" s="79"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
+      <c r="B7" s="91"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M6">
@@ -7857,22 +7796,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7914,10 +7853,10 @@
       <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="N2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="97" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7928,7 +7867,7 @@
       <c r="B3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="15">
@@ -7960,10 +7899,10 @@
       <c r="M3" s="7">
         <v>7</v>
       </c>
-      <c r="N3" s="100">
-        <v>7</v>
-      </c>
-      <c r="O3" s="89"/>
+      <c r="N3" s="92">
+        <v>7</v>
+      </c>
+      <c r="O3" s="81"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -7972,7 +7911,7 @@
       <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
@@ -8004,10 +7943,10 @@
       <c r="M4" s="9">
         <v>7</v>
       </c>
-      <c r="N4" s="101">
-        <v>8</v>
-      </c>
-      <c r="O4" s="87"/>
+      <c r="N4" s="93">
+        <v>8</v>
+      </c>
+      <c r="O4" s="79"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -8016,7 +7955,7 @@
       <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="16">
@@ -8033,7 +7972,7 @@
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="107">
+      <c r="I5" s="99">
         <v>7</v>
       </c>
       <c r="J5" s="9">
@@ -8048,10 +7987,10 @@
       <c r="M5" s="9">
         <v>7</v>
       </c>
-      <c r="N5" s="101">
-        <v>7</v>
-      </c>
-      <c r="O5" s="87"/>
+      <c r="N5" s="93">
+        <v>7</v>
+      </c>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -8060,7 +7999,7 @@
       <c r="B6" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="16">
@@ -8092,10 +8031,10 @@
       <c r="M6" s="9">
         <v>8</v>
       </c>
-      <c r="N6" s="101">
-        <v>7</v>
-      </c>
-      <c r="O6" s="87"/>
+      <c r="N6" s="93">
+        <v>7</v>
+      </c>
+      <c r="O6" s="79"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -8104,7 +8043,7 @@
       <c r="B7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="16">
@@ -8136,10 +8075,10 @@
       <c r="M7" s="9">
         <v>7</v>
       </c>
-      <c r="N7" s="101">
-        <v>7</v>
-      </c>
-      <c r="O7" s="104">
+      <c r="N7" s="93">
+        <v>7</v>
+      </c>
+      <c r="O7" s="96">
         <v>2</v>
       </c>
     </row>
@@ -8150,7 +8089,7 @@
       <c r="B8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="17">
@@ -8182,10 +8121,10 @@
       <c r="M8" s="11">
         <v>7</v>
       </c>
-      <c r="N8" s="102">
-        <v>6</v>
-      </c>
-      <c r="O8" s="88"/>
+      <c r="N8" s="94">
+        <v>6</v>
+      </c>
+      <c r="O8" s="80"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O8">
@@ -8221,21 +8160,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8285,14 +8224,14 @@
       <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>65</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="7">
         <v>10</v>
       </c>
@@ -8311,26 +8250,26 @@
       <c r="K3" s="7">
         <v>9</v>
       </c>
-      <c r="L3" s="100">
+      <c r="L3" s="92">
         <v>10</v>
       </c>
-      <c r="M3" s="103"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="73" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
         <f>SUM(F4:L4)</f>
         <v>61</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="9">
         <v>10</v>
       </c>
@@ -8349,10 +8288,10 @@
       <c r="K4" s="9">
         <v>9</v>
       </c>
-      <c r="L4" s="101">
+      <c r="L4" s="93">
         <v>9</v>
       </c>
-      <c r="M4" s="87"/>
+      <c r="M4" s="79"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -8361,21 +8300,21 @@
       <c r="B5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="16">
         <f>SUM(F5:L5)</f>
         <v>59</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="9">
         <v>10</v>
       </c>
       <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="H5" s="107">
+      <c r="H5" s="99">
         <v>9</v>
       </c>
       <c r="I5" s="9">
@@ -8387,10 +8326,10 @@
       <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="101">
-        <v>8</v>
-      </c>
-      <c r="M5" s="87"/>
+      <c r="L5" s="93">
+        <v>8</v>
+      </c>
+      <c r="M5" s="79"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -8399,14 +8338,14 @@
       <c r="B6" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
         <v>59</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="9">
         <v>10</v>
       </c>
@@ -8425,10 +8364,10 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="101">
-        <v>8</v>
-      </c>
-      <c r="M6" s="87"/>
+      <c r="L6" s="93">
+        <v>8</v>
+      </c>
+      <c r="M6" s="79"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -8437,14 +8376,14 @@
       <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="30" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="16">
         <f>SUM(F7:L7)</f>
         <v>58</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="9">
         <v>10</v>
       </c>
@@ -8463,10 +8402,10 @@
       <c r="K7" s="9">
         <v>9</v>
       </c>
-      <c r="L7" s="101">
-        <v>8</v>
-      </c>
-      <c r="M7" s="87"/>
+      <c r="L7" s="93">
+        <v>8</v>
+      </c>
+      <c r="M7" s="79"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -8475,14 +8414,14 @@
       <c r="B8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="16">
         <f>SUM(F8:L8)</f>
         <v>56</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="9">
         <v>10</v>
       </c>
@@ -8501,26 +8440,26 @@
       <c r="K8" s="9">
         <v>7</v>
       </c>
-      <c r="L8" s="101">
-        <v>8</v>
-      </c>
-      <c r="M8" s="87"/>
+      <c r="L8" s="93">
+        <v>8</v>
+      </c>
+      <c r="M8" s="79"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="73" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="16">
         <f>SUM(F9:L9)</f>
         <v>53</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="9">
         <v>10</v>
       </c>
@@ -8539,10 +8478,10 @@
       <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="101">
-        <v>8</v>
-      </c>
-      <c r="M9" s="87"/>
+      <c r="L9" s="93">
+        <v>8</v>
+      </c>
+      <c r="M9" s="79"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -8551,14 +8490,14 @@
       <c r="B10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="16">
         <f>SUM(F10:L10)</f>
         <v>51</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="9">
         <v>5</v>
       </c>
@@ -8577,10 +8516,10 @@
       <c r="K10" s="9">
         <v>7</v>
       </c>
-      <c r="L10" s="101">
-        <v>8</v>
-      </c>
-      <c r="M10" s="87"/>
+      <c r="L10" s="93">
+        <v>8</v>
+      </c>
+      <c r="M10" s="79"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -8589,14 +8528,14 @@
       <c r="B11" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="16">
         <f>SUM(F11:L11)</f>
         <v>49</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="9">
         <v>5</v>
       </c>
@@ -8615,26 +8554,26 @@
       <c r="K11" s="9">
         <v>7</v>
       </c>
-      <c r="L11" s="101">
-        <v>7</v>
-      </c>
-      <c r="M11" s="87"/>
+      <c r="L11" s="93">
+        <v>7</v>
+      </c>
+      <c r="M11" s="79"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="73" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="16">
         <f>SUM(F12:L12)</f>
         <v>48</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="9">
         <v>5</v>
       </c>
@@ -8653,33 +8592,33 @@
       <c r="K12" s="9">
         <v>7</v>
       </c>
-      <c r="L12" s="101">
-        <v>7</v>
-      </c>
-      <c r="M12" s="87"/>
+      <c r="L12" s="93">
+        <v>7</v>
+      </c>
+      <c r="M12" s="79"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="73" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="16">
         <f>SUM(F13:L13)</f>
         <v>46</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
       <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="107">
+      <c r="H13" s="99">
         <v>7</v>
       </c>
       <c r="I13" s="9">
@@ -8691,10 +8630,10 @@
       <c r="K13" s="9">
         <v>7</v>
       </c>
-      <c r="L13" s="101">
-        <v>6</v>
-      </c>
-      <c r="M13" s="87"/>
+      <c r="L13" s="93">
+        <v>6</v>
+      </c>
+      <c r="M13" s="79"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -8703,14 +8642,14 @@
       <c r="B14" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="16">
         <f>SUM(F14:L14)</f>
         <v>46</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="9">
         <v>5</v>
       </c>
@@ -8729,10 +8668,10 @@
       <c r="K14" s="9">
         <v>7</v>
       </c>
-      <c r="L14" s="101">
-        <v>6</v>
-      </c>
-      <c r="M14" s="87"/>
+      <c r="L14" s="93">
+        <v>6</v>
+      </c>
+      <c r="M14" s="79"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -8741,21 +8680,21 @@
       <c r="B15" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="30" t="s">
         <v>184</v>
       </c>
       <c r="D15" s="16">
         <f>F15+G15+H15+I15+J15+K15+L15-M15</f>
         <v>44</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="9">
         <v>5</v>
       </c>
       <c r="G15" s="9">
         <v>7</v>
       </c>
-      <c r="H15" s="107">
+      <c r="H15" s="99">
         <v>7</v>
       </c>
       <c r="I15" s="9">
@@ -8767,10 +8706,10 @@
       <c r="K15" s="9">
         <v>7</v>
       </c>
-      <c r="L15" s="101">
-        <v>7</v>
-      </c>
-      <c r="M15" s="104">
+      <c r="L15" s="93">
+        <v>7</v>
+      </c>
+      <c r="M15" s="96">
         <v>2</v>
       </c>
     </row>
@@ -8778,17 +8717,17 @@
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="73" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="16">
         <f>SUM(F16:L16)</f>
         <v>44</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="9">
         <v>5</v>
       </c>
@@ -8807,10 +8746,10 @@
       <c r="K16" s="9">
         <v>7</v>
       </c>
-      <c r="L16" s="101">
-        <v>7</v>
-      </c>
-      <c r="M16" s="87"/>
+      <c r="L16" s="93">
+        <v>7</v>
+      </c>
+      <c r="M16" s="79"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -8819,14 +8758,14 @@
       <c r="B17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="16">
         <f>SUM(F17:L17)</f>
         <v>43</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="9">
         <v>5</v>
       </c>
@@ -8845,10 +8784,10 @@
       <c r="K17" s="9">
         <v>6</v>
       </c>
-      <c r="L17" s="101">
-        <v>7</v>
-      </c>
-      <c r="M17" s="87"/>
+      <c r="L17" s="93">
+        <v>7</v>
+      </c>
+      <c r="M17" s="79"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
@@ -8857,14 +8796,14 @@
       <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="17">
         <f>F18+G18+H18+I18+J18+K18+L18-M18</f>
         <v>40</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="11">
         <v>5</v>
       </c>
@@ -8883,10 +8822,10 @@
       <c r="K18" s="11">
         <v>6</v>
       </c>
-      <c r="L18" s="102">
-        <v>6</v>
-      </c>
-      <c r="M18" s="109">
+      <c r="L18" s="94">
+        <v>6</v>
+      </c>
+      <c r="M18" s="101">
         <v>2</v>
       </c>
     </row>
@@ -8923,20 +8862,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="50"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8983,7 +8922,7 @@
       <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="15">
@@ -9020,7 +8959,7 @@
       <c r="B4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="16">
@@ -9046,7 +8985,7 @@
       <c r="K4" s="9">
         <v>7</v>
       </c>
-      <c r="L4" s="107">
+      <c r="L4" s="99">
         <v>8</v>
       </c>
     </row>
@@ -9057,7 +8996,7 @@
       <c r="B5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="30" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="16">
@@ -9094,7 +9033,7 @@
       <c r="B6" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="30" t="s">
         <v>184</v>
       </c>
       <c r="D6" s="16">
@@ -9131,7 +9070,7 @@
       <c r="B7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="30" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="16">
@@ -9168,7 +9107,7 @@
       <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="17">
@@ -9213,7 +9152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1021F680-C14A-4717-B22D-46CE59336C86}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
@@ -9231,30 +9170,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="75" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -9284,7 +9223,7 @@
       <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="110" t="s">
+      <c r="M2" s="102" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9292,10 +9231,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="76" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="15">
@@ -9321,57 +9260,57 @@
       <c r="K3" s="7">
         <v>8</v>
       </c>
-      <c r="L3" s="100">
+      <c r="L3" s="92">
         <v>9</v>
       </c>
-      <c r="M3" s="103"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="74">
         <f>SUM(F4:L4)</f>
         <v>57</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35">
         <v>10</v>
       </c>
-      <c r="G4" s="42">
-        <v>8</v>
-      </c>
-      <c r="H4" s="42">
-        <v>8</v>
-      </c>
-      <c r="I4" s="42">
-        <v>8</v>
-      </c>
-      <c r="J4" s="42">
-        <v>7</v>
-      </c>
-      <c r="K4" s="42">
-        <v>8</v>
-      </c>
-      <c r="L4" s="106">
-        <v>8</v>
-      </c>
-      <c r="M4" s="87"/>
+      <c r="G4" s="35">
+        <v>8</v>
+      </c>
+      <c r="H4" s="35">
+        <v>8</v>
+      </c>
+      <c r="I4" s="35">
+        <v>8</v>
+      </c>
+      <c r="J4" s="35">
+        <v>7</v>
+      </c>
+      <c r="K4" s="35">
+        <v>8</v>
+      </c>
+      <c r="L4" s="98">
+        <v>8</v>
+      </c>
+      <c r="M4" s="79"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="77" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="16">
@@ -9397,10 +9336,10 @@
       <c r="K5" s="9">
         <v>9</v>
       </c>
-      <c r="L5" s="101">
-        <v>7</v>
-      </c>
-      <c r="M5" s="104">
+      <c r="L5" s="93">
+        <v>7</v>
+      </c>
+      <c r="M5" s="96">
         <v>2</v>
       </c>
     </row>
@@ -9408,10 +9347,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="77" t="s">
         <v>193</v>
       </c>
       <c r="D6" s="16">
@@ -9437,19 +9376,19 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="101">
-        <v>8</v>
-      </c>
-      <c r="M6" s="87"/>
+      <c r="L6" s="93">
+        <v>8</v>
+      </c>
+      <c r="M6" s="79"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="78" t="s">
         <v>193</v>
       </c>
       <c r="D7" s="17">
@@ -9475,10 +9414,10 @@
       <c r="K7" s="11">
         <v>7</v>
       </c>
-      <c r="L7" s="102">
-        <v>7</v>
-      </c>
-      <c r="M7" s="88"/>
+      <c r="L7" s="94">
+        <v>7</v>
+      </c>
+      <c r="M7" s="80"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M7">
@@ -9494,43 +9433,45 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3335CB4-F25D-400F-A591-705EE0F995EE}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="50"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+    </row>
+    <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9546,7 +9487,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -9556,344 +9497,358 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="15">
-        <f>SUM(F3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="21">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <f>F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
+        <v>74</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7">
+        <v>8</v>
+      </c>
+      <c r="L3" s="7">
+        <v>9</v>
+      </c>
+      <c r="M3" s="92">
+        <v>10</v>
+      </c>
+      <c r="N3" s="95"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D10" si="0">SUM(F4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <f>F4+G4+H4+I4+J4+K4+L4+M4-N4</f>
+        <v>69</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8</v>
+      </c>
+      <c r="K4" s="9">
+        <v>7</v>
+      </c>
+      <c r="L4" s="9">
+        <v>9</v>
+      </c>
+      <c r="M4" s="93">
+        <v>9</v>
+      </c>
+      <c r="N4" s="79"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>36</v>
+        <v>162</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="19">
-        <v>0</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <f>F5+G5+H5+I5+J5+K5+L5+M5-N5</f>
+        <v>68</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9">
+        <v>8</v>
+      </c>
+      <c r="L5" s="9">
+        <v>10</v>
+      </c>
+      <c r="M5" s="93">
+        <v>8</v>
+      </c>
+      <c r="N5" s="79"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>73</v>
+      <c r="B6" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <f>F6+G6+H6+I6+J6+K6+L6+M6-N6</f>
+        <v>67</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="96">
+        <v>10</v>
+      </c>
+      <c r="G6" s="96">
+        <v>8</v>
+      </c>
+      <c r="H6" s="96">
+        <v>8</v>
+      </c>
+      <c r="I6" s="96">
+        <v>9</v>
+      </c>
+      <c r="J6" s="96">
+        <v>8</v>
+      </c>
+      <c r="K6" s="96">
+        <v>8</v>
+      </c>
+      <c r="L6" s="96">
+        <v>8</v>
+      </c>
+      <c r="M6" s="104">
+        <v>8</v>
+      </c>
+      <c r="N6" s="79"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="30" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <f>F7+G7+H7+I7+J7+K7+L7+M7-N7</f>
+        <v>66</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8</v>
+      </c>
+      <c r="I7" s="9">
+        <v>9</v>
+      </c>
+      <c r="J7" s="9">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9">
+        <v>8</v>
+      </c>
+      <c r="L7" s="9">
+        <v>8</v>
+      </c>
+      <c r="M7" s="103">
+        <v>9</v>
+      </c>
+      <c r="N7" s="79"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>51</v>
+        <v>164</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <f>F8+G8+H8+I8+J8+K8+L8+M8-N8</f>
+        <v>66</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9">
+        <v>9</v>
+      </c>
+      <c r="J8" s="9">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9">
+        <v>7</v>
+      </c>
+      <c r="L8" s="9">
+        <v>9</v>
+      </c>
+      <c r="M8" s="93">
+        <v>8</v>
+      </c>
+      <c r="N8" s="79"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79">
-        <v>8</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="80" t="s">
+        <f>F9+G9+H9+I9+J9+K9+L9+M9-N9</f>
+        <v>64</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9">
+        <v>7</v>
+      </c>
+      <c r="K9" s="9">
+        <v>7</v>
+      </c>
+      <c r="L9" s="9">
+        <v>9</v>
+      </c>
+      <c r="M9" s="103">
+        <v>8</v>
+      </c>
+      <c r="N9" s="79"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="72">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="34">
-        <v>0</v>
-      </c>
-      <c r="G10" s="34">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0</v>
-      </c>
-      <c r="I10" s="34">
-        <v>0</v>
-      </c>
-      <c r="J10" s="34">
-        <v>0</v>
-      </c>
-      <c r="K10" s="34">
-        <v>0</v>
-      </c>
-      <c r="L10" s="35">
-        <v>0</v>
-      </c>
-      <c r="M10" s="34">
-        <v>0</v>
-      </c>
+        <f>F10+G10+H10+I10+J10+K10+L10+M10-N10</f>
+        <v>64</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
+        <v>8</v>
+      </c>
+      <c r="H10" s="11">
+        <v>8</v>
+      </c>
+      <c r="I10" s="11">
+        <v>9</v>
+      </c>
+      <c r="J10" s="11">
+        <v>7</v>
+      </c>
+      <c r="K10" s="11">
+        <v>7</v>
+      </c>
+      <c r="L10" s="11">
+        <v>8</v>
+      </c>
+      <c r="M10" s="94">
+        <v>7</v>
+      </c>
+      <c r="N10" s="80"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N10">
+    <sortCondition descending="1" ref="D3:D10"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C74B3E-04DC-4000-A5E9-EE434B30793B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596FC6C3-09BE-415A-92B2-D1583B3E7CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="2" activeTab="8" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
@@ -9436,7 +9436,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596FC6C3-09BE-415A-92B2-D1583B3E7CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E892D377-719A-4FD0-9931-14CA468C2D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="2" activeTab="8" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="6" activeTab="10" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="SOLISTA NOVEL FEMENINO" sheetId="12" r:id="rId7"/>
     <sheet name="TRIO FEMENINO" sheetId="7" r:id="rId8"/>
     <sheet name="PAREJAS NOVEL" sheetId="6" r:id="rId9"/>
-    <sheet name="SOLISTA LIBRE MASCULINO" sheetId="4" r:id="rId10"/>
-    <sheet name="SOLISTA LIBRE FEMENINO" sheetId="13" r:id="rId11"/>
+    <sheet name="SOLISTA LIBRE FEMENINO" sheetId="13" r:id="rId10"/>
+    <sheet name="SOLISTA LIBRE MASCULINO" sheetId="4" r:id="rId11"/>
     <sheet name="PAREJAS JUVENIL" sheetId="14" r:id="rId12"/>
     <sheet name="SOLISTA INFANTIL FEMENINO" sheetId="15" r:id="rId13"/>
     <sheet name="DUETO ABIERTO" sheetId="16" r:id="rId14"/>
@@ -213,8 +213,67 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TECNO</author>
+  </authors>
+  <commentList>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{3B37F7A3-FCC6-41D4-9E04-F7685BED9C9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+genero adicional de 24 seg</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{661C6D57-F940-4602-8CB0-E8B54DC6AFE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+genero adicional menos a 30 seg
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="200">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -1387,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1495,57 +1554,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1687,6 +1695,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2020,18 +2085,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2201,49 +2266,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453C5705-CF6D-405F-9DAE-52D79583766A}">
-  <dimension ref="A1:M14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760712C0-88D3-4C15-9400-B76688D4D1C5}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+    </row>
+    <row r="2" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2268,867 +2338,940 @@
         <v>34</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+        <v>8</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>69</v>
+      <c r="B3" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(F3:M3)</f>
-        <v>0</v>
+        <f>F3+G3+H3+I3+J3+M3+K3+L3-N3</f>
+        <v>61</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+        <v>7</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="35">
-        <f>SUM(F4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35">
-        <v>0</v>
-      </c>
-      <c r="G4" s="35">
-        <v>0</v>
-      </c>
-      <c r="H4" s="35">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
-        <v>0</v>
-      </c>
-      <c r="J4" s="35">
-        <v>0</v>
-      </c>
-      <c r="K4" s="35">
-        <v>0</v>
-      </c>
-      <c r="L4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B4" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="9">
+        <f>F4+G4+H4+I4+J4+M4+K4+L4-N4</f>
+        <v>60</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7</v>
+      </c>
+      <c r="H4" s="82">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8</v>
+      </c>
+      <c r="K4" s="9">
+        <v>7</v>
+      </c>
+      <c r="L4" s="9">
+        <v>8</v>
+      </c>
+      <c r="M4" s="9">
+        <v>6</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>36</v>
+      <c r="B5" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="9">
-        <f>SUM(F5:M5)</f>
-        <v>0</v>
+        <f>F5+G5+H5+I5+J5+M5+K5+L5-N5</f>
+        <v>60</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+        <v>6</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>64</v>
+      <c r="B6" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(F6:M6)</f>
-        <v>0</v>
+        <f>F6+G6+H6+I6+J6+M6+K6+L6-N6</f>
+        <v>58</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>47</v>
+      <c r="B7" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="9">
-        <f>SUM(F7:M7)</f>
-        <v>0</v>
+        <f>F7+G7+H7+I7+J7+M7+K7+L7-N7</f>
+        <v>56</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="9">
-        <f>SUM(F8:M8)</f>
-        <v>0</v>
+        <f>F8+G8+H8+I8+J8+M8+K8+L8-N8</f>
+        <v>54</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="9">
-        <f>SUM(F9:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="9">
-        <f>SUM(F10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="9">
-        <f>SUM(F11:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+        <v>6</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="11">
+        <f>F9+G9+H9+I9+J9+M9+K9+L9-N9</f>
+        <v>51</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="9">
-        <f>SUM(F12:M12)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="9">
-        <f>SUM(F13:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37">
-        <v>12</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="11">
-        <f>SUM(F14:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
+      <c r="G9" s="11">
+        <v>6</v>
+      </c>
+      <c r="H9" s="11">
+        <v>6</v>
+      </c>
+      <c r="I9" s="11">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>5</v>
+      </c>
+      <c r="K9" s="11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11">
+        <v>7</v>
+      </c>
+      <c r="M9" s="11">
+        <v>7</v>
+      </c>
+      <c r="N9" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N9">
+    <sortCondition descending="1" ref="D3:D9"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760712C0-88D3-4C15-9400-B76688D4D1C5}">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453C5705-CF6D-405F-9DAE-52D79583766A}">
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+    </row>
+    <row r="2" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7">
-        <f>SUM(F3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="D3" s="35">
+        <f>F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
+        <v>67</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35">
+        <v>10</v>
+      </c>
+      <c r="G3" s="35">
+        <v>9</v>
+      </c>
+      <c r="H3" s="35">
+        <v>8</v>
+      </c>
+      <c r="I3" s="105">
+        <v>9</v>
+      </c>
+      <c r="J3" s="35">
+        <v>8</v>
+      </c>
+      <c r="K3" s="35">
+        <v>7</v>
+      </c>
+      <c r="L3" s="35">
+        <v>8</v>
+      </c>
+      <c r="M3" s="35">
+        <v>8</v>
+      </c>
+      <c r="N3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="9">
-        <f>SUM(F4:M4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="7">
+        <f>F4+G4+H4+I4+J4+K4+L4+M4-N4</f>
+        <v>67</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>9</v>
+      </c>
+      <c r="L4" s="7">
+        <v>8</v>
+      </c>
+      <c r="M4" s="7">
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>52</v>
+      <c r="B5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="9">
-        <f>SUM(F5:M5)</f>
-        <v>0</v>
+        <f>F5+G5+H5+I5+J5+K5+L5+M5-N5</f>
+        <v>66</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="J5" s="82">
+        <v>9</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="N5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="86" t="s">
+      <c r="B6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="9">
-        <f>SUM(F6:M6)</f>
-        <v>0</v>
+        <f>F6+G6+H6+I6+J6+K6+L6+M6-N6</f>
+        <v>66</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>52</v>
+      <c r="B7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D7" s="9">
-        <f>SUM(F7:M7)</f>
-        <v>0</v>
+        <f>F7+G7+H7+I7+J7+K7+L7+M7-N7</f>
+        <v>65</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="9">
-        <f>SUM(F8:M8)</f>
-        <v>0</v>
+        <f>F8+G8+H8+I8+J8+K8+L8+M8-N8</f>
+        <v>62</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J8" s="82">
+        <v>9</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="11">
-        <f t="shared" ref="D4:D9" si="0">SUM(F9:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
+      <c r="D9" s="9">
+        <f>F9+G9+H9+I9+J9+K9+L9+M9-N9</f>
+        <v>62</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9">
+        <v>7</v>
+      </c>
+      <c r="L9" s="9">
+        <v>7</v>
+      </c>
+      <c r="M9" s="9">
+        <v>7</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="9">
+        <f>F10+G10+H10+I10+J10+K10+L10+M10-N10</f>
+        <v>55</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>7</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9">
+        <v>7</v>
+      </c>
+      <c r="K10" s="9">
+        <v>7</v>
+      </c>
+      <c r="L10" s="9">
+        <v>8</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9">
+        <f>F11+G11+H11+I11+J11+K11+L11+M11-N11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="9">
+        <f>F12+G12+H12+I12+J12+K12+L12+M12-N12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="9">
+        <f>F13+G13+H13+I13+J13+K13+L13+M13-N13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="11">
+        <f>F14+G14+H14+I14+J14+K14+L14+M14-N14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N14">
+    <sortCondition descending="1" ref="D3:D14"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3154,30 +3297,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="71" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3215,10 +3358,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="7">
@@ -3255,10 +3398,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="69" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
@@ -3295,10 +3438,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="69" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9">
@@ -3335,10 +3478,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="69" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="9">
@@ -3375,10 +3518,10 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="70" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="11">
@@ -3440,20 +3583,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3504,7 +3647,7 @@
         <v>98</v>
       </c>
       <c r="D3" s="15">
-        <f>SUM(F3:L3)</f>
+        <f t="shared" ref="D3:D13" si="0">SUM(F3:L3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -3541,7 +3684,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="16">
-        <f>SUM(F4:L4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -3578,7 +3721,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="16">
-        <f>SUM(F5:L5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -3615,7 +3758,7 @@
         <v>64</v>
       </c>
       <c r="D6" s="16">
-        <f>SUM(F6:L6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -3652,7 +3795,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="16">
-        <f>SUM(F7:L7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -3689,7 +3832,7 @@
         <v>69</v>
       </c>
       <c r="D8" s="16">
-        <f>SUM(F8:L8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -3726,7 +3869,7 @@
         <v>51</v>
       </c>
       <c r="D9" s="16">
-        <f>SUM(F9:L9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -3763,7 +3906,7 @@
         <v>102</v>
       </c>
       <c r="D10" s="16">
-        <f>SUM(F10:L10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -3800,7 +3943,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="16">
-        <f>SUM(F11:L11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -3837,7 +3980,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="16">
-        <f>SUM(F12:L12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -3874,7 +4017,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="16">
-        <f>SUM(F13:L13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -3911,7 +4054,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="17">
-        <f t="shared" ref="D4:D14" si="0">SUM(F14:L14)</f>
+        <f t="shared" ref="D14" si="1">SUM(F14:L14)</f>
         <v>0</v>
       </c>
       <c r="E14" s="11"/>
@@ -3966,29 +4109,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="39" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4023,10 +4166,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="41" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="7">
@@ -4060,10 +4203,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="43" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="9">
@@ -4097,14 +4240,14 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="45" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D4:D5" si="0">SUM(F5:L5)</f>
+        <f t="shared" ref="D5" si="0">SUM(F5:L5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
@@ -4160,29 +4303,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="71" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4217,10 +4360,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="69" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7">
@@ -4254,10 +4397,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="69" t="s">
         <v>192</v>
       </c>
       <c r="D4" s="9">
@@ -4291,10 +4434,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="69" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="9">
@@ -4328,10 +4471,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="69" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="9">
@@ -4365,10 +4508,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="69" t="s">
         <v>192</v>
       </c>
       <c r="D7" s="9">
@@ -4402,10 +4545,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="69" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="9">
@@ -4439,10 +4582,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="69" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="9">
@@ -4476,10 +4619,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="69" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="9">
@@ -4513,10 +4656,10 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="72" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="9">
@@ -4550,10 +4693,10 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="72" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="9">
@@ -4587,10 +4730,10 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="73" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="11">
@@ -4649,20 +4792,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5101,29 +5244,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="100" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5158,10 +5301,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -5193,10 +5336,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -5228,10 +5371,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5263,10 +5406,10 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5328,20 +5471,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5732,21 +5875,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6336,18 +6479,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6754,19 +6897,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7307,29 +7450,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="54" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -7364,10 +7507,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="48" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="7">
@@ -7401,10 +7544,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="50" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="9">
@@ -7438,10 +7581,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="50" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="9">
@@ -7475,10 +7618,10 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="46" t="s">
         <v>193</v>
       </c>
       <c r="D6" s="11">
@@ -7509,7 +7652,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="91"/>
+      <c r="B7" s="74"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L6">
@@ -7544,30 +7687,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="65" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="33" t="s">
@@ -7605,10 +7748,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="59" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="15">
@@ -7634,19 +7777,19 @@
       <c r="K3" s="7">
         <v>7</v>
       </c>
-      <c r="L3" s="92">
-        <v>8</v>
-      </c>
-      <c r="M3" s="95"/>
+      <c r="L3" s="75">
+        <v>8</v>
+      </c>
+      <c r="M3" s="78"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="60" t="s">
         <v>193</v>
       </c>
       <c r="D4" s="16">
@@ -7672,10 +7815,10 @@
       <c r="K4" s="9">
         <v>6</v>
       </c>
-      <c r="L4" s="93">
-        <v>7</v>
-      </c>
-      <c r="M4" s="96">
+      <c r="L4" s="76">
+        <v>7</v>
+      </c>
+      <c r="M4" s="79">
         <v>2</v>
       </c>
     </row>
@@ -7683,10 +7826,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="60" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="16">
@@ -7712,10 +7855,10 @@
       <c r="K5" s="9">
         <v>7</v>
       </c>
-      <c r="L5" s="93">
-        <v>7</v>
-      </c>
-      <c r="M5" s="96">
+      <c r="L5" s="76">
+        <v>7</v>
+      </c>
+      <c r="M5" s="79">
         <v>2</v>
       </c>
     </row>
@@ -7723,10 +7866,10 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="61" t="s">
         <v>193</v>
       </c>
       <c r="D6" s="17">
@@ -7752,13 +7895,13 @@
       <c r="K6" s="11">
         <v>6</v>
       </c>
-      <c r="L6" s="94">
-        <v>6</v>
-      </c>
-      <c r="M6" s="79"/>
+      <c r="L6" s="77">
+        <v>6</v>
+      </c>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="91"/>
+      <c r="B7" s="74"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M6">
@@ -7796,22 +7939,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7853,10 +7996,10 @@
       <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="80" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7899,10 +8042,10 @@
       <c r="M3" s="7">
         <v>7</v>
       </c>
-      <c r="N3" s="92">
-        <v>7</v>
-      </c>
-      <c r="O3" s="81"/>
+      <c r="N3" s="75">
+        <v>7</v>
+      </c>
+      <c r="O3" s="64"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -7943,10 +8086,10 @@
       <c r="M4" s="9">
         <v>7</v>
       </c>
-      <c r="N4" s="93">
-        <v>8</v>
-      </c>
-      <c r="O4" s="79"/>
+      <c r="N4" s="76">
+        <v>8</v>
+      </c>
+      <c r="O4" s="62"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -7972,7 +8115,7 @@
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="99">
+      <c r="I5" s="82">
         <v>7</v>
       </c>
       <c r="J5" s="9">
@@ -7987,10 +8130,10 @@
       <c r="M5" s="9">
         <v>7</v>
       </c>
-      <c r="N5" s="93">
-        <v>7</v>
-      </c>
-      <c r="O5" s="79"/>
+      <c r="N5" s="76">
+        <v>7</v>
+      </c>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -8031,10 +8174,10 @@
       <c r="M6" s="9">
         <v>8</v>
       </c>
-      <c r="N6" s="93">
-        <v>7</v>
-      </c>
-      <c r="O6" s="79"/>
+      <c r="N6" s="76">
+        <v>7</v>
+      </c>
+      <c r="O6" s="62"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -8075,10 +8218,10 @@
       <c r="M7" s="9">
         <v>7</v>
       </c>
-      <c r="N7" s="93">
-        <v>7</v>
-      </c>
-      <c r="O7" s="96">
+      <c r="N7" s="76">
+        <v>7</v>
+      </c>
+      <c r="O7" s="79">
         <v>2</v>
       </c>
     </row>
@@ -8121,10 +8264,10 @@
       <c r="M8" s="11">
         <v>7</v>
       </c>
-      <c r="N8" s="94">
-        <v>6</v>
-      </c>
-      <c r="O8" s="80"/>
+      <c r="N8" s="77">
+        <v>6</v>
+      </c>
+      <c r="O8" s="63"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O8">
@@ -8160,21 +8303,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8228,7 +8371,7 @@
         <v>45</v>
       </c>
       <c r="D3" s="15">
-        <f>SUM(F3:L3)</f>
+        <f t="shared" ref="D3:D14" si="0">SUM(F3:L3)</f>
         <v>65</v>
       </c>
       <c r="E3" s="21"/>
@@ -8250,10 +8393,10 @@
       <c r="K3" s="7">
         <v>9</v>
       </c>
-      <c r="L3" s="92">
+      <c r="L3" s="75">
         <v>10</v>
       </c>
-      <c r="M3" s="95"/>
+      <c r="M3" s="78"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -8262,11 +8405,11 @@
       <c r="B4" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="56" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
-        <f>SUM(F4:L4)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="E4" s="23"/>
@@ -8288,10 +8431,10 @@
       <c r="K4" s="9">
         <v>9</v>
       </c>
-      <c r="L4" s="93">
+      <c r="L4" s="76">
         <v>9</v>
       </c>
-      <c r="M4" s="79"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -8304,7 +8447,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="16">
-        <f>SUM(F5:L5)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="E5" s="22"/>
@@ -8314,7 +8457,7 @@
       <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="82">
         <v>9</v>
       </c>
       <c r="I5" s="9">
@@ -8326,10 +8469,10 @@
       <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="93">
-        <v>8</v>
-      </c>
-      <c r="M5" s="79"/>
+      <c r="L5" s="76">
+        <v>8</v>
+      </c>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -8342,7 +8485,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="16">
-        <f>SUM(F6:L6)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="E6" s="22"/>
@@ -8364,10 +8507,10 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="93">
-        <v>8</v>
-      </c>
-      <c r="M6" s="79"/>
+      <c r="L6" s="76">
+        <v>8</v>
+      </c>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -8380,7 +8523,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="16">
-        <f>SUM(F7:L7)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="E7" s="22"/>
@@ -8402,10 +8545,10 @@
       <c r="K7" s="9">
         <v>9</v>
       </c>
-      <c r="L7" s="93">
-        <v>8</v>
-      </c>
-      <c r="M7" s="79"/>
+      <c r="L7" s="76">
+        <v>8</v>
+      </c>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -8418,7 +8561,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="16">
-        <f>SUM(F8:L8)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E8" s="22"/>
@@ -8440,10 +8583,10 @@
       <c r="K8" s="9">
         <v>7</v>
       </c>
-      <c r="L8" s="93">
-        <v>8</v>
-      </c>
-      <c r="M8" s="79"/>
+      <c r="L8" s="76">
+        <v>8</v>
+      </c>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -8452,11 +8595,11 @@
       <c r="B9" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="56" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="16">
-        <f>SUM(F9:L9)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="E9" s="22"/>
@@ -8478,10 +8621,10 @@
       <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="93">
-        <v>8</v>
-      </c>
-      <c r="M9" s="79"/>
+      <c r="L9" s="76">
+        <v>8</v>
+      </c>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -8494,7 +8637,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="16">
-        <f>SUM(F10:L10)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E10" s="22"/>
@@ -8516,10 +8659,10 @@
       <c r="K10" s="9">
         <v>7</v>
       </c>
-      <c r="L10" s="93">
-        <v>8</v>
-      </c>
-      <c r="M10" s="79"/>
+      <c r="L10" s="76">
+        <v>8</v>
+      </c>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -8532,7 +8675,7 @@
         <v>67</v>
       </c>
       <c r="D11" s="16">
-        <f>SUM(F11:L11)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E11" s="22"/>
@@ -8554,10 +8697,10 @@
       <c r="K11" s="9">
         <v>7</v>
       </c>
-      <c r="L11" s="93">
-        <v>7</v>
-      </c>
-      <c r="M11" s="79"/>
+      <c r="L11" s="76">
+        <v>7</v>
+      </c>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -8566,11 +8709,11 @@
       <c r="B12" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="56" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="16">
-        <f>SUM(F12:L12)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E12" s="23"/>
@@ -8592,10 +8735,10 @@
       <c r="K12" s="9">
         <v>7</v>
       </c>
-      <c r="L12" s="93">
-        <v>7</v>
-      </c>
-      <c r="M12" s="79"/>
+      <c r="L12" s="76">
+        <v>7</v>
+      </c>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -8604,11 +8747,11 @@
       <c r="B13" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="56" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="16">
-        <f>SUM(F13:L13)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E13" s="22"/>
@@ -8618,7 +8761,7 @@
       <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="99">
+      <c r="H13" s="82">
         <v>7</v>
       </c>
       <c r="I13" s="9">
@@ -8630,10 +8773,10 @@
       <c r="K13" s="9">
         <v>7</v>
       </c>
-      <c r="L13" s="93">
-        <v>6</v>
-      </c>
-      <c r="M13" s="79"/>
+      <c r="L13" s="76">
+        <v>6</v>
+      </c>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -8646,7 +8789,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="16">
-        <f>SUM(F14:L14)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E14" s="22"/>
@@ -8668,10 +8811,10 @@
       <c r="K14" s="9">
         <v>7</v>
       </c>
-      <c r="L14" s="93">
-        <v>6</v>
-      </c>
-      <c r="M14" s="79"/>
+      <c r="L14" s="76">
+        <v>6</v>
+      </c>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -8694,7 +8837,7 @@
       <c r="G15" s="9">
         <v>7</v>
       </c>
-      <c r="H15" s="99">
+      <c r="H15" s="82">
         <v>7</v>
       </c>
       <c r="I15" s="9">
@@ -8706,10 +8849,10 @@
       <c r="K15" s="9">
         <v>7</v>
       </c>
-      <c r="L15" s="93">
-        <v>7</v>
-      </c>
-      <c r="M15" s="96">
+      <c r="L15" s="76">
+        <v>7</v>
+      </c>
+      <c r="M15" s="79">
         <v>2</v>
       </c>
     </row>
@@ -8720,7 +8863,7 @@
       <c r="B16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="56" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="16">
@@ -8746,10 +8889,10 @@
       <c r="K16" s="9">
         <v>7</v>
       </c>
-      <c r="L16" s="93">
-        <v>7</v>
-      </c>
-      <c r="M16" s="79"/>
+      <c r="L16" s="76">
+        <v>7</v>
+      </c>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -8784,10 +8927,10 @@
       <c r="K17" s="9">
         <v>6</v>
       </c>
-      <c r="L17" s="93">
-        <v>7</v>
-      </c>
-      <c r="M17" s="79"/>
+      <c r="L17" s="76">
+        <v>7</v>
+      </c>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
@@ -8803,7 +8946,7 @@
         <f>F18+G18+H18+I18+J18+K18+L18-M18</f>
         <v>40</v>
       </c>
-      <c r="E18" s="100"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="11">
         <v>5</v>
       </c>
@@ -8822,10 +8965,10 @@
       <c r="K18" s="11">
         <v>6</v>
       </c>
-      <c r="L18" s="94">
-        <v>6</v>
-      </c>
-      <c r="M18" s="101">
+      <c r="L18" s="77">
+        <v>6</v>
+      </c>
+      <c r="M18" s="84">
         <v>2</v>
       </c>
     </row>
@@ -8862,20 +9005,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="43"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8926,7 +9069,7 @@
         <v>73</v>
       </c>
       <c r="D3" s="15">
-        <f>SUM(F3:L3)</f>
+        <f t="shared" ref="D3:D8" si="0">SUM(F3:L3)</f>
         <v>55</v>
       </c>
       <c r="E3" s="7"/>
@@ -8963,7 +9106,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="16">
-        <f>SUM(F4:L4)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="E4" s="9"/>
@@ -8985,7 +9128,7 @@
       <c r="K4" s="9">
         <v>7</v>
       </c>
-      <c r="L4" s="99">
+      <c r="L4" s="82">
         <v>8</v>
       </c>
     </row>
@@ -9000,7 +9143,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="16">
-        <f>SUM(F5:L5)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="E5" s="9"/>
@@ -9037,7 +9180,7 @@
         <v>184</v>
       </c>
       <c r="D6" s="16">
-        <f>SUM(F6:L6)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E6" s="9"/>
@@ -9074,7 +9217,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="16">
-        <f>SUM(F7:L7)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E7" s="9"/>
@@ -9111,7 +9254,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="17">
-        <f>SUM(F8:L8)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="E8" s="11"/>
@@ -9170,30 +9313,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="58" t="s">
         <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -9223,7 +9366,7 @@
       <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="102" t="s">
+      <c r="M2" s="85" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9231,10 +9374,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="59" t="s">
         <v>193</v>
       </c>
       <c r="D3" s="15">
@@ -9260,22 +9403,22 @@
       <c r="K3" s="7">
         <v>8</v>
       </c>
-      <c r="L3" s="92">
+      <c r="L3" s="75">
         <v>9</v>
       </c>
-      <c r="M3" s="95"/>
+      <c r="M3" s="78"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="57">
         <f>SUM(F4:L4)</f>
         <v>57</v>
       </c>
@@ -9298,19 +9441,19 @@
       <c r="K4" s="35">
         <v>8</v>
       </c>
-      <c r="L4" s="98">
-        <v>8</v>
-      </c>
-      <c r="M4" s="79"/>
+      <c r="L4" s="81">
+        <v>8</v>
+      </c>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="60" t="s">
         <v>193</v>
       </c>
       <c r="D5" s="16">
@@ -9336,10 +9479,10 @@
       <c r="K5" s="9">
         <v>9</v>
       </c>
-      <c r="L5" s="93">
-        <v>7</v>
-      </c>
-      <c r="M5" s="96">
+      <c r="L5" s="76">
+        <v>7</v>
+      </c>
+      <c r="M5" s="79">
         <v>2</v>
       </c>
     </row>
@@ -9347,10 +9490,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="60" t="s">
         <v>193</v>
       </c>
       <c r="D6" s="16">
@@ -9376,19 +9519,19 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="93">
-        <v>8</v>
-      </c>
-      <c r="M6" s="79"/>
+      <c r="L6" s="76">
+        <v>8</v>
+      </c>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="61" t="s">
         <v>193</v>
       </c>
       <c r="D7" s="17">
@@ -9414,10 +9557,10 @@
       <c r="K7" s="11">
         <v>7</v>
       </c>
-      <c r="L7" s="94">
-        <v>7</v>
-      </c>
-      <c r="M7" s="80"/>
+      <c r="L7" s="77">
+        <v>7</v>
+      </c>
+      <c r="M7" s="63"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M7">
@@ -9435,7 +9578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3335CB4-F25D-400F-A591-705EE0F995EE}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -9454,22 +9597,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9526,7 +9669,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="15">
-        <f>F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
+        <f t="shared" ref="D3:D10" si="0">F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
         <v>74</v>
       </c>
       <c r="E3" s="7"/>
@@ -9551,10 +9694,10 @@
       <c r="L3" s="7">
         <v>9</v>
       </c>
-      <c r="M3" s="92">
+      <c r="M3" s="75">
         <v>10</v>
       </c>
-      <c r="N3" s="95"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -9567,7 +9710,7 @@
         <v>42</v>
       </c>
       <c r="D4" s="16">
-        <f>F4+G4+H4+I4+J4+K4+L4+M4-N4</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E4" s="9"/>
@@ -9592,10 +9735,10 @@
       <c r="L4" s="9">
         <v>9</v>
       </c>
-      <c r="M4" s="93">
+      <c r="M4" s="76">
         <v>9</v>
       </c>
-      <c r="N4" s="79"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -9608,7 +9751,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="16">
-        <f>F5+G5+H5+I5+J5+K5+L5+M5-N5</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="E5" s="9"/>
@@ -9633,10 +9776,10 @@
       <c r="L5" s="9">
         <v>10</v>
       </c>
-      <c r="M5" s="93">
-        <v>8</v>
-      </c>
-      <c r="N5" s="79"/>
+      <c r="M5" s="76">
+        <v>8</v>
+      </c>
+      <c r="N5" s="62"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -9645,39 +9788,39 @@
       <c r="B6" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="56" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="16">
-        <f>F6+G6+H6+I6+J6+K6+L6+M6-N6</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="96">
+      <c r="E6" s="62"/>
+      <c r="F6" s="79">
         <v>10</v>
       </c>
-      <c r="G6" s="96">
-        <v>8</v>
-      </c>
-      <c r="H6" s="96">
-        <v>8</v>
-      </c>
-      <c r="I6" s="96">
+      <c r="G6" s="79">
+        <v>8</v>
+      </c>
+      <c r="H6" s="79">
+        <v>8</v>
+      </c>
+      <c r="I6" s="79">
         <v>9</v>
       </c>
-      <c r="J6" s="96">
-        <v>8</v>
-      </c>
-      <c r="K6" s="96">
-        <v>8</v>
-      </c>
-      <c r="L6" s="96">
-        <v>8</v>
-      </c>
-      <c r="M6" s="104">
-        <v>8</v>
-      </c>
-      <c r="N6" s="79"/>
+      <c r="J6" s="79">
+        <v>8</v>
+      </c>
+      <c r="K6" s="79">
+        <v>8</v>
+      </c>
+      <c r="L6" s="79">
+        <v>8</v>
+      </c>
+      <c r="M6" s="87">
+        <v>8</v>
+      </c>
+      <c r="N6" s="62"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -9690,7 +9833,7 @@
         <v>77</v>
       </c>
       <c r="D7" s="16">
-        <f>F7+G7+H7+I7+J7+K7+L7+M7-N7</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E7" s="9"/>
@@ -9715,10 +9858,10 @@
       <c r="L7" s="9">
         <v>8</v>
       </c>
-      <c r="M7" s="103">
+      <c r="M7" s="86">
         <v>9</v>
       </c>
-      <c r="N7" s="79"/>
+      <c r="N7" s="62"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -9731,7 +9874,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="16">
-        <f>F8+G8+H8+I8+J8+K8+L8+M8-N8</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E8" s="9"/>
@@ -9756,10 +9899,10 @@
       <c r="L8" s="9">
         <v>9</v>
       </c>
-      <c r="M8" s="93">
-        <v>8</v>
-      </c>
-      <c r="N8" s="79"/>
+      <c r="M8" s="76">
+        <v>8</v>
+      </c>
+      <c r="N8" s="62"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -9772,7 +9915,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="16">
-        <f>F9+G9+H9+I9+J9+K9+L9+M9-N9</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E9" s="9"/>
@@ -9797,13 +9940,13 @@
       <c r="L9" s="9">
         <v>9</v>
       </c>
-      <c r="M9" s="103">
-        <v>8</v>
-      </c>
-      <c r="N9" s="79"/>
+      <c r="M9" s="86">
+        <v>8</v>
+      </c>
+      <c r="N9" s="62"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72">
+      <c r="A10" s="55">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -9813,7 +9956,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="17">
-        <f>F10+G10+H10+I10+J10+K10+L10+M10-N10</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E10" s="11"/>
@@ -9838,10 +9981,10 @@
       <c r="L10" s="11">
         <v>8</v>
       </c>
-      <c r="M10" s="94">
-        <v>7</v>
-      </c>
-      <c r="N10" s="80"/>
+      <c r="M10" s="77">
+        <v>7</v>
+      </c>
+      <c r="N10" s="63"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N10">

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E892D377-719A-4FD0-9931-14CA468C2D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5B733-2197-4658-A1DE-BA87A6BFF0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="6" activeTab="10" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <author>TECNO</author>
   </authors>
   <commentList>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{3B37F7A3-FCC6-41D4-9E04-F7685BED9C9A}">
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{3B37F7A3-FCC6-41D4-9E04-F7685BED9C9A}">
       <text>
         <r>
           <rPr>
@@ -243,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{661C6D57-F940-4602-8CB0-E8B54DC6AFE4}">
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{661C6D57-F940-4602-8CB0-E8B54DC6AFE4}">
       <text>
         <r>
           <rPr>
@@ -1446,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1636,9 +1636,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1748,10 +1745,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2085,18 +2082,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="A1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2289,22 +2286,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
     </row>
     <row r="2" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2354,10 +2351,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="7">
@@ -2397,10 +2394,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
@@ -2414,7 +2411,7 @@
       <c r="G4" s="9">
         <v>7</v>
       </c>
-      <c r="H4" s="82">
+      <c r="H4" s="81">
         <v>7</v>
       </c>
       <c r="I4" s="9">
@@ -2440,10 +2437,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="9">
@@ -2483,10 +2480,10 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="9">
@@ -2526,10 +2523,10 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="9">
@@ -2569,10 +2566,10 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="9">
@@ -2612,10 +2609,10 @@
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="69" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="11">
@@ -2668,7 +2665,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:N8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,22 +2683,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
     </row>
     <row r="2" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2722,28 +2719,28 @@
       <c r="F2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="80" t="s">
+      <c r="G2" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="80" t="s">
+      <c r="M2" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2751,40 +2748,40 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="106" t="s">
+      <c r="B3" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="105" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="35">
         <f>F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35">
         <v>10</v>
       </c>
       <c r="G3" s="35">
+        <v>8</v>
+      </c>
+      <c r="H3" s="35">
+        <v>8</v>
+      </c>
+      <c r="I3" s="35">
+        <v>10</v>
+      </c>
+      <c r="J3" s="35">
+        <v>10</v>
+      </c>
+      <c r="K3" s="35">
+        <v>8</v>
+      </c>
+      <c r="L3" s="35">
+        <v>7</v>
+      </c>
+      <c r="M3" s="35">
         <v>9</v>
-      </c>
-      <c r="H3" s="35">
-        <v>8</v>
-      </c>
-      <c r="I3" s="105">
-        <v>9</v>
-      </c>
-      <c r="J3" s="35">
-        <v>8</v>
-      </c>
-      <c r="K3" s="35">
-        <v>7</v>
-      </c>
-      <c r="L3" s="35">
-        <v>8</v>
-      </c>
-      <c r="M3" s="35">
-        <v>8</v>
       </c>
       <c r="N3" s="35">
         <v>0</v>
@@ -2794,11 +2791,11 @@
       <c r="A4" s="34">
         <v>2</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>69</v>
+      <c r="B4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="7">
         <f>F4+G4+H4+I4+J4+K4+L4+M4-N4</f>
@@ -2809,19 +2806,19 @@
         <v>10</v>
       </c>
       <c r="G4" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="I4" s="7">
-        <v>8</v>
+      <c r="I4" s="104">
+        <v>9</v>
       </c>
       <c r="J4" s="7">
         <v>8</v>
       </c>
       <c r="K4" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L4" s="7">
         <v>8</v>
@@ -2837,43 +2834,43 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>47</v>
+      <c r="B5" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="9">
         <f>F5+G5+H5+I5+J5+K5+L5+M5-N5</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
         <v>10</v>
       </c>
       <c r="G5" s="9">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9">
         <v>9</v>
       </c>
-      <c r="H5" s="9">
-        <v>8</v>
-      </c>
-      <c r="I5" s="9">
-        <v>9</v>
-      </c>
-      <c r="J5" s="82">
-        <v>9</v>
-      </c>
-      <c r="K5" s="9">
-        <v>8</v>
-      </c>
       <c r="L5" s="9">
         <v>8</v>
       </c>
       <c r="M5" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2881,10 +2878,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9">
         <f>F6+G6+H6+I6+J6+K6+L6+M6-N6</f>
@@ -2895,16 +2892,16 @@
         <v>10</v>
       </c>
       <c r="G6" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="9">
         <v>8</v>
       </c>
       <c r="I6" s="9">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="J6" s="81">
+        <v>9</v>
       </c>
       <c r="K6" s="9">
         <v>8</v>
@@ -2913,10 +2910,10 @@
         <v>8</v>
       </c>
       <c r="M6" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2924,14 +2921,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="9">
         <f>F7+G7+H7+I7+J7+K7+L7+M7-N7</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
@@ -2941,7 +2938,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="9">
         <v>8</v>
@@ -2953,10 +2950,10 @@
         <v>8</v>
       </c>
       <c r="L7" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M7" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N7" s="9">
         <v>0</v>
@@ -2967,14 +2964,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D8" s="9">
         <f>F8+G8+H8+I8+J8+K8+L8+M8-N8</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
@@ -2984,62 +2981,62 @@
         <v>8</v>
       </c>
       <c r="H8" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" s="9">
         <v>8</v>
       </c>
-      <c r="J8" s="82">
-        <v>9</v>
+      <c r="J8" s="9">
+        <v>8</v>
       </c>
       <c r="K8" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L8" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8" s="9">
         <v>7</v>
       </c>
       <c r="N8" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>36</v>
+      <c r="B9" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="D9" s="9">
         <f>F9+G9+H9+I9+J9+K9+L9+M9-N9</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
         <v>10</v>
       </c>
       <c r="G9" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="9">
         <v>8</v>
       </c>
       <c r="I9" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K9" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M9" s="9">
         <v>7</v>
@@ -3053,42 +3050,42 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10" s="9">
         <f>F10+G10+H10+I10+J10+K10+L10+M10-N10</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G10" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
       </c>
       <c r="I10" s="9">
-        <v>7</v>
-      </c>
-      <c r="J10" s="9">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="J10" s="81">
+        <v>9</v>
       </c>
       <c r="K10" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10" s="9">
         <v>8</v>
       </c>
       <c r="M10" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3096,39 +3093,39 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9">
         <f>F11+G11+H11+I11+J11+K11+L11+M11-N11</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N11" s="9">
         <v>0</v>
@@ -3139,39 +3136,39 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D12" s="9">
         <f>F12+G12+H12+I12+J12+K12+L12+M12-N12</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L12" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M12" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N12" s="9">
         <v>0</v>
@@ -3181,40 +3178,40 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>69</v>
+      <c r="B13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="D13" s="9">
         <f>F13+G13+H13+I13+J13+K13+L13+M13-N13</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M13" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N13" s="9">
         <v>0</v>
@@ -3224,40 +3221,40 @@
       <c r="A14" s="37">
         <v>12</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>36</v>
+      <c r="B14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D14" s="11">
         <f>F14+G14+H14+I14+J14+K14+L14+M14-N14</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H14" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L14" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M14" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N14" s="11">
         <v>0</v>
@@ -3297,30 +3294,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3358,10 +3355,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="7">
@@ -3398,10 +3395,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
@@ -3438,10 +3435,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9">
@@ -3478,10 +3475,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="9">
@@ -3518,10 +3515,10 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="69" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="11">
@@ -3583,20 +3580,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4109,20 +4106,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -4303,29 +4300,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="70" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4360,10 +4357,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7">
@@ -4397,10 +4394,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>192</v>
       </c>
       <c r="D4" s="9">
@@ -4434,10 +4431,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="9">
@@ -4471,10 +4468,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="9">
@@ -4508,10 +4505,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>192</v>
       </c>
       <c r="D7" s="9">
@@ -4545,10 +4542,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="9">
@@ -4582,10 +4579,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="9">
@@ -4619,10 +4616,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="9">
@@ -4656,10 +4653,10 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="9">
@@ -4693,10 +4690,10 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="71" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="9">
@@ -4730,10 +4727,10 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="72" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="11">
@@ -4792,20 +4789,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5244,29 +5241,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="99" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5301,10 +5298,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -5336,10 +5333,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -5371,10 +5368,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="104"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5406,10 +5403,10 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5471,20 +5468,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5875,21 +5872,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="90"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6479,18 +6476,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6897,19 +6894,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7450,20 +7447,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7652,7 +7649,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="74"/>
+      <c r="B7" s="73"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L6">
@@ -7687,21 +7684,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7777,10 +7774,10 @@
       <c r="K3" s="7">
         <v>7</v>
       </c>
-      <c r="L3" s="75">
-        <v>8</v>
-      </c>
-      <c r="M3" s="78"/>
+      <c r="L3" s="74">
+        <v>8</v>
+      </c>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -7815,10 +7812,10 @@
       <c r="K4" s="9">
         <v>6</v>
       </c>
-      <c r="L4" s="76">
-        <v>7</v>
-      </c>
-      <c r="M4" s="79">
+      <c r="L4" s="75">
+        <v>7</v>
+      </c>
+      <c r="M4" s="78">
         <v>2</v>
       </c>
     </row>
@@ -7855,10 +7852,10 @@
       <c r="K5" s="9">
         <v>7</v>
       </c>
-      <c r="L5" s="76">
-        <v>7</v>
-      </c>
-      <c r="M5" s="79">
+      <c r="L5" s="75">
+        <v>7</v>
+      </c>
+      <c r="M5" s="78">
         <v>2</v>
       </c>
     </row>
@@ -7895,13 +7892,13 @@
       <c r="K6" s="11">
         <v>6</v>
       </c>
-      <c r="L6" s="77">
+      <c r="L6" s="76">
         <v>6</v>
       </c>
       <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="74"/>
+      <c r="B7" s="73"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M6">
@@ -7939,22 +7936,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7999,7 +7996,7 @@
       <c r="N2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -8042,7 +8039,7 @@
       <c r="M3" s="7">
         <v>7</v>
       </c>
-      <c r="N3" s="75">
+      <c r="N3" s="74">
         <v>7</v>
       </c>
       <c r="O3" s="64"/>
@@ -8086,7 +8083,7 @@
       <c r="M4" s="9">
         <v>7</v>
       </c>
-      <c r="N4" s="76">
+      <c r="N4" s="75">
         <v>8</v>
       </c>
       <c r="O4" s="62"/>
@@ -8115,7 +8112,7 @@
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="82">
+      <c r="I5" s="81">
         <v>7</v>
       </c>
       <c r="J5" s="9">
@@ -8130,7 +8127,7 @@
       <c r="M5" s="9">
         <v>7</v>
       </c>
-      <c r="N5" s="76">
+      <c r="N5" s="75">
         <v>7</v>
       </c>
       <c r="O5" s="62"/>
@@ -8174,7 +8171,7 @@
       <c r="M6" s="9">
         <v>8</v>
       </c>
-      <c r="N6" s="76">
+      <c r="N6" s="75">
         <v>7</v>
       </c>
       <c r="O6" s="62"/>
@@ -8218,10 +8215,10 @@
       <c r="M7" s="9">
         <v>7</v>
       </c>
-      <c r="N7" s="76">
-        <v>7</v>
-      </c>
-      <c r="O7" s="79">
+      <c r="N7" s="75">
+        <v>7</v>
+      </c>
+      <c r="O7" s="78">
         <v>2</v>
       </c>
     </row>
@@ -8264,7 +8261,7 @@
       <c r="M8" s="11">
         <v>7</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="76">
         <v>6</v>
       </c>
       <c r="O8" s="63"/>
@@ -8303,21 +8300,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8393,10 +8390,10 @@
       <c r="K3" s="7">
         <v>9</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="74">
         <v>10</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -8431,7 +8428,7 @@
       <c r="K4" s="9">
         <v>9</v>
       </c>
-      <c r="L4" s="76">
+      <c r="L4" s="75">
         <v>9</v>
       </c>
       <c r="M4" s="62"/>
@@ -8457,7 +8454,7 @@
       <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="81">
         <v>9</v>
       </c>
       <c r="I5" s="9">
@@ -8469,7 +8466,7 @@
       <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="76">
+      <c r="L5" s="75">
         <v>8</v>
       </c>
       <c r="M5" s="62"/>
@@ -8507,7 +8504,7 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="76">
+      <c r="L6" s="75">
         <v>8</v>
       </c>
       <c r="M6" s="62"/>
@@ -8545,7 +8542,7 @@
       <c r="K7" s="9">
         <v>9</v>
       </c>
-      <c r="L7" s="76">
+      <c r="L7" s="75">
         <v>8</v>
       </c>
       <c r="M7" s="62"/>
@@ -8583,7 +8580,7 @@
       <c r="K8" s="9">
         <v>7</v>
       </c>
-      <c r="L8" s="76">
+      <c r="L8" s="75">
         <v>8</v>
       </c>
       <c r="M8" s="62"/>
@@ -8621,7 +8618,7 @@
       <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="76">
+      <c r="L9" s="75">
         <v>8</v>
       </c>
       <c r="M9" s="62"/>
@@ -8659,7 +8656,7 @@
       <c r="K10" s="9">
         <v>7</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="75">
         <v>8</v>
       </c>
       <c r="M10" s="62"/>
@@ -8697,7 +8694,7 @@
       <c r="K11" s="9">
         <v>7</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="75">
         <v>7</v>
       </c>
       <c r="M11" s="62"/>
@@ -8735,7 +8732,7 @@
       <c r="K12" s="9">
         <v>7</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="75">
         <v>7</v>
       </c>
       <c r="M12" s="62"/>
@@ -8761,7 +8758,7 @@
       <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="81">
         <v>7</v>
       </c>
       <c r="I13" s="9">
@@ -8773,7 +8770,7 @@
       <c r="K13" s="9">
         <v>7</v>
       </c>
-      <c r="L13" s="76">
+      <c r="L13" s="75">
         <v>6</v>
       </c>
       <c r="M13" s="62"/>
@@ -8811,7 +8808,7 @@
       <c r="K14" s="9">
         <v>7</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="75">
         <v>6</v>
       </c>
       <c r="M14" s="62"/>
@@ -8837,7 +8834,7 @@
       <c r="G15" s="9">
         <v>7</v>
       </c>
-      <c r="H15" s="82">
+      <c r="H15" s="81">
         <v>7</v>
       </c>
       <c r="I15" s="9">
@@ -8849,10 +8846,10 @@
       <c r="K15" s="9">
         <v>7</v>
       </c>
-      <c r="L15" s="76">
-        <v>7</v>
-      </c>
-      <c r="M15" s="79">
+      <c r="L15" s="75">
+        <v>7</v>
+      </c>
+      <c r="M15" s="78">
         <v>2</v>
       </c>
     </row>
@@ -8889,7 +8886,7 @@
       <c r="K16" s="9">
         <v>7</v>
       </c>
-      <c r="L16" s="76">
+      <c r="L16" s="75">
         <v>7</v>
       </c>
       <c r="M16" s="62"/>
@@ -8927,7 +8924,7 @@
       <c r="K17" s="9">
         <v>6</v>
       </c>
-      <c r="L17" s="76">
+      <c r="L17" s="75">
         <v>7</v>
       </c>
       <c r="M17" s="62"/>
@@ -8946,7 +8943,7 @@
         <f>F18+G18+H18+I18+J18+K18+L18-M18</f>
         <v>40</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="11">
         <v>5</v>
       </c>
@@ -8965,10 +8962,10 @@
       <c r="K18" s="11">
         <v>6</v>
       </c>
-      <c r="L18" s="77">
-        <v>6</v>
-      </c>
-      <c r="M18" s="84">
+      <c r="L18" s="76">
+        <v>6</v>
+      </c>
+      <c r="M18" s="83">
         <v>2</v>
       </c>
     </row>
@@ -9005,20 +9002,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="91"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="90"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9128,7 +9125,7 @@
       <c r="K4" s="9">
         <v>7</v>
       </c>
-      <c r="L4" s="82">
+      <c r="L4" s="81">
         <v>8</v>
       </c>
     </row>
@@ -9313,21 +9310,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9366,7 +9363,7 @@
       <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="84" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9403,10 +9400,10 @@
       <c r="K3" s="7">
         <v>8</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="74">
         <v>9</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
@@ -9441,7 +9438,7 @@
       <c r="K4" s="35">
         <v>8</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="80">
         <v>8</v>
       </c>
       <c r="M4" s="62"/>
@@ -9479,10 +9476,10 @@
       <c r="K5" s="9">
         <v>9</v>
       </c>
-      <c r="L5" s="76">
-        <v>7</v>
-      </c>
-      <c r="M5" s="79">
+      <c r="L5" s="75">
+        <v>7</v>
+      </c>
+      <c r="M5" s="78">
         <v>2</v>
       </c>
     </row>
@@ -9519,7 +9516,7 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="76">
+      <c r="L6" s="75">
         <v>8</v>
       </c>
       <c r="M6" s="62"/>
@@ -9557,7 +9554,7 @@
       <c r="K7" s="11">
         <v>7</v>
       </c>
-      <c r="L7" s="77">
+      <c r="L7" s="76">
         <v>7</v>
       </c>
       <c r="M7" s="63"/>
@@ -9597,22 +9594,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9694,10 +9691,10 @@
       <c r="L3" s="7">
         <v>9</v>
       </c>
-      <c r="M3" s="75">
+      <c r="M3" s="74">
         <v>10</v>
       </c>
-      <c r="N3" s="78"/>
+      <c r="N3" s="77"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -9735,7 +9732,7 @@
       <c r="L4" s="9">
         <v>9</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="75">
         <v>9</v>
       </c>
       <c r="N4" s="62"/>
@@ -9776,7 +9773,7 @@
       <c r="L5" s="9">
         <v>10</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="75">
         <v>8</v>
       </c>
       <c r="N5" s="62"/>
@@ -9796,28 +9793,28 @@
         <v>67</v>
       </c>
       <c r="E6" s="62"/>
-      <c r="F6" s="79">
+      <c r="F6" s="78">
         <v>10</v>
       </c>
-      <c r="G6" s="79">
-        <v>8</v>
-      </c>
-      <c r="H6" s="79">
-        <v>8</v>
-      </c>
-      <c r="I6" s="79">
+      <c r="G6" s="78">
+        <v>8</v>
+      </c>
+      <c r="H6" s="78">
+        <v>8</v>
+      </c>
+      <c r="I6" s="78">
         <v>9</v>
       </c>
-      <c r="J6" s="79">
-        <v>8</v>
-      </c>
-      <c r="K6" s="79">
-        <v>8</v>
-      </c>
-      <c r="L6" s="79">
-        <v>8</v>
-      </c>
-      <c r="M6" s="87">
+      <c r="J6" s="78">
+        <v>8</v>
+      </c>
+      <c r="K6" s="78">
+        <v>8</v>
+      </c>
+      <c r="L6" s="78">
+        <v>8</v>
+      </c>
+      <c r="M6" s="86">
         <v>8</v>
       </c>
       <c r="N6" s="62"/>
@@ -9858,7 +9855,7 @@
       <c r="L7" s="9">
         <v>8</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="85">
         <v>9</v>
       </c>
       <c r="N7" s="62"/>
@@ -9899,7 +9896,7 @@
       <c r="L8" s="9">
         <v>9</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="75">
         <v>8</v>
       </c>
       <c r="N8" s="62"/>
@@ -9940,7 +9937,7 @@
       <c r="L9" s="9">
         <v>9</v>
       </c>
-      <c r="M9" s="86">
+      <c r="M9" s="85">
         <v>8</v>
       </c>
       <c r="N9" s="62"/>
@@ -9981,7 +9978,7 @@
       <c r="L10" s="11">
         <v>8</v>
       </c>
-      <c r="M10" s="77">
+      <c r="M10" s="76">
         <v>7</v>
       </c>
       <c r="N10" s="63"/>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5B733-2197-4658-A1DE-BA87A6BFF0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09227A-6970-407B-B067-6F1398B9BB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="6" activeTab="10" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09227A-6970-407B-B067-6F1398B9BB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E6720F-6E30-4D67-8002-7461A28ADA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="6" activeTab="10" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="11" activeTab="11" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="199">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -681,9 +681,6 @@
   </si>
   <si>
     <t>KATRINA GIMON</t>
-  </si>
-  <si>
-    <t>LA KLAVE</t>
   </si>
   <si>
     <t>SOFIA GUTIERREZ</t>
@@ -969,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1442,11 +1439,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,9 +1507,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1516,18 +1521,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1555,28 +1548,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1694,6 +1666,12 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1745,11 +1723,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2082,18 +2072,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2163,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -2194,10 +2184,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:J5)</f>
@@ -2225,10 +2215,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:J6)</f>
@@ -2286,22 +2276,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2344,21 +2334,21 @@
         <v>8</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="7">
-        <f>F3+G3+H3+I3+J3+M3+K3+L3-N3</f>
+        <f t="shared" ref="D3:D9" si="0">F3+G3+H3+I3+J3+M3+K3+L3-N3</f>
         <v>61</v>
       </c>
       <c r="E3" s="7"/>
@@ -2394,14 +2384,14 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
-        <f>F4+G4+H4+I4+J4+M4+K4+L4-N4</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E4" s="9"/>
@@ -2411,7 +2401,7 @@
       <c r="G4" s="9">
         <v>7</v>
       </c>
-      <c r="H4" s="81">
+      <c r="H4" s="69">
         <v>7</v>
       </c>
       <c r="I4" s="9">
@@ -2437,14 +2427,14 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="9">
-        <f>F5+G5+H5+I5+J5+M5+K5+L5-N5</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E5" s="9"/>
@@ -2480,14 +2470,14 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="56" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="9">
-        <f>F6+G6+H6+I6+J6+M6+K6+L6-N6</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="E6" s="9"/>
@@ -2523,14 +2513,14 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="9">
-        <f>F7+G7+H7+I7+J7+M7+K7+L7-N7</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E7" s="9"/>
@@ -2566,14 +2556,14 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="9">
-        <f>F8+G8+H8+I8+J8+M8+K8+L8-N8</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="E8" s="9"/>
@@ -2609,14 +2599,14 @@
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="57" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="11">
-        <f>F9+G9+H9+I9+J9+M9+K9+L9-N9</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E9" s="11"/>
@@ -2664,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453C5705-CF6D-405F-9DAE-52D79583766A}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2683,112 +2673,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="79" t="s">
+      <c r="G2" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="79" t="s">
-        <v>196</v>
+      <c r="M2" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="67" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="35">
-        <f>F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
+      <c r="D3" s="30">
+        <f t="shared" ref="D3:D14" si="0">F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
         <v>70</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30">
         <v>10</v>
       </c>
-      <c r="G3" s="35">
-        <v>8</v>
-      </c>
-      <c r="H3" s="35">
-        <v>8</v>
-      </c>
-      <c r="I3" s="35">
+      <c r="G3" s="30">
+        <v>8</v>
+      </c>
+      <c r="H3" s="30">
+        <v>8</v>
+      </c>
+      <c r="I3" s="30">
         <v>10</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="30">
         <v>10</v>
       </c>
-      <c r="K3" s="35">
-        <v>8</v>
-      </c>
-      <c r="L3" s="35">
-        <v>7</v>
-      </c>
-      <c r="M3" s="35">
+      <c r="K3" s="30">
+        <v>8</v>
+      </c>
+      <c r="L3" s="30">
+        <v>7</v>
+      </c>
+      <c r="M3" s="30">
         <v>9</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2798,7 +2788,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="7">
-        <f>F4+G4+H4+I4+J4+K4+L4+M4-N4</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="E4" s="7"/>
@@ -2811,7 +2801,7 @@
       <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="75">
         <v>9</v>
       </c>
       <c r="J4" s="7">
@@ -2834,14 +2824,14 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="9">
-        <f>F5+G5+H5+I5+J5+K5+L5+M5-N5</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="E5" s="9"/>
@@ -2874,7 +2864,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="29">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2884,7 +2874,7 @@
         <v>47</v>
       </c>
       <c r="D6" s="9">
-        <f>F6+G6+H6+I6+J6+K6+L6+M6-N6</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E6" s="9"/>
@@ -2900,7 +2890,7 @@
       <c r="I6" s="9">
         <v>9</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="69">
         <v>9</v>
       </c>
       <c r="K6" s="9">
@@ -2927,7 +2917,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="9">
-        <f>F7+G7+H7+I7+J7+K7+L7+M7-N7</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E7" s="9"/>
@@ -2960,7 +2950,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="29">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2970,7 +2960,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="9">
-        <f>F8+G8+H8+I8+J8+K8+L8+M8-N8</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="E8" s="9"/>
@@ -3006,14 +2996,14 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="9">
-        <f>F9+G9+H9+I9+J9+K9+L9+M9-N9</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E9" s="9"/>
@@ -3046,7 +3036,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="29">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -3056,7 +3046,7 @@
         <v>85</v>
       </c>
       <c r="D10" s="9">
-        <f>F10+G10+H10+I10+J10+K10+L10+M10-N10</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="E10" s="9"/>
@@ -3072,7 +3062,7 @@
       <c r="I10" s="9">
         <v>8</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="69">
         <v>9</v>
       </c>
       <c r="K10" s="9">
@@ -3099,7 +3089,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="9">
-        <f>F11+G11+H11+I11+J11+K11+L11+M11-N11</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="E11" s="9"/>
@@ -3132,7 +3122,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="29">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3142,7 +3132,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="9">
-        <f>F12+G12+H12+I12+J12+K12+L12+M12-N12</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="E12" s="9"/>
@@ -3185,7 +3175,7 @@
         <v>83</v>
       </c>
       <c r="D13" s="9">
-        <f>F13+G13+H13+I13+J13+K13+L13+M13-N13</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="E13" s="9"/>
@@ -3218,7 +3208,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37">
+      <c r="A14" s="32">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3228,7 +3218,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="11">
-        <f>F14+G14+H14+I14+J14+K14+L14+M14-N14</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="E14" s="11"/>
@@ -3274,50 +3264,361 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB0B8C-5748-4965-8F02-4BA9CCB48CA3}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+    </row>
+    <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7">
+        <f>F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D7" si="0">F4+G4+H4+I4+J4+K4+L4+M4-N4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430099C8-7B15-44A4-94B7-5BE7B3D2596D}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="90"/>
+      <c r="A1" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3333,36 +3634,36 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="7">
-        <f>SUM(F3:M3)</f>
+      <c r="B3" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="15">
+        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -3392,17 +3693,17 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D7" si="0">SUM(F4:M4)</f>
+      <c r="B4" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D14" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -3432,16 +3733,16 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3472,16 +3773,16 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3511,43 +3812,323 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="B7" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
         <v>0</v>
       </c>
     </row>
@@ -3559,618 +4140,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430099C8-7B15-44A4-94B7-5BE7B3D2596D}">
-  <dimension ref="A1:L14"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="15">
-        <f t="shared" ref="D3:D13" si="0">SUM(F3:L3)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="17">
-        <f t="shared" ref="D14" si="1">SUM(F14:L14)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6972AB4-548C-46E5-AFA4-85F08BF384BD}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="90"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>193</v>
+      <c r="C3" s="47" t="s">
+        <v>192</v>
       </c>
       <c r="D3" s="7">
-        <f>SUM(F3:L3)</f>
+        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -4195,19 +4257,22 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>193</v>
+      <c r="C4" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="D4" s="9">
-        <f>SUM(F4:L4)</f>
+        <f t="shared" ref="D4:D5" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4232,19 +4297,22 @@
       <c r="L4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>193</v>
+      <c r="C5" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ref="D5" si="0">SUM(F5:L5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
@@ -4269,10 +4337,13 @@
       <c r="L5" s="11">
         <v>0</v>
       </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4280,49 +4351,52 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB712281-00E1-4FDC-A84D-5C48720B0CEB}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="90"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4341,30 +4415,33 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D13" si="0">SUM(F3:L3)</f>
+        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -4389,19 +4466,22 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>192</v>
+      <c r="C4" s="56" t="s">
+        <v>191</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D13" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4426,15 +4506,18 @@
       <c r="L4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="56" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="9">
@@ -4463,15 +4546,18 @@
       <c r="L5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="9">
@@ -4500,16 +4586,19 @@
       <c r="L6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>192</v>
+      <c r="C7" s="56" t="s">
+        <v>191</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -4537,15 +4626,18 @@
       <c r="L7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="56" t="s">
         <v>111</v>
       </c>
       <c r="D8" s="9">
@@ -4574,15 +4666,18 @@
       <c r="L8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="56" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="9">
@@ -4611,15 +4706,18 @@
       <c r="L9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="9">
@@ -4648,15 +4746,18 @@
       <c r="L10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="9">
@@ -4685,15 +4786,18 @@
       <c r="L11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="71" t="s">
+      <c r="B12" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="9">
@@ -4722,16 +4826,19 @@
       <c r="L12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>36</v>
+      <c r="B13" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
@@ -4759,10 +4866,13 @@
       <c r="L13" s="11">
         <v>0</v>
       </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4770,48 +4880,51 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D675C796-FBE0-4A3C-AE52-1F243CD1E14C}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="90"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4830,30 +4943,33 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="M2" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D12" si="0">SUM(F3:L3)</f>
+        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -4878,19 +4994,22 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D12" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4915,15 +5034,18 @@
       <c r="L4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="9">
@@ -4952,15 +5074,18 @@
       <c r="L5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="9">
@@ -4989,15 +5114,18 @@
       <c r="L6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="9">
@@ -5026,15 +5154,18 @@
       <c r="L7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="9">
@@ -5063,15 +5194,18 @@
       <c r="L8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D9" s="9">
@@ -5100,15 +5234,18 @@
       <c r="L9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="9">
@@ -5137,15 +5274,18 @@
       <c r="L10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D11" s="9">
@@ -5174,15 +5314,18 @@
       <c r="L11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="11">
@@ -5211,10 +5354,13 @@
       <c r="L12" s="11">
         <v>0</v>
       </c>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5222,10 +5368,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B102081-BF9F-4B39-A50E-B8B2CCBD6642}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D2" sqref="D2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5240,30 +5386,30 @@
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="89" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5282,10 +5428,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>32</v>
@@ -5293,15 +5439,18 @@
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
         <v>0</v>
@@ -5329,14 +5478,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="103"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
         <v>0</v>
@@ -5364,14 +5513,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="103"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5399,14 +5548,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="97"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5449,10 +5598,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394F48B-B19C-45C2-AECE-BC9AD5D4CB9B}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5467,23 +5616,23 @@
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="90"/>
-    </row>
-    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="80"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5509,23 +5658,26 @@
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -5558,11 +5710,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="24" t="s">
         <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5595,12 +5747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>179</v>
+      <c r="B5" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>132</v>
@@ -5615,12 +5767,12 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>191</v>
+      <c r="B6" s="31" t="s">
+        <v>190</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>131</v>
@@ -5652,11 +5804,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="25" t="s">
         <v>133</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -5689,11 +5841,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="25" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -5726,15 +5878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="25" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -5763,12 +5915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>178</v>
+      <c r="B10" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>132</v>
@@ -5800,12 +5952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>137</v>
+      <c r="B11" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>67</v>
@@ -5838,7 +5990,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="8"/>
     </row>
   </sheetData>
@@ -5851,10 +6003,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDEA901-26C0-41C5-B438-AE40E4689819}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5871,31 +6023,31 @@
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="90"/>
-    </row>
-    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="80"/>
+    </row>
+    <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5911,32 +6063,35 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7">
@@ -5969,14 +6124,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="9">
@@ -6009,14 +6164,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9">
@@ -6049,15 +6204,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>40</v>
+      <c r="B6" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
@@ -6089,14 +6244,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="9">
@@ -6129,15 +6284,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
+      <c r="B8" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -6169,14 +6324,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="9">
@@ -6209,15 +6364,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>187</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ref="D10:D11" si="1">SUM(F10:M10)</f>
@@ -6249,15 +6404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>183</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="1"/>
@@ -6289,14 +6444,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="B12" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="9">
@@ -6329,14 +6484,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="9">
@@ -6369,15 +6524,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>136</v>
+      <c r="B14" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>116</v>
       </c>
       <c r="D14" s="9">
         <f>SUM(F14:M14)</f>
@@ -6409,15 +6564,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>40</v>
+      <c r="B15" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>69</v>
       </c>
       <c r="D15" s="11">
         <f>SUM(F15:M15)</f>
@@ -6476,18 +6631,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6528,7 +6683,7 @@
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="15">
@@ -6559,7 +6714,7 @@
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="16">
@@ -6590,10 +6745,10 @@
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="27">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -6621,7 +6776,7 @@
       <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="25" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="16">
@@ -6650,9 +6805,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="16">
@@ -6683,7 +6838,7 @@
       <c r="B8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="16">
@@ -6714,7 +6869,7 @@
       <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="16">
@@ -6745,7 +6900,7 @@
       <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="16">
@@ -6776,7 +6931,7 @@
       <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="16">
@@ -6807,7 +6962,7 @@
       <c r="B12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="16">
@@ -6838,7 +6993,7 @@
       <c r="B13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="26" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="17">
@@ -6876,39 +7031,42 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB67CF2-EE9A-43D1-97E0-98D4A8CEBB5B}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="90"/>
-    </row>
-    <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="80"/>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6928,10 +7086,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>8</v>
@@ -6942,8 +7100,11 @@
       <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6954,7 +7115,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D16" si="0">SUM(F3:K3)</f>
+        <f>SUM(F3:K3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -6977,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -6988,7 +7149,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F4:K4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -7011,7 +7172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -7022,7 +7183,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F5:K5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -7045,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -7056,7 +7217,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F6:K6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -7079,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -7090,7 +7251,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F7:K7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -7113,18 +7274,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F8:K8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -7147,18 +7308,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F9:K9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -7181,18 +7342,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F10:K10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -7215,18 +7376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F11:K11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -7249,18 +7410,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>150</v>
+      <c r="C12" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="D12" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F12:K12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -7283,18 +7444,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F13:K13)</f>
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -7317,18 +7478,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F14:K14)</f>
         <v>0</v>
       </c>
       <c r="E14" s="9"/>
@@ -7351,18 +7512,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(F15:K15)</f>
         <v>0</v>
       </c>
       <c r="E15" s="9"/>
@@ -7385,18 +7546,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" si="0"/>
+        <f>SUM(F16:K16)</f>
         <v>0</v>
       </c>
       <c r="E16" s="11"/>
@@ -7447,30 +7608,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>193</v>
+      <c r="C2" s="42" t="s">
+        <v>192</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -7504,11 +7665,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>193</v>
+      <c r="C3" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -7541,11 +7702,11 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>193</v>
+      <c r="C4" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="D4" s="9">
         <f>SUM(F4:L4)</f>
@@ -7578,11 +7739,11 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>193</v>
+      <c r="C5" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:L5)</f>
@@ -7615,11 +7776,11 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>193</v>
+      <c r="C6" s="34" t="s">
+        <v>192</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:L6)</f>
@@ -7649,7 +7810,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="73"/>
+      <c r="B7" s="61"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L6">
@@ -7684,33 +7845,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="C2" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -7738,18 +7899,18 @@
         <v>9</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>193</v>
+      <c r="C3" s="47" t="s">
+        <v>192</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -7774,20 +7935,20 @@
       <c r="K3" s="7">
         <v>7</v>
       </c>
-      <c r="L3" s="74">
-        <v>8</v>
-      </c>
-      <c r="M3" s="77"/>
+      <c r="L3" s="62">
+        <v>8</v>
+      </c>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>193</v>
+      <c r="C4" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="D4" s="16">
         <f>F4+G4+H4+I4+J4+K4+L4-M4</f>
@@ -7812,10 +7973,10 @@
       <c r="K4" s="9">
         <v>6</v>
       </c>
-      <c r="L4" s="75">
-        <v>7</v>
-      </c>
-      <c r="M4" s="78">
+      <c r="L4" s="63">
+        <v>7</v>
+      </c>
+      <c r="M4" s="66">
         <v>2</v>
       </c>
     </row>
@@ -7823,11 +7984,11 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>193</v>
+      <c r="C5" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
@@ -7852,10 +8013,10 @@
       <c r="K5" s="9">
         <v>7</v>
       </c>
-      <c r="L5" s="75">
-        <v>7</v>
-      </c>
-      <c r="M5" s="78">
+      <c r="L5" s="63">
+        <v>7</v>
+      </c>
+      <c r="M5" s="66">
         <v>2</v>
       </c>
     </row>
@@ -7863,11 +8024,11 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>192</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>193</v>
       </c>
       <c r="D6" s="17">
         <f>SUM(F6:L6)</f>
@@ -7892,13 +8053,13 @@
       <c r="K6" s="11">
         <v>6</v>
       </c>
-      <c r="L6" s="76">
-        <v>6</v>
-      </c>
-      <c r="M6" s="62"/>
+      <c r="L6" s="64">
+        <v>6</v>
+      </c>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="73"/>
+      <c r="B7" s="61"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M6">
@@ -7936,22 +8097,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7993,11 +8154,11 @@
       <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="53" t="s">
+      <c r="N2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="79" t="s">
-        <v>196</v>
+      <c r="O2" s="67" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -8007,7 +8168,7 @@
       <c r="B3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="15">
@@ -8039,10 +8200,10 @@
       <c r="M3" s="7">
         <v>7</v>
       </c>
-      <c r="N3" s="74">
-        <v>7</v>
-      </c>
-      <c r="O3" s="64"/>
+      <c r="N3" s="62">
+        <v>7</v>
+      </c>
+      <c r="O3" s="52"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -8051,7 +8212,7 @@
       <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
@@ -8083,10 +8244,10 @@
       <c r="M4" s="9">
         <v>7</v>
       </c>
-      <c r="N4" s="75">
-        <v>8</v>
-      </c>
-      <c r="O4" s="62"/>
+      <c r="N4" s="63">
+        <v>8</v>
+      </c>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -8095,7 +8256,7 @@
       <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="16">
@@ -8112,7 +8273,7 @@
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="69">
         <v>7</v>
       </c>
       <c r="J5" s="9">
@@ -8127,19 +8288,19 @@
       <c r="M5" s="9">
         <v>7</v>
       </c>
-      <c r="N5" s="75">
-        <v>7</v>
-      </c>
-      <c r="O5" s="62"/>
+      <c r="N5" s="63">
+        <v>7</v>
+      </c>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="16">
@@ -8171,10 +8332,10 @@
       <c r="M6" s="9">
         <v>8</v>
       </c>
-      <c r="N6" s="75">
-        <v>7</v>
-      </c>
-      <c r="O6" s="62"/>
+      <c r="N6" s="63">
+        <v>7</v>
+      </c>
+      <c r="O6" s="50"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -8183,7 +8344,7 @@
       <c r="B7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="16">
@@ -8215,10 +8376,10 @@
       <c r="M7" s="9">
         <v>7</v>
       </c>
-      <c r="N7" s="75">
-        <v>7</v>
-      </c>
-      <c r="O7" s="78">
+      <c r="N7" s="63">
+        <v>7</v>
+      </c>
+      <c r="O7" s="66">
         <v>2</v>
       </c>
     </row>
@@ -8229,7 +8390,7 @@
       <c r="B8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="17">
@@ -8261,10 +8422,10 @@
       <c r="M8" s="11">
         <v>7</v>
       </c>
-      <c r="N8" s="76">
-        <v>6</v>
-      </c>
-      <c r="O8" s="63"/>
+      <c r="N8" s="64">
+        <v>6</v>
+      </c>
+      <c r="O8" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O8">
@@ -8300,21 +8461,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8354,7 +8515,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8364,14 +8525,14 @@
       <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D14" si="0">SUM(F3:L3)</f>
         <v>65</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="7">
         <v>10</v>
       </c>
@@ -8390,26 +8551,26 @@
       <c r="K3" s="7">
         <v>9</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="62">
         <v>10</v>
       </c>
-      <c r="M3" s="77"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="9">
         <v>10</v>
       </c>
@@ -8428,10 +8589,10 @@
       <c r="K4" s="9">
         <v>9</v>
       </c>
-      <c r="L4" s="75">
+      <c r="L4" s="63">
         <v>9</v>
       </c>
-      <c r="M4" s="62"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -8440,21 +8601,21 @@
       <c r="B5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="9">
         <v>10</v>
       </c>
       <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="69">
         <v>9</v>
       </c>
       <c r="I5" s="9">
@@ -8466,26 +8627,26 @@
       <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="75">
-        <v>8</v>
-      </c>
-      <c r="M5" s="62"/>
+      <c r="L5" s="63">
+        <v>8</v>
+      </c>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="9">
         <v>10</v>
       </c>
@@ -8504,10 +8665,10 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="75">
-        <v>8</v>
-      </c>
-      <c r="M6" s="62"/>
+      <c r="L6" s="63">
+        <v>8</v>
+      </c>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -8516,14 +8677,14 @@
       <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="9">
         <v>10</v>
       </c>
@@ -8542,10 +8703,10 @@
       <c r="K7" s="9">
         <v>9</v>
       </c>
-      <c r="L7" s="75">
-        <v>8</v>
-      </c>
-      <c r="M7" s="62"/>
+      <c r="L7" s="63">
+        <v>8</v>
+      </c>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -8554,14 +8715,14 @@
       <c r="B8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="9">
         <v>10</v>
       </c>
@@ -8580,26 +8741,26 @@
       <c r="K8" s="9">
         <v>7</v>
       </c>
-      <c r="L8" s="75">
-        <v>8</v>
-      </c>
-      <c r="M8" s="62"/>
+      <c r="L8" s="63">
+        <v>8</v>
+      </c>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="9">
         <v>10</v>
       </c>
@@ -8618,10 +8779,10 @@
       <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="75">
-        <v>8</v>
-      </c>
-      <c r="M9" s="62"/>
+      <c r="L9" s="63">
+        <v>8</v>
+      </c>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -8630,14 +8791,14 @@
       <c r="B10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="9">
         <v>5</v>
       </c>
@@ -8656,26 +8817,26 @@
       <c r="K10" s="9">
         <v>7</v>
       </c>
-      <c r="L10" s="75">
-        <v>8</v>
-      </c>
-      <c r="M10" s="62"/>
+      <c r="L10" s="63">
+        <v>8</v>
+      </c>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="9">
         <v>5</v>
       </c>
@@ -8694,26 +8855,26 @@
       <c r="K11" s="9">
         <v>7</v>
       </c>
-      <c r="L11" s="75">
-        <v>7</v>
-      </c>
-      <c r="M11" s="62"/>
+      <c r="L11" s="63">
+        <v>7</v>
+      </c>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9">
         <v>5</v>
       </c>
@@ -8732,33 +8893,33 @@
       <c r="K12" s="9">
         <v>7</v>
       </c>
-      <c r="L12" s="75">
-        <v>7</v>
-      </c>
-      <c r="M12" s="62"/>
+      <c r="L12" s="63">
+        <v>7</v>
+      </c>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
       <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="81">
+      <c r="H13" s="69">
         <v>7</v>
       </c>
       <c r="I13" s="9">
@@ -8770,26 +8931,26 @@
       <c r="K13" s="9">
         <v>7</v>
       </c>
-      <c r="L13" s="75">
-        <v>6</v>
-      </c>
-      <c r="M13" s="62"/>
+      <c r="L13" s="63">
+        <v>6</v>
+      </c>
+      <c r="M13" s="50"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="9">
         <v>5</v>
       </c>
@@ -8808,33 +8969,33 @@
       <c r="K14" s="9">
         <v>7</v>
       </c>
-      <c r="L14" s="75">
-        <v>6</v>
-      </c>
-      <c r="M14" s="62"/>
+      <c r="L14" s="63">
+        <v>6</v>
+      </c>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="D15" s="16">
         <f>F15+G15+H15+I15+J15+K15+L15-M15</f>
         <v>44</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="9">
         <v>5</v>
       </c>
       <c r="G15" s="9">
         <v>7</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="69">
         <v>7</v>
       </c>
       <c r="I15" s="9">
@@ -8846,10 +9007,10 @@
       <c r="K15" s="9">
         <v>7</v>
       </c>
-      <c r="L15" s="75">
-        <v>7</v>
-      </c>
-      <c r="M15" s="78">
+      <c r="L15" s="63">
+        <v>7</v>
+      </c>
+      <c r="M15" s="66">
         <v>2</v>
       </c>
     </row>
@@ -8857,17 +9018,17 @@
       <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="44" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="16">
         <f>SUM(F16:L16)</f>
         <v>44</v>
       </c>
-      <c r="E16" s="22"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="9">
         <v>5</v>
       </c>
@@ -8886,10 +9047,10 @@
       <c r="K16" s="9">
         <v>7</v>
       </c>
-      <c r="L16" s="75">
-        <v>7</v>
-      </c>
-      <c r="M16" s="62"/>
+      <c r="L16" s="63">
+        <v>7</v>
+      </c>
+      <c r="M16" s="50"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -8898,14 +9059,14 @@
       <c r="B17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="16">
         <f>SUM(F17:L17)</f>
         <v>43</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="9">
         <v>5</v>
       </c>
@@ -8924,10 +9085,10 @@
       <c r="K17" s="9">
         <v>6</v>
       </c>
-      <c r="L17" s="75">
-        <v>7</v>
-      </c>
-      <c r="M17" s="62"/>
+      <c r="L17" s="63">
+        <v>7</v>
+      </c>
+      <c r="M17" s="50"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
@@ -8936,14 +9097,14 @@
       <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="26" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="17">
         <f>F18+G18+H18+I18+J18+K18+L18-M18</f>
         <v>40</v>
       </c>
-      <c r="E18" s="82"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="11">
         <v>5</v>
       </c>
@@ -8962,10 +9123,10 @@
       <c r="K18" s="11">
         <v>6</v>
       </c>
-      <c r="L18" s="76">
-        <v>6</v>
-      </c>
-      <c r="M18" s="83">
+      <c r="L18" s="64">
+        <v>6</v>
+      </c>
+      <c r="M18" s="71">
         <v>2</v>
       </c>
     </row>
@@ -9002,20 +9163,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="90"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9062,7 +9223,7 @@
       <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="24" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="15">
@@ -9099,7 +9260,7 @@
       <c r="B4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="16">
@@ -9125,7 +9286,7 @@
       <c r="K4" s="9">
         <v>7</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="69">
         <v>8</v>
       </c>
     </row>
@@ -9136,7 +9297,7 @@
       <c r="B5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="16">
@@ -9171,10 +9332,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="30" t="s">
         <v>184</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
@@ -9210,7 +9371,7 @@
       <c r="B7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="16">
@@ -9247,7 +9408,7 @@
       <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="17">
@@ -9310,31 +9471,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>193</v>
+      <c r="C2" s="46" t="s">
+        <v>192</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -9363,19 +9524,19 @@
       <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="84" t="s">
-        <v>196</v>
+      <c r="M2" s="72" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>193</v>
+      <c r="C3" s="47" t="s">
+        <v>192</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -9400,58 +9561,58 @@
       <c r="K3" s="7">
         <v>8</v>
       </c>
-      <c r="L3" s="74">
+      <c r="L3" s="62">
         <v>9</v>
       </c>
-      <c r="M3" s="77"/>
+      <c r="M3" s="65"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="57">
+      <c r="C4" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="45">
         <f>SUM(F4:L4)</f>
         <v>57</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30">
         <v>10</v>
       </c>
-      <c r="G4" s="35">
-        <v>8</v>
-      </c>
-      <c r="H4" s="35">
-        <v>8</v>
-      </c>
-      <c r="I4" s="35">
-        <v>8</v>
-      </c>
-      <c r="J4" s="35">
-        <v>7</v>
-      </c>
-      <c r="K4" s="35">
-        <v>8</v>
-      </c>
-      <c r="L4" s="80">
-        <v>8</v>
-      </c>
-      <c r="M4" s="62"/>
+      <c r="G4" s="30">
+        <v>8</v>
+      </c>
+      <c r="H4" s="30">
+        <v>8</v>
+      </c>
+      <c r="I4" s="30">
+        <v>8</v>
+      </c>
+      <c r="J4" s="30">
+        <v>7</v>
+      </c>
+      <c r="K4" s="30">
+        <v>8</v>
+      </c>
+      <c r="L4" s="68">
+        <v>8</v>
+      </c>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>193</v>
+      <c r="C5" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
@@ -9476,10 +9637,10 @@
       <c r="K5" s="9">
         <v>9</v>
       </c>
-      <c r="L5" s="75">
-        <v>7</v>
-      </c>
-      <c r="M5" s="78">
+      <c r="L5" s="63">
+        <v>7</v>
+      </c>
+      <c r="M5" s="66">
         <v>2</v>
       </c>
     </row>
@@ -9487,11 +9648,11 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="60" t="s">
-        <v>193</v>
+      <c r="C6" s="48" t="s">
+        <v>192</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
@@ -9516,20 +9677,20 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="75">
-        <v>8</v>
-      </c>
-      <c r="M6" s="62"/>
+      <c r="L6" s="63">
+        <v>8</v>
+      </c>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>193</v>
+      <c r="B7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="D7" s="17">
         <f>SUM(F7:L7)</f>
@@ -9554,10 +9715,10 @@
       <c r="K7" s="11">
         <v>7</v>
       </c>
-      <c r="L7" s="76">
-        <v>7</v>
-      </c>
-      <c r="M7" s="63"/>
+      <c r="L7" s="64">
+        <v>7</v>
+      </c>
+      <c r="M7" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M7">
@@ -9594,22 +9755,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9652,7 +9813,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -9660,9 +9821,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="15">
@@ -9691,19 +9852,19 @@
       <c r="L3" s="7">
         <v>9</v>
       </c>
-      <c r="M3" s="74">
+      <c r="M3" s="62">
         <v>10</v>
       </c>
-      <c r="N3" s="77"/>
+      <c r="N3" s="65"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="16">
@@ -9732,19 +9893,19 @@
       <c r="L4" s="9">
         <v>9</v>
       </c>
-      <c r="M4" s="75">
+      <c r="M4" s="63">
         <v>9</v>
       </c>
-      <c r="N4" s="62"/>
+      <c r="N4" s="50"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="16">
@@ -9773,60 +9934,60 @@
       <c r="L5" s="9">
         <v>10</v>
       </c>
-      <c r="M5" s="75">
-        <v>8</v>
-      </c>
-      <c r="N5" s="62"/>
+      <c r="M5" s="63">
+        <v>8</v>
+      </c>
+      <c r="N5" s="50"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="78">
+      <c r="E6" s="50"/>
+      <c r="F6" s="66">
         <v>10</v>
       </c>
-      <c r="G6" s="78">
-        <v>8</v>
-      </c>
-      <c r="H6" s="78">
-        <v>8</v>
-      </c>
-      <c r="I6" s="78">
+      <c r="G6" s="66">
+        <v>8</v>
+      </c>
+      <c r="H6" s="66">
+        <v>8</v>
+      </c>
+      <c r="I6" s="66">
         <v>9</v>
       </c>
-      <c r="J6" s="78">
-        <v>8</v>
-      </c>
-      <c r="K6" s="78">
-        <v>8</v>
-      </c>
-      <c r="L6" s="78">
-        <v>8</v>
-      </c>
-      <c r="M6" s="86">
-        <v>8</v>
-      </c>
-      <c r="N6" s="62"/>
+      <c r="J6" s="66">
+        <v>8</v>
+      </c>
+      <c r="K6" s="66">
+        <v>8</v>
+      </c>
+      <c r="L6" s="66">
+        <v>8</v>
+      </c>
+      <c r="M6" s="74">
+        <v>8</v>
+      </c>
+      <c r="N6" s="50"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="16">
@@ -9855,19 +10016,19 @@
       <c r="L7" s="9">
         <v>8</v>
       </c>
-      <c r="M7" s="85">
+      <c r="M7" s="73">
         <v>9</v>
       </c>
-      <c r="N7" s="62"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="16">
@@ -9896,19 +10057,19 @@
       <c r="L8" s="9">
         <v>9</v>
       </c>
-      <c r="M8" s="75">
-        <v>8</v>
-      </c>
-      <c r="N8" s="62"/>
+      <c r="M8" s="63">
+        <v>8</v>
+      </c>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="16">
@@ -9937,19 +10098,19 @@
       <c r="L9" s="9">
         <v>9</v>
       </c>
-      <c r="M9" s="85">
-        <v>8</v>
-      </c>
-      <c r="N9" s="62"/>
+      <c r="M9" s="73">
+        <v>8</v>
+      </c>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55">
+      <c r="A10" s="43">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="17">
@@ -9978,10 +10139,10 @@
       <c r="L10" s="11">
         <v>8</v>
       </c>
-      <c r="M10" s="76">
-        <v>7</v>
-      </c>
-      <c r="N10" s="63"/>
+      <c r="M10" s="64">
+        <v>7</v>
+      </c>
+      <c r="N10" s="51"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N10">

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E6720F-6E30-4D67-8002-7461A28ADA84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75D87FF-7250-4513-8E3E-33D4C4D99D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="11" activeTab="11" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="11" activeTab="13" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="199">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -966,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1215,96 +1215,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1450,11 +1360,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1513,13 +1443,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1536,16 +1466,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1584,7 +1514,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1601,11 +1531,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1642,16 +1572,16 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1669,7 +1599,7 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1678,7 +1608,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1687,7 +1617,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,50 +1626,53 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3266,8 +3199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB0B8C-5748-4965-8F02-4BA9CCB48CA3}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3332,16 +3265,16 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>195</v>
@@ -3352,39 +3285,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C3" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="7">
-        <f>F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
-        <v>0</v>
+        <f>F3+G3+H3+I3+L3+M3+J3+K3-N3</f>
+        <v>73</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
@@ -3395,39 +3328,39 @@
         <v>2</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D7" si="0">F4+G4+H4+I4+J4+K4+L4+M4-N4</f>
-        <v>0</v>
+        <f>F4+G4+H4+I4+L4+M4+J4+K4-N4</f>
+        <v>71</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="9">
         <v>0</v>
@@ -3438,39 +3371,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F5+G5+H5+I5+L5+M5+J5+K5-N5</f>
+        <v>61</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5" s="9">
         <v>0</v>
@@ -3481,39 +3414,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F6+G6+H6+I6+L6+M6+J6+K6-N6</f>
+        <v>52</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N6" s="9">
         <v>0</v>
@@ -3524,45 +3457,48 @@
         <v>5</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F7+G7+H7+I7+L7+M7+J7+K7-N7</f>
+        <v>48</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11">
         <v>0</v>
       </c>
       <c r="G7" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L7" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N7" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N7">
+    <sortCondition descending="1" ref="D3:D7"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
@@ -3575,7 +3511,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,7 +3525,7 @@
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3611,449 +3547,449 @@
       <c r="L1" s="85"/>
       <c r="M1" s="85"/>
     </row>
-    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="G2" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="67" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="15">
-        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7">
+        <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
+        <v>69</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="100">
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="9">
+        <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
+        <v>69</v>
+      </c>
+      <c r="E4" s="99"/>
+      <c r="F4" s="9">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="9">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9">
+        <v>10</v>
+      </c>
+      <c r="L4" s="9">
+        <v>10</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="30">
+        <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
+        <v>63</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="30">
+        <v>10</v>
+      </c>
+      <c r="G5" s="30">
+        <v>9</v>
+      </c>
+      <c r="H5" s="30">
+        <v>9</v>
+      </c>
+      <c r="I5" s="98">
+        <v>10</v>
+      </c>
+      <c r="J5" s="30">
+        <v>9</v>
+      </c>
+      <c r="K5" s="30">
+        <v>8</v>
+      </c>
+      <c r="L5" s="30">
+        <v>8</v>
+      </c>
+      <c r="M5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9">
+        <f>F6+G6+H6+I6+K6+L6+J6-M6</f>
+        <v>63</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9">
+        <v>9</v>
+      </c>
+      <c r="H6" s="9">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9">
+        <v>10</v>
+      </c>
+      <c r="K6" s="9">
+        <v>8</v>
+      </c>
+      <c r="L6" s="9">
+        <v>8</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="9">
+        <f>F7+G7+H7+I7+K7+L7+J7-M7</f>
+        <v>62</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="9">
+        <v>10</v>
+      </c>
+      <c r="G7" s="9">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9">
+        <v>9</v>
+      </c>
+      <c r="I7" s="9">
+        <v>9</v>
+      </c>
+      <c r="J7" s="9">
+        <v>9</v>
+      </c>
+      <c r="K7" s="9">
+        <v>8</v>
+      </c>
+      <c r="L7" s="9">
+        <v>8</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="9">
+        <f>F8+G8+H8+I8+K8+L8+J8-M8</f>
+        <v>60</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="9">
+        <v>10</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+      <c r="H8" s="69">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9">
+        <v>9</v>
+      </c>
+      <c r="J8" s="9">
+        <v>9</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8</v>
+      </c>
+      <c r="L8" s="9">
+        <v>7</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="9">
+        <f>F9+G9+H9+I9+K9+L9+J9-M9</f>
+        <v>60</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="9">
+        <v>9</v>
+      </c>
+      <c r="I9" s="9">
+        <v>9</v>
+      </c>
+      <c r="J9" s="9">
+        <v>9</v>
+      </c>
+      <c r="K9" s="9">
+        <v>8</v>
+      </c>
+      <c r="L9" s="9">
+        <v>7</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="9">
+        <f>F10+G10+H10+I10+K10+L10+J10-M10</f>
+        <v>59</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="9">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9">
+        <v>8</v>
+      </c>
+      <c r="J10" s="9">
+        <v>9</v>
+      </c>
+      <c r="K10" s="9">
+        <v>7</v>
+      </c>
+      <c r="L10" s="9">
+        <v>8</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="9">
+        <f>F11+G11+H11+I11+K11+L11+J11-M11</f>
+        <v>58</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
+        <v>9</v>
+      </c>
+      <c r="H11" s="9">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9">
+        <v>8</v>
+      </c>
+      <c r="J11" s="9">
+        <v>9</v>
+      </c>
+      <c r="K11" s="69">
+        <v>7</v>
+      </c>
+      <c r="L11" s="9">
+        <v>7</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C12" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="16">
-        <f t="shared" ref="D4:D14" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
+      <c r="D12" s="9">
+        <f>F12+G12+H12+I12+K12+L12+J12-M12</f>
+        <v>58</v>
+      </c>
+      <c r="E12" s="16"/>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="56" t="s">
@@ -4062,81 +3998,85 @@
       <c r="C13" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
+      <c r="D13" s="9">
+        <f>F13+G13+H13+I13+K13+L13+J13-M13</f>
+        <v>57</v>
+      </c>
+      <c r="E13" s="16"/>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="11"/>
+        <v>176</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="11">
+        <f>F14+G14+H14+I14+K14+L14+J14-M14</f>
+        <v>49</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J14" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K14" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L14" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M14" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M14">
+    <sortCondition descending="1" ref="D3:D14"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4144,8 +4084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6972AB4-548C-46E5-AFA4-85F08BF384BD}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,10 +4124,10 @@
       <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="87" t="s">
         <v>192</v>
       </c>
       <c r="D2" s="54" t="s">
@@ -4209,13 +4149,13 @@
         <v>9</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="67" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="67" t="s">
-        <v>10</v>
       </c>
       <c r="M2" s="67" t="s">
         <v>195</v>
@@ -4232,30 +4172,30 @@
         <v>192</v>
       </c>
       <c r="D3" s="7">
-        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
-        <v>0</v>
+        <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
+        <v>48</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -4272,7 +4212,7 @@
         <v>192</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D5" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
+        <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -4312,7 +4252,7 @@
         <v>192</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" si="0"/>
+        <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
         <v>0</v>
       </c>
       <c r="E5" s="11"/>
@@ -4354,7 +4294,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,7 +4333,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="88" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="58" t="s">
@@ -4883,13 +4823,14 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
@@ -5371,19 +5312,22 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:M2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5401,16 +5345,17 @@
       <c r="J1" s="85"/>
       <c r="K1" s="85"/>
       <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -5447,12 +5392,14 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="91"/>
+      <c r="C3" s="37" t="s">
+        <v>192</v>
+      </c>
       <c r="D3" s="15">
-        <f>SUM(F3:L3)</f>
+        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -5475,6 +5422,9 @@
         <v>0</v>
       </c>
       <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -5482,12 +5432,14 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="39" t="s">
+        <v>192</v>
+      </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D6" si="0">SUM(F4:L4)</f>
+        <f t="shared" ref="D4:D6" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -5510,6 +5462,9 @@
         <v>0</v>
       </c>
       <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5517,10 +5472,12 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="93"/>
+      <c r="C5" s="39" t="s">
+        <v>192</v>
+      </c>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5545,6 +5502,9 @@
         <v>0</v>
       </c>
       <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5552,10 +5512,12 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="35" t="s">
+        <v>192</v>
+      </c>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5582,15 +5544,13 @@
       <c r="L6" s="11">
         <v>0</v>
       </c>
+      <c r="M6" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5601,45 +5561,49 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5661,30 +5625,30 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="7">
-        <f>SUM(F3:L3)</f>
+      <c r="D3" s="15">
+        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -5709,19 +5673,22 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="9">
-        <f>SUM(F4:L4)</f>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D11" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -5746,39 +5713,62 @@
       <c r="L4" s="9">
         <v>0</v>
       </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6:D11" si="0">SUM(F6:L6)</f>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -5803,18 +5793,21 @@
       <c r="L6" s="9">
         <v>0</v>
       </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5840,18 +5833,21 @@
       <c r="L7" s="9">
         <v>0</v>
       </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5877,18 +5873,21 @@
       <c r="L8" s="9">
         <v>0</v>
       </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5914,18 +5913,21 @@
       <c r="L9" s="9">
         <v>0</v>
       </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5951,18 +5953,21 @@
       <c r="L10" s="9">
         <v>0</v>
       </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5986,6 +5991,9 @@
         <v>0</v>
       </c>
       <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5995,7 +6003,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6006,39 +6014,42 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D4" sqref="D4:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="80"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6085,17 +6096,17 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D9" si="0">SUM(F3:M3)</f>
+      <c r="D3" s="15">
+        <f>F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -6123,19 +6134,22 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="91" t="s">
         <v>140</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="9">
-        <f t="shared" si="0"/>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D15" si="0">F4+G4+H4+I4+J4+K4+L4+M4-N4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -6163,18 +6177,21 @@
       <c r="M4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="91" t="s">
         <v>141</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6203,18 +6220,21 @@
       <c r="M5" s="9">
         <v>0</v>
       </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6243,18 +6263,21 @@
       <c r="M6" s="9">
         <v>0</v>
       </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="91" t="s">
         <v>138</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6283,18 +6306,21 @@
       <c r="M7" s="9">
         <v>0</v>
       </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="91" t="s">
         <v>179</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6323,18 +6349,21 @@
       <c r="M8" s="9">
         <v>0</v>
       </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="91" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6363,19 +6392,22 @@
       <c r="M9" s="9">
         <v>0</v>
       </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="91" t="s">
         <v>186</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="9">
-        <f t="shared" ref="D10:D11" si="1">SUM(F10:M10)</f>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -6403,19 +6435,22 @@
       <c r="M10" s="9">
         <v>0</v>
       </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="91" t="s">
         <v>182</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>183</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" si="1"/>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -6443,19 +6478,22 @@
       <c r="M11" s="9">
         <v>0</v>
       </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="91" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="9">
-        <f>SUM(F12:M12)</f>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -6483,19 +6521,22 @@
       <c r="M12" s="9">
         <v>0</v>
       </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="91" t="s">
         <v>144</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="9">
-        <f>SUM(F13:M13)</f>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -6523,19 +6564,22 @@
       <c r="M13" s="9">
         <v>0</v>
       </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="91" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="9">
-        <f>SUM(F14:M14)</f>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="9"/>
@@ -6563,19 +6607,22 @@
       <c r="M14" s="9">
         <v>0</v>
       </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="93" t="s">
         <v>146</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="11">
-        <f>SUM(F15:M15)</f>
+      <c r="D15" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="11"/>
@@ -6603,10 +6650,13 @@
       <c r="M15" s="11">
         <v>0</v>
       </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7034,7 +7084,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7044,36 +7094,38 @@
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -7100,22 +7152,22 @@
       <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="L2" s="86" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="7">
-        <f>SUM(F3:K3)</f>
+      <c r="D3" s="15">
+        <f>F3+G3+H3+I3+J3+K3-L3</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -7137,19 +7189,22 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9">
-        <f>SUM(F4:K4)</f>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D16" si="0">F4+G4+H4+I4+J4+K4-L4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -7171,19 +7226,22 @@
       <c r="K4" s="9">
         <v>0</v>
       </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="9">
-        <f>SUM(F5:K5)</f>
+      <c r="D5" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -7205,19 +7263,22 @@
       <c r="K5" s="9">
         <v>0</v>
       </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="9">
-        <f>SUM(F6:K6)</f>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -7239,19 +7300,22 @@
       <c r="K6" s="9">
         <v>0</v>
       </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9">
-        <f>SUM(F7:K7)</f>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7" s="9"/>
@@ -7273,19 +7337,22 @@
       <c r="K7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9">
-        <f>SUM(F8:K8)</f>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8" s="9"/>
@@ -7307,19 +7374,22 @@
       <c r="K8" s="9">
         <v>0</v>
       </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="9">
-        <f>SUM(F9:K9)</f>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="9"/>
@@ -7341,19 +7411,22 @@
       <c r="K9" s="9">
         <v>0</v>
       </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="9">
-        <f>SUM(F10:K10)</f>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="9"/>
@@ -7375,19 +7448,22 @@
       <c r="K10" s="9">
         <v>0</v>
       </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="9">
-        <f>SUM(F11:K11)</f>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -7409,19 +7485,22 @@
       <c r="K11" s="9">
         <v>0</v>
       </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="9">
-        <f>SUM(F12:K12)</f>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -7443,19 +7522,22 @@
       <c r="K12" s="9">
         <v>0</v>
       </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="9">
-        <f>SUM(F13:K13)</f>
+      <c r="D13" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -7477,19 +7559,22 @@
       <c r="K13" s="9">
         <v>0</v>
       </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="9">
-        <f>SUM(F14:K14)</f>
+      <c r="D14" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="9"/>
@@ -7511,19 +7596,22 @@
       <c r="K14" s="9">
         <v>0</v>
       </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="9">
-        <f>SUM(F15:K15)</f>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="9"/>
@@ -7545,19 +7633,22 @@
       <c r="K15" s="9">
         <v>0</v>
       </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11">
-        <f>SUM(F16:K16)</f>
+      <c r="D16" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="11"/>
@@ -7579,10 +7670,13 @@
       <c r="K16" s="11">
         <v>0</v>
       </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75D87FF-7250-4513-8E3E-33D4C4D99D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BAB3D6-61E9-40EC-B516-3C283C6D65AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="11" activeTab="13" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="13" activeTab="13" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -4085,7 +4085,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4166,36 +4166,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>192</v>
       </c>
       <c r="D3" s="7">
         <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I3" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7">
         <v>7</v>
       </c>
-      <c r="K3" s="7">
-        <v>7</v>
+      <c r="K3" s="75">
+        <v>9</v>
       </c>
       <c r="L3" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -4206,36 +4206,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>192</v>
       </c>
       <c r="D4" s="9">
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M4" s="9">
         <v>0</v>
@@ -4246,42 +4246,45 @@
         <v>3</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>192</v>
       </c>
       <c r="D5" s="11">
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M5">
+    <sortCondition descending="1" ref="D3:D5"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
@@ -6014,7 +6017,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BAB3D6-61E9-40EC-B516-3C283C6D65AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403B0E0E-E9FB-486B-98F9-EF3A9FA7655E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="13" activeTab="13" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="13" activeTab="18" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,9 @@
     <sheet name="SOLISTA NT FEMENINO" sheetId="18" r:id="rId16"/>
     <sheet name="GRUPO NOVEL" sheetId="19" r:id="rId17"/>
     <sheet name="SOLISTA JUVENIL FEMENINO" sheetId="20" r:id="rId18"/>
-    <sheet name="PAREJAS NT" sheetId="22" r:id="rId19"/>
-    <sheet name="SOLISTA AFROCUBANO" sheetId="23" r:id="rId20"/>
+    <sheet name="SOLISTA JUVENIL MASCULINO" sheetId="24" r:id="rId19"/>
+    <sheet name="PAREJAS NT" sheetId="22" r:id="rId20"/>
+    <sheet name="SOLISTA AFROCUBANO" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -273,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="203">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -870,6 +871,18 @@
   </si>
   <si>
     <t>JHON JAIVER GUZMAN</t>
+  </si>
+  <si>
+    <t>SOLISTA JUVENIL MASCULINO</t>
+  </si>
+  <si>
+    <t>JOSE GAMES</t>
+  </si>
+  <si>
+    <t>ABRAHAM RAMOS</t>
+  </si>
+  <si>
+    <t>MOISES</t>
   </si>
 </sst>
 </file>
@@ -4084,7 +4097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6972AB4-548C-46E5-AFA4-85F08BF384BD}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -6013,6 +6026,636 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39FFA4E-86D6-4557-95F4-DE21C8C50016}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+    </row>
+    <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="15">
+        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" ref="D4:D5" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D3B04C-C77B-48A6-913A-E5F52797CF8D}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="3" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+    </row>
+    <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:D13" si="0">SUM(F3:J3)</f>
+        <v>39</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9">
+        <v>7</v>
+      </c>
+      <c r="J4" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="27">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9">
+        <v>6</v>
+      </c>
+      <c r="I5" s="9">
+        <v>7</v>
+      </c>
+      <c r="J5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>7</v>
+      </c>
+      <c r="H6" s="9">
+        <v>7</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9">
+        <v>7</v>
+      </c>
+      <c r="J7" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9">
+        <v>7</v>
+      </c>
+      <c r="I8" s="9">
+        <v>6</v>
+      </c>
+      <c r="J8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9">
+        <v>6</v>
+      </c>
+      <c r="J9" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>7</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+      <c r="I10" s="9">
+        <v>7</v>
+      </c>
+      <c r="J10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <v>6</v>
+      </c>
+      <c r="H11" s="9">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>7</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4</v>
+      </c>
+      <c r="H12" s="9">
+        <v>5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>7</v>
+      </c>
+      <c r="J12" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>7</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11">
+        <v>5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J13">
+    <sortCondition descending="1" ref="D3:D13"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDEA901-26C0-41C5-B438-AE40E4689819}">
   <dimension ref="A1:N15"/>
   <sheetViews>
@@ -6665,424 +7308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D3B04C-C77B-48A6-913A-E5F52797CF8D}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="3" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-    </row>
-    <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="15">
-        <f t="shared" ref="D3:D13" si="0">SUM(F3:J3)</f>
-        <v>39</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7">
-        <v>7</v>
-      </c>
-      <c r="I3" s="7">
-        <v>7</v>
-      </c>
-      <c r="J3" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="16">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9">
-        <v>7</v>
-      </c>
-      <c r="I4" s="9">
-        <v>7</v>
-      </c>
-      <c r="J4" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="27">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9">
-        <v>7</v>
-      </c>
-      <c r="H5" s="9">
-        <v>6</v>
-      </c>
-      <c r="I5" s="9">
-        <v>7</v>
-      </c>
-      <c r="J5" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>7</v>
-      </c>
-      <c r="G6" s="9">
-        <v>7</v>
-      </c>
-      <c r="H6" s="9">
-        <v>7</v>
-      </c>
-      <c r="I6" s="9">
-        <v>7</v>
-      </c>
-      <c r="J6" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>7</v>
-      </c>
-      <c r="G7" s="9">
-        <v>6</v>
-      </c>
-      <c r="H7" s="9">
-        <v>6</v>
-      </c>
-      <c r="I7" s="9">
-        <v>7</v>
-      </c>
-      <c r="J7" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>7</v>
-      </c>
-      <c r="G8" s="9">
-        <v>7</v>
-      </c>
-      <c r="H8" s="9">
-        <v>7</v>
-      </c>
-      <c r="I8" s="9">
-        <v>6</v>
-      </c>
-      <c r="J8" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>7</v>
-      </c>
-      <c r="G9" s="9">
-        <v>7</v>
-      </c>
-      <c r="H9" s="9">
-        <v>6</v>
-      </c>
-      <c r="I9" s="9">
-        <v>6</v>
-      </c>
-      <c r="J9" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>7</v>
-      </c>
-      <c r="G10" s="9">
-        <v>6</v>
-      </c>
-      <c r="H10" s="9">
-        <v>6</v>
-      </c>
-      <c r="I10" s="9">
-        <v>7</v>
-      </c>
-      <c r="J10" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9">
-        <v>6</v>
-      </c>
-      <c r="H11" s="9">
-        <v>6</v>
-      </c>
-      <c r="I11" s="9">
-        <v>7</v>
-      </c>
-      <c r="J11" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>7</v>
-      </c>
-      <c r="G12" s="9">
-        <v>4</v>
-      </c>
-      <c r="H12" s="9">
-        <v>5</v>
-      </c>
-      <c r="I12" s="9">
-        <v>7</v>
-      </c>
-      <c r="J12" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="17">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
-        <v>7</v>
-      </c>
-      <c r="G13" s="11">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11">
-        <v>5</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5</v>
-      </c>
-      <c r="J13" s="11">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:J13">
-    <sortCondition descending="1" ref="D3:D13"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB67CF2-EE9A-43D1-97E0-98D4A8CEBB5B}">
   <dimension ref="A1:L16"/>
   <sheetViews>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403B0E0E-E9FB-486B-98F9-EF3A9FA7655E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270BC71-AC46-43B8-8B0A-D687B90B481B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="13" activeTab="18" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="14" activeTab="15" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -627,9 +627,6 @@
     <t>LA CLAVE</t>
   </si>
   <si>
-    <t>YHONKEIBER LEMOS</t>
-  </si>
-  <si>
     <t>ANDREA AGUILERA</t>
   </si>
   <si>
@@ -883,6 +880,9 @@
   </si>
   <si>
     <t>MOISES</t>
+  </si>
+  <si>
+    <t>YHONKEIBER LEMUS</t>
   </si>
 </sst>
 </file>
@@ -979,7 +979,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1376,10 +1376,32 @@
     <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1397,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1451,9 +1473,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1666,7 +1685,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1681,11 +1700,23 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2018,18 +2049,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="A1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2099,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -2130,10 +2161,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:J5)</f>
@@ -2161,10 +2192,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:J6)</f>
@@ -2222,22 +2253,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2280,17 +2311,17 @@
         <v>8</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="7">
@@ -2330,10 +2361,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="9">
@@ -2347,7 +2378,7 @@
       <c r="G4" s="9">
         <v>7</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="68">
         <v>7</v>
       </c>
       <c r="I4" s="9">
@@ -2373,10 +2404,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="9">
@@ -2416,10 +2447,10 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="9">
@@ -2459,10 +2490,10 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="9">
@@ -2502,10 +2533,10 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="9">
@@ -2545,10 +2576,10 @@
       <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="11">
@@ -2619,112 +2650,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="67" t="s">
+      <c r="G2" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>195</v>
+      <c r="K2" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <f t="shared" ref="D3:D14" si="0">F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
         <v>70</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30">
-        <v>10</v>
-      </c>
-      <c r="G3" s="30">
-        <v>8</v>
-      </c>
-      <c r="H3" s="30">
-        <v>8</v>
-      </c>
-      <c r="I3" s="30">
-        <v>10</v>
-      </c>
-      <c r="J3" s="30">
-        <v>10</v>
-      </c>
-      <c r="K3" s="30">
-        <v>8</v>
-      </c>
-      <c r="L3" s="30">
-        <v>7</v>
-      </c>
-      <c r="M3" s="30">
-        <v>9</v>
-      </c>
-      <c r="N3" s="30">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29">
+        <v>10</v>
+      </c>
+      <c r="G3" s="29">
+        <v>8</v>
+      </c>
+      <c r="H3" s="29">
+        <v>8</v>
+      </c>
+      <c r="I3" s="29">
+        <v>10</v>
+      </c>
+      <c r="J3" s="29">
+        <v>10</v>
+      </c>
+      <c r="K3" s="29">
+        <v>8</v>
+      </c>
+      <c r="L3" s="29">
+        <v>7</v>
+      </c>
+      <c r="M3" s="29">
+        <v>9</v>
+      </c>
+      <c r="N3" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2747,7 +2778,7 @@
       <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="74">
         <v>9</v>
       </c>
       <c r="J4" s="7">
@@ -2771,7 +2802,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>69</v>
@@ -2810,7 +2841,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2836,7 +2867,7 @@
       <c r="I6" s="9">
         <v>9</v>
       </c>
-      <c r="J6" s="69">
+      <c r="J6" s="68">
         <v>9</v>
       </c>
       <c r="K6" s="9">
@@ -2896,7 +2927,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2982,7 +3013,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -3008,7 +3039,7 @@
       <c r="I10" s="9">
         <v>8</v>
       </c>
-      <c r="J10" s="69">
+      <c r="J10" s="68">
         <v>9</v>
       </c>
       <c r="K10" s="9">
@@ -3068,7 +3099,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3154,7 +3185,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -3232,31 +3263,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3290,17 +3321,17 @@
         <v>32</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="7">
@@ -3340,10 +3371,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="9">
@@ -3383,10 +3414,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="9">
@@ -3426,10 +3457,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="9">
@@ -3469,10 +3500,10 @@
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="11">
@@ -3544,71 +3575,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="67" t="s">
+      <c r="G2" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="67" t="s">
-        <v>195</v>
+      <c r="M2" s="66" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="7">
@@ -3616,7 +3647,7 @@
         <v>69</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="100">
+      <c r="F3" s="99">
         <v>10</v>
       </c>
       <c r="G3" s="7">
@@ -3645,17 +3676,17 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="9">
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
         <v>69</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="98"/>
       <c r="F4" s="9">
         <v>10</v>
       </c>
@@ -3685,39 +3716,39 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
         <v>63</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="30">
-        <v>10</v>
-      </c>
-      <c r="G5" s="30">
-        <v>9</v>
-      </c>
-      <c r="H5" s="30">
-        <v>9</v>
-      </c>
-      <c r="I5" s="98">
-        <v>10</v>
-      </c>
-      <c r="J5" s="30">
-        <v>9</v>
-      </c>
-      <c r="K5" s="30">
-        <v>8</v>
-      </c>
-      <c r="L5" s="30">
-        <v>8</v>
-      </c>
-      <c r="M5" s="30">
+      <c r="E5" s="44"/>
+      <c r="F5" s="29">
+        <v>10</v>
+      </c>
+      <c r="G5" s="29">
+        <v>9</v>
+      </c>
+      <c r="H5" s="29">
+        <v>9</v>
+      </c>
+      <c r="I5" s="97">
+        <v>10</v>
+      </c>
+      <c r="J5" s="29">
+        <v>9</v>
+      </c>
+      <c r="K5" s="29">
+        <v>8</v>
+      </c>
+      <c r="L5" s="29">
+        <v>8</v>
+      </c>
+      <c r="M5" s="29">
         <v>0</v>
       </c>
     </row>
@@ -3725,10 +3756,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="9">
@@ -3765,10 +3796,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="9">
@@ -3805,10 +3836,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="9">
@@ -3822,7 +3853,7 @@
       <c r="G8" s="9">
         <v>7</v>
       </c>
-      <c r="H8" s="69">
+      <c r="H8" s="68">
         <v>10</v>
       </c>
       <c r="I8" s="9">
@@ -3845,10 +3876,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="55" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="9">
@@ -3885,11 +3916,11 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>132</v>
+      <c r="B10" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="D10" s="9">
         <f>F10+G10+H10+I10+K10+L10+J10-M10</f>
@@ -3925,11 +3956,11 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>132</v>
+      <c r="B11" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="D11" s="9">
         <f>F11+G11+H11+I11+K11+L11+J11-M11</f>
@@ -3951,7 +3982,7 @@
       <c r="J11" s="9">
         <v>9</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="68">
         <v>7</v>
       </c>
       <c r="L11" s="9">
@@ -3965,11 +3996,11 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>132</v>
+      <c r="B12" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="D12" s="9">
         <f>F12+G12+H12+I12+K12+L12+J12-M12</f>
@@ -4005,11 +4036,11 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>132</v>
+      <c r="B13" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="D13" s="9">
         <f>F13+G13+H13+I13+K13+L13+J13-M13</f>
@@ -4045,10 +4076,10 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="56" t="s">
         <v>98</v>
       </c>
       <c r="D14" s="11">
@@ -4117,72 +4148,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="67" t="s">
+      <c r="G2" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="67" t="s">
-        <v>195</v>
+      <c r="M2" s="66" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>192</v>
+      <c r="C3" s="46" t="s">
+        <v>191</v>
       </c>
       <c r="D3" s="7">
         <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
@@ -4204,7 +4235,7 @@
       <c r="J3" s="7">
         <v>7</v>
       </c>
-      <c r="K3" s="75">
+      <c r="K3" s="74">
         <v>9</v>
       </c>
       <c r="L3" s="7">
@@ -4218,11 +4249,11 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>192</v>
+      <c r="C4" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="D4" s="9">
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
@@ -4258,11 +4289,11 @@
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>192</v>
+      <c r="C5" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="D5" s="11">
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
@@ -4310,7 +4341,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,41 +4349,43 @@
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4374,459 +4407,462 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="102">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="7">
+        <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
+        <v>60</v>
+      </c>
+      <c r="E3" s="100"/>
+      <c r="F3" s="7">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7">
+        <v>9</v>
+      </c>
+      <c r="J3" s="7">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7">
+        <v>9</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="9">
+        <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
+        <v>52</v>
+      </c>
+      <c r="E4" s="98"/>
+      <c r="F4" s="9">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9">
+        <v>8</v>
+      </c>
+      <c r="L4" s="68">
+        <v>8</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="9">
+        <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
+        <v>52</v>
+      </c>
+      <c r="E5" s="98"/>
+      <c r="F5" s="9">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9">
+        <v>7</v>
+      </c>
+      <c r="H5" s="9">
+        <v>7</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8</v>
+      </c>
+      <c r="J5" s="9">
+        <v>7</v>
+      </c>
+      <c r="K5" s="9">
+        <v>8</v>
+      </c>
+      <c r="L5" s="68">
+        <v>8</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>7</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9">
+        <f>F6+G6+H6+I6+K6+L6+J6-M6</f>
+        <v>52</v>
+      </c>
+      <c r="E6" s="98"/>
+      <c r="F6" s="9">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6</v>
+      </c>
+      <c r="H6" s="9">
+        <v>7</v>
+      </c>
+      <c r="I6" s="9">
+        <v>7</v>
+      </c>
+      <c r="J6" s="9">
+        <v>8</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7</v>
+      </c>
+      <c r="L6" s="9">
+        <v>7</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C7" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="7">
-        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="56" t="s">
+      <c r="D7" s="9">
+        <f>F7+G7+H7+I7+K7+L7+J7-M7</f>
+        <v>49</v>
+      </c>
+      <c r="E7" s="98"/>
+      <c r="F7" s="9">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7</v>
+      </c>
+      <c r="H7" s="9">
+        <v>7</v>
+      </c>
+      <c r="I7" s="9">
+        <v>7</v>
+      </c>
+      <c r="J7" s="9">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9">
+        <v>7</v>
+      </c>
+      <c r="L7" s="9">
+        <v>7</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" ref="D4:D13" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="56" t="s">
+      <c r="C8" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="9">
+        <f>F8+G8+H8+I8+K8+L8+J8-M8</f>
+        <v>49</v>
+      </c>
+      <c r="E8" s="98"/>
+      <c r="F8" s="9">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9">
+        <v>7</v>
+      </c>
+      <c r="I8" s="9">
+        <v>7</v>
+      </c>
+      <c r="J8" s="9">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9">
+        <v>7</v>
+      </c>
+      <c r="L8" s="9">
+        <v>7</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="9">
+        <f>F9+G9+H9+I9+K9+L9+J9-M9</f>
+        <v>49</v>
+      </c>
+      <c r="E9" s="98"/>
+      <c r="F9" s="9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9">
+        <v>7</v>
+      </c>
+      <c r="I9" s="9">
+        <v>7</v>
+      </c>
+      <c r="J9" s="9">
+        <v>7</v>
+      </c>
+      <c r="K9" s="9">
+        <v>7</v>
+      </c>
+      <c r="L9" s="9">
+        <v>7</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="56" t="s">
+      <c r="D10" s="9">
+        <f>F10+G10+H10+I10+K10+L10+J10-M10</f>
+        <v>49</v>
+      </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="9">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
+        <v>7</v>
+      </c>
+      <c r="I10" s="9">
+        <v>6</v>
+      </c>
+      <c r="J10" s="9">
+        <v>7</v>
+      </c>
+      <c r="K10" s="9">
+        <v>6</v>
+      </c>
+      <c r="L10" s="9">
+        <v>7</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="9">
+        <f>F11+G11+H11+I11+K11+L11+J11-M11</f>
+        <v>46</v>
+      </c>
+      <c r="E11" s="98"/>
+      <c r="F11" s="9">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
+        <v>6</v>
+      </c>
+      <c r="H11" s="9">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9">
+        <v>6</v>
+      </c>
+      <c r="K11" s="9">
+        <v>7</v>
+      </c>
+      <c r="L11" s="9">
+        <v>7</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="D12" s="9">
+        <f>F12+G12+H12+I12+K12+L12+J12-M12</f>
+        <v>45</v>
+      </c>
+      <c r="E12" s="98"/>
+      <c r="F12" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="56" t="s">
+      <c r="G12" s="9">
+        <v>7</v>
+      </c>
+      <c r="H12" s="9">
+        <v>7</v>
+      </c>
+      <c r="I12" s="9">
+        <v>6</v>
+      </c>
+      <c r="J12" s="9">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9">
+        <v>6</v>
+      </c>
+      <c r="L12" s="9">
+        <v>7</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C13" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>69</v>
-      </c>
       <c r="D13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="11"/>
+        <f>F13+G13+H13+I13+K13+L13+J13-M13</f>
+        <v>44</v>
+      </c>
+      <c r="E13" s="101"/>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J13" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L13" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M13" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M13">
+    <sortCondition descending="1" ref="D3:D13"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
@@ -4838,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D675C796-FBE0-4A3C-AE52-1F243CD1E14C}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4858,30 +4894,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="87" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4903,53 +4939,53 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="103" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7">
-        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
-        <v>0</v>
+        <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
+        <v>60</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -4959,37 +4995,37 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>116</v>
+      <c r="B4" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>69</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D12" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
-        <v>0</v>
+        <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
+        <v>59</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M4" s="9">
         <v>0</v>
@@ -4999,37 +5035,37 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>52</v>
+      <c r="B5" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
+        <v>58</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M5" s="9">
         <v>0</v>
@@ -5039,37 +5075,37 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F6+G6+H6+I6+K6+L6+J6-M6</f>
+        <v>55</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="9">
         <v>0</v>
@@ -5079,37 +5115,37 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F7+G7+H7+I7+K7+L7+J7-M7</f>
+        <v>51</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7" s="9">
         <v>0</v>
@@ -5119,37 +5155,37 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>54</v>
+      <c r="B8" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>116</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F8+G8+H8+I8+K8+L8+J8-M8</f>
+        <v>50</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M8" s="9">
         <v>0</v>
@@ -5159,37 +5195,37 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>73</v>
+      <c r="B9" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F9+G9+H9+I9+K9+L9+J9-M9</f>
+        <v>48</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -5199,37 +5235,37 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>52</v>
+      <c r="C10" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="D10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F10+G10+H10+I10+K10+L10+J10-M10</f>
+        <v>48</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10" s="9">
         <v>0</v>
@@ -5239,37 +5275,37 @@
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>116</v>
+      <c r="B11" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F11+G11+H11+I11+K11+L11+J11-M11</f>
+        <v>47</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M11" s="9">
         <v>0</v>
@@ -5279,43 +5315,46 @@
       <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>69</v>
+      <c r="B12" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>190</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F12+G12+H12+I12+K12+L12+J12-M12</f>
+        <v>47</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K12" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M12" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M12">
+    <sortCondition descending="1" ref="D3:D12"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
@@ -5347,31 +5386,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="89" t="s">
-        <v>192</v>
+      <c r="C2" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -5401,18 +5440,18 @@
         <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>192</v>
+      <c r="C3" s="36" t="s">
+        <v>191</v>
       </c>
       <c r="D3" s="15">
         <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
@@ -5448,11 +5487,11 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>192</v>
+      <c r="B4" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" ref="D4:D6" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
@@ -5488,11 +5527,11 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>192</v>
+      <c r="C5" s="38" t="s">
+        <v>191</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
@@ -5528,11 +5567,11 @@
       <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>192</v>
+      <c r="C6" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
@@ -5596,30 +5635,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5650,18 +5689,18 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>130</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>131</v>
       </c>
       <c r="D3" s="15">
         <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
@@ -5697,10 +5736,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="16">
@@ -5737,11 +5776,11 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>132</v>
+      <c r="B5" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
@@ -5777,11 +5816,11 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>131</v>
+      <c r="B6" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
@@ -5817,10 +5856,10 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="16">
@@ -5857,11 +5896,11 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>131</v>
+      <c r="B8" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" si="0"/>
@@ -5897,10 +5936,10 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>116</v>
       </c>
       <c r="D9" s="16">
@@ -5937,11 +5976,11 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>132</v>
+      <c r="B10" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>131</v>
       </c>
       <c r="D10" s="16">
         <f t="shared" si="0"/>
@@ -5977,10 +6016,10 @@
       <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="56" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="16">
@@ -6014,7 +6053,7 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="8"/>
     </row>
   </sheetData>
@@ -6029,7 +6068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39FFA4E-86D6-4557-95F4-DE21C8C50016}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6049,30 +6088,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="A1" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -6103,17 +6142,17 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="15">
@@ -6150,10 +6189,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="16">
@@ -6190,10 +6229,10 @@
       <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="17">
@@ -6227,7 +6266,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="8"/>
     </row>
   </sheetData>
@@ -6257,18 +6296,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6309,7 +6348,7 @@
       <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="15">
@@ -6340,7 +6379,7 @@
       <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="16">
@@ -6371,10 +6410,10 @@
       <c r="B5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -6402,7 +6441,7 @@
       <c r="B6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="16">
@@ -6431,9 +6470,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="16">
@@ -6464,7 +6503,7 @@
       <c r="B8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="16">
@@ -6495,7 +6534,7 @@
       <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="16">
@@ -6526,7 +6565,7 @@
       <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="16">
@@ -6557,7 +6596,7 @@
       <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="16">
@@ -6588,7 +6627,7 @@
       <c r="B12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="16">
@@ -6619,7 +6658,7 @@
       <c r="B13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="17">
@@ -6680,31 +6719,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -6738,17 +6777,17 @@
         <v>10</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="15">
@@ -6788,10 +6827,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="16">
@@ -6831,10 +6870,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="16">
@@ -6874,10 +6913,10 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="16">
@@ -6917,10 +6956,10 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="16">
@@ -6960,10 +6999,10 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="91" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="16">
@@ -7003,10 +7042,10 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="16">
@@ -7046,11 +7085,11 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>186</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>187</v>
       </c>
       <c r="D10" s="16">
         <f t="shared" si="0"/>
@@ -7089,11 +7128,11 @@
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>182</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>183</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" si="0"/>
@@ -7132,10 +7171,10 @@
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="16">
@@ -7175,10 +7214,10 @@
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="16">
@@ -7218,10 +7257,10 @@
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>116</v>
       </c>
       <c r="D14" s="16">
@@ -7261,10 +7300,10 @@
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="56" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="17">
@@ -7313,7 +7352,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7332,29 +7371,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -7381,18 +7420,18 @@
       <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="86" t="s">
-        <v>195</v>
+      <c r="L2" s="85" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="15">
@@ -7426,10 +7465,10 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
@@ -7463,10 +7502,10 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="16">
@@ -7500,10 +7539,10 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="16">
@@ -7537,10 +7576,10 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="16">
@@ -7574,10 +7613,10 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="16">
@@ -7611,10 +7650,10 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="16">
@@ -7648,10 +7687,10 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="91" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="16">
@@ -7685,10 +7724,10 @@
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="16">
@@ -7722,11 +7761,11 @@
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="59" t="s">
-        <v>149</v>
+      <c r="C12" s="58" t="s">
+        <v>148</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="0"/>
@@ -7759,10 +7798,10 @@
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="16">
@@ -7796,10 +7835,10 @@
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="16">
@@ -7833,10 +7872,10 @@
       <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="16">
@@ -7870,10 +7909,10 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="17">
@@ -7931,30 +7970,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>192</v>
+      <c r="C2" s="41" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -7988,11 +8027,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>192</v>
+      <c r="C3" s="35" t="s">
+        <v>191</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -8025,11 +8064,11 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>192</v>
+      <c r="C4" s="37" t="s">
+        <v>191</v>
       </c>
       <c r="D4" s="9">
         <f>SUM(F4:L4)</f>
@@ -8062,11 +8101,11 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>192</v>
+      <c r="C5" s="37" t="s">
+        <v>191</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:L5)</f>
@@ -8099,11 +8138,11 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>192</v>
+      <c r="C6" s="33" t="s">
+        <v>191</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:L6)</f>
@@ -8133,7 +8172,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
+      <c r="B7" s="60"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L6">
@@ -8168,33 +8207,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -8222,18 +8261,18 @@
         <v>9</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>192</v>
+      <c r="C3" s="46" t="s">
+        <v>191</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -8258,20 +8297,20 @@
       <c r="K3" s="7">
         <v>7</v>
       </c>
-      <c r="L3" s="62">
-        <v>8</v>
-      </c>
-      <c r="M3" s="65"/>
+      <c r="L3" s="61">
+        <v>8</v>
+      </c>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>192</v>
+      <c r="C4" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="D4" s="16">
         <f>F4+G4+H4+I4+J4+K4+L4-M4</f>
@@ -8296,10 +8335,10 @@
       <c r="K4" s="9">
         <v>6</v>
       </c>
-      <c r="L4" s="63">
-        <v>7</v>
-      </c>
-      <c r="M4" s="66">
+      <c r="L4" s="62">
+        <v>7</v>
+      </c>
+      <c r="M4" s="65">
         <v>2</v>
       </c>
     </row>
@@ -8307,11 +8346,11 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>192</v>
+      <c r="C5" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
@@ -8336,10 +8375,10 @@
       <c r="K5" s="9">
         <v>7</v>
       </c>
-      <c r="L5" s="63">
-        <v>7</v>
-      </c>
-      <c r="M5" s="66">
+      <c r="L5" s="62">
+        <v>7</v>
+      </c>
+      <c r="M5" s="65">
         <v>2</v>
       </c>
     </row>
@@ -8347,11 +8386,11 @@
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>191</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>192</v>
       </c>
       <c r="D6" s="17">
         <f>SUM(F6:L6)</f>
@@ -8376,13 +8415,13 @@
       <c r="K6" s="11">
         <v>6</v>
       </c>
-      <c r="L6" s="64">
-        <v>6</v>
-      </c>
-      <c r="M6" s="50"/>
+      <c r="L6" s="63">
+        <v>6</v>
+      </c>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
+      <c r="B7" s="60"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M6">
@@ -8420,22 +8459,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8477,11 +8516,11 @@
       <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="67" t="s">
-        <v>195</v>
+      <c r="N2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -8491,7 +8530,7 @@
       <c r="B3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="15">
@@ -8523,10 +8562,10 @@
       <c r="M3" s="7">
         <v>7</v>
       </c>
-      <c r="N3" s="62">
-        <v>7</v>
-      </c>
-      <c r="O3" s="52"/>
+      <c r="N3" s="61">
+        <v>7</v>
+      </c>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -8535,7 +8574,7 @@
       <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
@@ -8567,10 +8606,10 @@
       <c r="M4" s="9">
         <v>7</v>
       </c>
-      <c r="N4" s="63">
-        <v>8</v>
-      </c>
-      <c r="O4" s="50"/>
+      <c r="N4" s="62">
+        <v>8</v>
+      </c>
+      <c r="O4" s="49"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -8579,7 +8618,7 @@
       <c r="B5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="16">
@@ -8596,7 +8635,7 @@
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="69">
+      <c r="I5" s="68">
         <v>7</v>
       </c>
       <c r="J5" s="9">
@@ -8611,19 +8650,19 @@
       <c r="M5" s="9">
         <v>7</v>
       </c>
-      <c r="N5" s="63">
-        <v>7</v>
-      </c>
-      <c r="O5" s="50"/>
+      <c r="N5" s="62">
+        <v>7</v>
+      </c>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>69</v>
       </c>
       <c r="D6" s="16">
@@ -8655,10 +8694,10 @@
       <c r="M6" s="9">
         <v>8</v>
       </c>
-      <c r="N6" s="63">
-        <v>7</v>
-      </c>
-      <c r="O6" s="50"/>
+      <c r="N6" s="62">
+        <v>7</v>
+      </c>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -8667,7 +8706,7 @@
       <c r="B7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="16">
@@ -8699,10 +8738,10 @@
       <c r="M7" s="9">
         <v>7</v>
       </c>
-      <c r="N7" s="63">
-        <v>7</v>
-      </c>
-      <c r="O7" s="66">
+      <c r="N7" s="62">
+        <v>7</v>
+      </c>
+      <c r="O7" s="65">
         <v>2</v>
       </c>
     </row>
@@ -8713,7 +8752,7 @@
       <c r="B8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="17">
@@ -8745,10 +8784,10 @@
       <c r="M8" s="11">
         <v>7</v>
       </c>
-      <c r="N8" s="64">
-        <v>6</v>
-      </c>
-      <c r="O8" s="51"/>
+      <c r="N8" s="63">
+        <v>6</v>
+      </c>
+      <c r="O8" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O8">
@@ -8784,21 +8823,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8838,7 +8877,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8848,14 +8887,14 @@
       <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D14" si="0">SUM(F3:L3)</f>
         <v>65</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="7">
         <v>10</v>
       </c>
@@ -8874,10 +8913,10 @@
       <c r="K3" s="7">
         <v>9</v>
       </c>
-      <c r="L3" s="62">
-        <v>10</v>
-      </c>
-      <c r="M3" s="65"/>
+      <c r="L3" s="61">
+        <v>10</v>
+      </c>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -8886,14 +8925,14 @@
       <c r="B4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="9">
         <v>10</v>
       </c>
@@ -8912,10 +8951,10 @@
       <c r="K4" s="9">
         <v>9</v>
       </c>
-      <c r="L4" s="63">
-        <v>9</v>
-      </c>
-      <c r="M4" s="50"/>
+      <c r="L4" s="62">
+        <v>9</v>
+      </c>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -8924,21 +8963,21 @@
       <c r="B5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E5" s="21"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="9">
         <v>10</v>
       </c>
       <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="68">
         <v>9</v>
       </c>
       <c r="I5" s="9">
@@ -8950,26 +8989,26 @@
       <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="63">
-        <v>8</v>
-      </c>
-      <c r="M5" s="50"/>
+      <c r="L5" s="62">
+        <v>8</v>
+      </c>
+      <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="9">
         <v>10</v>
       </c>
@@ -8988,10 +9027,10 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="63">
-        <v>8</v>
-      </c>
-      <c r="M6" s="50"/>
+      <c r="L6" s="62">
+        <v>8</v>
+      </c>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -9000,14 +9039,14 @@
       <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="9">
         <v>10</v>
       </c>
@@ -9026,10 +9065,10 @@
       <c r="K7" s="9">
         <v>9</v>
       </c>
-      <c r="L7" s="63">
-        <v>8</v>
-      </c>
-      <c r="M7" s="50"/>
+      <c r="L7" s="62">
+        <v>8</v>
+      </c>
+      <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -9038,14 +9077,14 @@
       <c r="B8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="9">
         <v>10</v>
       </c>
@@ -9064,26 +9103,26 @@
       <c r="K8" s="9">
         <v>7</v>
       </c>
-      <c r="L8" s="63">
-        <v>8</v>
-      </c>
-      <c r="M8" s="50"/>
+      <c r="L8" s="62">
+        <v>8</v>
+      </c>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="16">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="E9" s="21"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="9">
         <v>10</v>
       </c>
@@ -9102,10 +9141,10 @@
       <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="63">
-        <v>8</v>
-      </c>
-      <c r="M9" s="50"/>
+      <c r="L9" s="62">
+        <v>8</v>
+      </c>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -9114,14 +9153,14 @@
       <c r="B10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="9">
         <v>5</v>
       </c>
@@ -9140,26 +9179,26 @@
       <c r="K10" s="9">
         <v>7</v>
       </c>
-      <c r="L10" s="63">
-        <v>8</v>
-      </c>
-      <c r="M10" s="50"/>
+      <c r="L10" s="62">
+        <v>8</v>
+      </c>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="9">
         <v>5</v>
       </c>
@@ -9178,26 +9217,26 @@
       <c r="K11" s="9">
         <v>7</v>
       </c>
-      <c r="L11" s="63">
-        <v>7</v>
-      </c>
-      <c r="M11" s="50"/>
+      <c r="L11" s="62">
+        <v>7</v>
+      </c>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="9">
         <v>5</v>
       </c>
@@ -9216,33 +9255,33 @@
       <c r="K12" s="9">
         <v>7</v>
       </c>
-      <c r="L12" s="63">
-        <v>7</v>
-      </c>
-      <c r="M12" s="50"/>
+      <c r="L12" s="62">
+        <v>7</v>
+      </c>
+      <c r="M12" s="49"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="43" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="9">
         <v>5</v>
       </c>
       <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="68">
         <v>7</v>
       </c>
       <c r="I13" s="9">
@@ -9254,26 +9293,26 @@
       <c r="K13" s="9">
         <v>7</v>
       </c>
-      <c r="L13" s="63">
-        <v>6</v>
-      </c>
-      <c r="M13" s="50"/>
+      <c r="L13" s="62">
+        <v>6</v>
+      </c>
+      <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="9">
         <v>5</v>
       </c>
@@ -9292,33 +9331,33 @@
       <c r="K14" s="9">
         <v>7</v>
       </c>
-      <c r="L14" s="63">
-        <v>6</v>
-      </c>
-      <c r="M14" s="50"/>
+      <c r="L14" s="62">
+        <v>6</v>
+      </c>
+      <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>182</v>
       </c>
       <c r="D15" s="16">
         <f>F15+G15+H15+I15+J15+K15+L15-M15</f>
         <v>44</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="9">
         <v>5</v>
       </c>
       <c r="G15" s="9">
         <v>7</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="68">
         <v>7</v>
       </c>
       <c r="I15" s="9">
@@ -9330,10 +9369,10 @@
       <c r="K15" s="9">
         <v>7</v>
       </c>
-      <c r="L15" s="63">
-        <v>7</v>
-      </c>
-      <c r="M15" s="66">
+      <c r="L15" s="62">
+        <v>7</v>
+      </c>
+      <c r="M15" s="65">
         <v>2</v>
       </c>
     </row>
@@ -9344,14 +9383,14 @@
       <c r="B16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="16">
         <f>SUM(F16:L16)</f>
         <v>44</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="9">
         <v>5</v>
       </c>
@@ -9370,10 +9409,10 @@
       <c r="K16" s="9">
         <v>7</v>
       </c>
-      <c r="L16" s="63">
-        <v>7</v>
-      </c>
-      <c r="M16" s="50"/>
+      <c r="L16" s="62">
+        <v>7</v>
+      </c>
+      <c r="M16" s="49"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -9382,14 +9421,14 @@
       <c r="B17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="16">
         <f>SUM(F17:L17)</f>
         <v>43</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="9">
         <v>5</v>
       </c>
@@ -9408,10 +9447,10 @@
       <c r="K17" s="9">
         <v>6</v>
       </c>
-      <c r="L17" s="63">
-        <v>7</v>
-      </c>
-      <c r="M17" s="50"/>
+      <c r="L17" s="62">
+        <v>7</v>
+      </c>
+      <c r="M17" s="49"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
@@ -9420,14 +9459,14 @@
       <c r="B18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="17">
         <f>F18+G18+H18+I18+J18+K18+L18-M18</f>
         <v>40</v>
       </c>
-      <c r="E18" s="70"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="11">
         <v>5</v>
       </c>
@@ -9446,10 +9485,10 @@
       <c r="K18" s="11">
         <v>6</v>
       </c>
-      <c r="L18" s="64">
-        <v>6</v>
-      </c>
-      <c r="M18" s="71">
+      <c r="L18" s="63">
+        <v>6</v>
+      </c>
+      <c r="M18" s="70">
         <v>2</v>
       </c>
     </row>
@@ -9486,20 +9525,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9546,7 +9585,7 @@
       <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="15">
@@ -9583,7 +9622,7 @@
       <c r="B4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="16">
@@ -9609,7 +9648,7 @@
       <c r="K4" s="9">
         <v>7</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="68">
         <v>8</v>
       </c>
     </row>
@@ -9620,7 +9659,7 @@
       <c r="B5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="16">
@@ -9655,10 +9694,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="25" t="s">
         <v>183</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>182</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
@@ -9694,7 +9733,7 @@
       <c r="B7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="16">
@@ -9731,7 +9770,7 @@
       <c r="B8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="17">
@@ -9794,31 +9833,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>192</v>
+      <c r="C2" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -9847,19 +9886,19 @@
       <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="72" t="s">
-        <v>195</v>
+      <c r="M2" s="71" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>192</v>
+      <c r="C3" s="46" t="s">
+        <v>191</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -9884,58 +9923,58 @@
       <c r="K3" s="7">
         <v>8</v>
       </c>
-      <c r="L3" s="62">
-        <v>9</v>
-      </c>
-      <c r="M3" s="65"/>
+      <c r="L3" s="61">
+        <v>9</v>
+      </c>
+      <c r="M3" s="64"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="45">
+      <c r="C4" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="44">
         <f>SUM(F4:L4)</f>
         <v>57</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30">
-        <v>10</v>
-      </c>
-      <c r="G4" s="30">
-        <v>8</v>
-      </c>
-      <c r="H4" s="30">
-        <v>8</v>
-      </c>
-      <c r="I4" s="30">
-        <v>8</v>
-      </c>
-      <c r="J4" s="30">
-        <v>7</v>
-      </c>
-      <c r="K4" s="30">
-        <v>8</v>
-      </c>
-      <c r="L4" s="68">
-        <v>8</v>
-      </c>
-      <c r="M4" s="50"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
+        <v>10</v>
+      </c>
+      <c r="G4" s="29">
+        <v>8</v>
+      </c>
+      <c r="H4" s="29">
+        <v>8</v>
+      </c>
+      <c r="I4" s="29">
+        <v>8</v>
+      </c>
+      <c r="J4" s="29">
+        <v>7</v>
+      </c>
+      <c r="K4" s="29">
+        <v>8</v>
+      </c>
+      <c r="L4" s="67">
+        <v>8</v>
+      </c>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>192</v>
+      <c r="C5" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
@@ -9960,10 +9999,10 @@
       <c r="K5" s="9">
         <v>9</v>
       </c>
-      <c r="L5" s="63">
-        <v>7</v>
-      </c>
-      <c r="M5" s="66">
+      <c r="L5" s="62">
+        <v>7</v>
+      </c>
+      <c r="M5" s="65">
         <v>2</v>
       </c>
     </row>
@@ -9971,11 +10010,11 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>192</v>
+      <c r="C6" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
@@ -10000,20 +10039,20 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="63">
-        <v>8</v>
-      </c>
-      <c r="M6" s="50"/>
+      <c r="L6" s="62">
+        <v>8</v>
+      </c>
+      <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>192</v>
+      <c r="B7" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>191</v>
       </c>
       <c r="D7" s="17">
         <f>SUM(F7:L7)</f>
@@ -10038,10 +10077,10 @@
       <c r="K7" s="11">
         <v>7</v>
       </c>
-      <c r="L7" s="64">
-        <v>7</v>
-      </c>
-      <c r="M7" s="51"/>
+      <c r="L7" s="63">
+        <v>7</v>
+      </c>
+      <c r="M7" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M7">
@@ -10078,22 +10117,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10136,7 +10175,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -10144,9 +10183,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="15">
@@ -10175,19 +10214,19 @@
       <c r="L3" s="7">
         <v>9</v>
       </c>
-      <c r="M3" s="62">
-        <v>10</v>
-      </c>
-      <c r="N3" s="65"/>
+      <c r="M3" s="61">
+        <v>10</v>
+      </c>
+      <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="16">
@@ -10216,19 +10255,19 @@
       <c r="L4" s="9">
         <v>9</v>
       </c>
-      <c r="M4" s="63">
-        <v>9</v>
-      </c>
-      <c r="N4" s="50"/>
+      <c r="M4" s="62">
+        <v>9</v>
+      </c>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="16">
@@ -10257,60 +10296,60 @@
       <c r="L5" s="9">
         <v>10</v>
       </c>
-      <c r="M5" s="63">
-        <v>8</v>
-      </c>
-      <c r="N5" s="50"/>
+      <c r="M5" s="62">
+        <v>8</v>
+      </c>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="66">
-        <v>10</v>
-      </c>
-      <c r="G6" s="66">
-        <v>8</v>
-      </c>
-      <c r="H6" s="66">
-        <v>8</v>
-      </c>
-      <c r="I6" s="66">
-        <v>9</v>
-      </c>
-      <c r="J6" s="66">
-        <v>8</v>
-      </c>
-      <c r="K6" s="66">
-        <v>8</v>
-      </c>
-      <c r="L6" s="66">
-        <v>8</v>
-      </c>
-      <c r="M6" s="74">
-        <v>8</v>
-      </c>
-      <c r="N6" s="50"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="65">
+        <v>10</v>
+      </c>
+      <c r="G6" s="65">
+        <v>8</v>
+      </c>
+      <c r="H6" s="65">
+        <v>8</v>
+      </c>
+      <c r="I6" s="65">
+        <v>9</v>
+      </c>
+      <c r="J6" s="65">
+        <v>8</v>
+      </c>
+      <c r="K6" s="65">
+        <v>8</v>
+      </c>
+      <c r="L6" s="65">
+        <v>8</v>
+      </c>
+      <c r="M6" s="73">
+        <v>8</v>
+      </c>
+      <c r="N6" s="49"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="16">
@@ -10339,19 +10378,19 @@
       <c r="L7" s="9">
         <v>8</v>
       </c>
-      <c r="M7" s="73">
-        <v>9</v>
-      </c>
-      <c r="N7" s="50"/>
+      <c r="M7" s="72">
+        <v>9</v>
+      </c>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="16">
@@ -10380,19 +10419,19 @@
       <c r="L8" s="9">
         <v>9</v>
       </c>
-      <c r="M8" s="63">
-        <v>8</v>
-      </c>
-      <c r="N8" s="50"/>
+      <c r="M8" s="62">
+        <v>8</v>
+      </c>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="16">
@@ -10421,19 +10460,19 @@
       <c r="L9" s="9">
         <v>9</v>
       </c>
-      <c r="M9" s="73">
-        <v>8</v>
-      </c>
-      <c r="N9" s="50"/>
+      <c r="M9" s="72">
+        <v>8</v>
+      </c>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="42">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="17">
@@ -10462,10 +10501,10 @@
       <c r="L10" s="11">
         <v>8</v>
       </c>
-      <c r="M10" s="64">
-        <v>7</v>
-      </c>
-      <c r="N10" s="51"/>
+      <c r="M10" s="63">
+        <v>7</v>
+      </c>
+      <c r="N10" s="50"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N10">

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270BC71-AC46-43B8-8B0A-D687B90B481B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E849F8-A1B2-46B6-8B07-063856202418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="14" activeTab="15" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="14" activeTab="16" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -266,6 +266,40 @@
           <t xml:space="preserve">
 genero adicional menos a 30 seg
 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TECNO</author>
+  </authors>
+  <commentList>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{D4C6F97E-78A3-4AAD-AABE-A70DDF1CF5BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CARGADA SIN POCHE, EXCESO DE ACROBACIA</t>
         </r>
       </text>
     </comment>
@@ -4874,7 +4908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D675C796-FBE0-4A3C-AE52-1F243CD1E14C}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:M12"/>
     </sheetView>
   </sheetViews>
@@ -5363,11 +5397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B102081-BF9F-4B39-A50E-B8B2CCBD6642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B102081-BF9F-4B39-A50E-B8B2CCBD6642}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5431,13 +5465,13 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>194</v>
@@ -5454,33 +5488,33 @@
         <v>191</v>
       </c>
       <c r="D3" s="15">
-        <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
-        <v>0</v>
+        <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
+        <v>56</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -5494,7 +5528,7 @@
         <v>191</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D6" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
+        <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
         <v>0</v>
       </c>
       <c r="E4" s="9"/>
@@ -5534,7 +5568,7 @@
         <v>191</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
+        <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
         <v>0</v>
       </c>
       <c r="E5" s="9"/>
@@ -5574,7 +5608,7 @@
         <v>191</v>
       </c>
       <c r="D6" s="17">
-        <f t="shared" si="0"/>
+        <f>F6+G6+H6+I6+K6+L6+J6-M6</f>
         <v>0</v>
       </c>
       <c r="E6" s="11"/>
@@ -5608,6 +5642,7 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E849F8-A1B2-46B6-8B07-063856202418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50113A-0E4C-4115-A41E-9BF6FCEDF6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="14" activeTab="16" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="14" activeTab="17" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <author>TECNO</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{D4C6F97E-78A3-4AAD-AABE-A70DDF1CF5BD}">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{D4C6F97E-78A3-4AAD-AABE-A70DDF1CF5BD}">
       <text>
         <r>
           <rPr>
@@ -300,6 +300,31 @@
           </rPr>
           <t xml:space="preserve">
 CARGADA SIN POCHE, EXCESO DE ACROBACIA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{68F58ECB-C9BB-4D0F-9CF6-F87D36A586DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+EXCESO DE INTERPRETACION MUSICAL GUAGUANCO 21SEG
+</t>
         </r>
       </text>
     </comment>
@@ -5400,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B102081-BF9F-4B39-A50E-B8B2CCBD6642}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5482,27 +5507,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>191</v>
       </c>
       <c r="D3" s="15">
         <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
         <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="7">
         <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7">
         <v>7</v>
@@ -5511,10 +5536,10 @@
         <v>9</v>
       </c>
       <c r="L3" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -5522,39 +5547,39 @@
         <v>2</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>191</v>
       </c>
       <c r="D4" s="16">
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K4" s="68">
+        <v>9</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5562,39 +5587,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>191</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5602,42 +5627,45 @@
         <v>4</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>191</v>
       </c>
       <c r="D6" s="17">
         <f>F6+G6+H6+I6+K6+L6+J6-M6</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H6" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M6">
+    <sortCondition descending="1" ref="D3:D6"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
@@ -5650,8 +5678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394F48B-B19C-45C2-AECE-BC9AD5D4CB9B}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50113A-0E4C-4115-A41E-9BF6FCEDF6A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717B3AE4-C720-4874-B316-5549FDF3D8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="14" activeTab="17" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="15" activeTab="18" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -324,6 +324,41 @@
           </rPr>
           <t xml:space="preserve">
 EXCESO DE INTERPRETACION MUSICAL GUAGUANCO 21SEG
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TECNO</author>
+  </authors>
+  <commentList>
+    <comment ref="M5" authorId="0" shapeId="0" xr:uid="{1155921B-7159-40E9-A0DB-3055DCBACB1B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+acrobacia fuera de inicia, ponche o fin.
 </t>
         </r>
       </text>
@@ -5675,11 +5710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394F48B-B19C-45C2-AECE-BC9AD5D4CB9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1394F48B-B19C-45C2-AECE-BC9AD5D4CB9B}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5760,36 +5795,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D3" s="15">
         <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -5800,36 +5835,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D11" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
-        <v>0</v>
+        <f>F4+G4+H4+I4+J4+K4+L4-M4</f>
+        <v>57</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K4" s="68">
+        <v>8</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" s="9">
         <v>0</v>
@@ -5840,39 +5875,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
+        <v>57</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -5886,30 +5921,30 @@
         <v>130</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F6+G6+H6+I6+J6+K6+L6-M6</f>
+        <v>56</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="L6" s="68">
+        <v>7</v>
       </c>
       <c r="M6" s="9">
         <v>0</v>
@@ -5920,36 +5955,36 @@
         <v>5</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F7+G7+H7+I7+J7+K7+L7-M7</f>
+        <v>56</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7" s="9">
         <v>0</v>
@@ -5960,36 +5995,36 @@
         <v>6</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F8+G8+H8+I8+J8+K8+L8-M8</f>
+        <v>52</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M8" s="9">
         <v>0</v>
@@ -6000,36 +6035,36 @@
         <v>7</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F9+G9+H9+I9+J9+K9+L9-M9</f>
+        <v>52</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -6040,36 +6075,36 @@
         <v>8</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F10+G10+H10+I10+J10+K10+L10-M10</f>
+        <v>51</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10" s="9">
         <v>0</v>
@@ -6080,36 +6115,36 @@
         <v>9</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F11+G11+H11+I11+J11+K11+L11-M11</f>
+        <v>46</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="9">
         <v>0</v>
@@ -6120,10 +6155,14 @@
       <c r="C17" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M11">
+    <sortCondition descending="1" ref="D3:D11"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6131,8 +6170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39FFA4E-86D6-4557-95F4-DE21C8C50016}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6213,36 +6252,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D3" s="15">
         <f>F3+G3+H3+I3+J3+K3+L3-M3</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -6253,36 +6292,36 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D5" si="0">F4+G4+H4+I4+J4+K4+L4-M4</f>
-        <v>0</v>
+        <f>F4+G4+H4+I4+J4+K4+L4-M4</f>
+        <v>55</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M4" s="9">
         <v>0</v>
@@ -6293,36 +6332,36 @@
         <v>3</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
+        <v>52</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M5" s="11">
         <v>0</v>
@@ -6333,6 +6372,9 @@
       <c r="C11" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M5">
+    <sortCondition descending="1" ref="D3:D5"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717B3AE4-C720-4874-B316-5549FDF3D8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC59B774-7C38-4452-A822-F88545B82507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="15" activeTab="18" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="15" activeTab="19" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -367,8 +367,42 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>TECNO</author>
+  </authors>
+  <commentList>
+    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{5A0DA761-CE2A-45CA-A87F-FA9768CE87FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TECNO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CARGADA FUERA DE INICIO PONCHE O FINAL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="202">
   <si>
     <t>PAREJAS GUAGUANCO</t>
   </si>
@@ -530,9 +564,6 @@
   </si>
   <si>
     <t>ALTO VOLTAJE</t>
-  </si>
-  <si>
-    <t>TUMBAO CUBA</t>
   </si>
   <si>
     <t>EDWARD - MARIANGEL</t>
@@ -2224,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>36</v>
@@ -2255,10 +2286,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:J5)</f>
@@ -2286,10 +2317,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:J6)</f>
@@ -2405,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2413,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>36</v>
@@ -2456,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>42</v>
@@ -2499,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>52</v>
@@ -2542,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>36</v>
@@ -2585,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>42</v>
@@ -2628,7 +2659,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>52</v>
@@ -2671,10 +2702,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
@@ -2802,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2896,10 +2927,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
@@ -2939,7 +2970,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>47</v>
@@ -2982,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -3025,10 +3056,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -3068,10 +3099,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
@@ -3111,10 +3142,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
@@ -3154,7 +3185,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>36</v>
@@ -3197,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>42</v>
@@ -3240,10 +3271,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
@@ -3283,10 +3314,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
@@ -3415,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3423,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>42</v>
@@ -3466,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>53</v>
@@ -3509,7 +3540,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>42</v>
@@ -3552,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>42</v>
@@ -3595,10 +3626,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="11">
         <f>F7+G7+H7+I7+L7+M7+J7+K7-N7</f>
@@ -3723,7 +3754,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3731,10 +3762,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7">
         <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
@@ -3771,10 +3802,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="9">
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
@@ -3811,10 +3842,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="96" t="s">
         <v>101</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>102</v>
       </c>
       <c r="D5" s="29">
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
@@ -3851,7 +3882,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>42</v>
@@ -3891,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>42</v>
@@ -3931,7 +3962,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>51</v>
@@ -3971,10 +4002,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9">
         <f>F9+G9+H9+I9+K9+L9+J9-M9</f>
@@ -4011,10 +4042,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="9">
         <f>F10+G10+H10+I10+K10+L10+J10-M10</f>
@@ -4051,10 +4082,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="9">
         <f>F11+G11+H11+I11+K11+L11+J11-M11</f>
@@ -4091,10 +4122,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="9">
         <f>F12+G12+H12+I12+K12+L12+J12-M12</f>
@@ -4131,10 +4162,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="9">
         <f>F13+G13+H13+I13+K13+L13+J13-M13</f>
@@ -4171,10 +4202,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="11">
         <f>F14+G14+H14+I14+K14+L14+J14-M14</f>
@@ -4266,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>4</v>
@@ -4296,7 +4327,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4307,7 +4338,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="7">
         <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
@@ -4347,7 +4378,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="9">
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
@@ -4387,7 +4418,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="11">
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
@@ -4435,7 +4466,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,7 +4541,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4518,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7">
         <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
@@ -4558,10 +4589,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9">
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
@@ -4598,10 +4629,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="9">
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
@@ -4635,10 +4666,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>52</v>
@@ -4675,10 +4706,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>52</v>
@@ -4715,13 +4746,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="9">
         <f>F8+G8+H8+I8+K8+L8+J8-M8</f>
@@ -4755,10 +4786,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>50</v>
@@ -4798,10 +4829,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>110</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>111</v>
       </c>
       <c r="D10" s="9">
         <f>F10+G10+H10+I10+K10+L10+J10-M10</f>
@@ -4838,10 +4869,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D11" s="9">
         <f>F11+G11+H11+I11+K11+L11+J11-M11</f>
@@ -4878,7 +4909,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="55" t="s">
         <v>52</v>
@@ -4918,10 +4949,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="11">
         <f>F13+G13+H13+I13+K13+L13+J13-M13</f>
@@ -4954,8 +4985,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M13">
-    <sortCondition descending="1" ref="D3:D13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A13">
+    <sortCondition ref="A4:A13"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -5042,7 +5073,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5050,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="103" t="s">
         <v>52</v>
@@ -5090,10 +5121,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="9">
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
@@ -5130,10 +5161,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="9">
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
@@ -5170,7 +5201,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>52</v>
@@ -5210,7 +5241,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>52</v>
@@ -5250,10 +5281,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="9">
         <f>F8+G8+H8+I8+K8+L8+J8-M8</f>
@@ -5290,7 +5321,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>52</v>
@@ -5330,10 +5361,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="9">
         <f>F10+G10+H10+I10+K10+L10+J10-M10</f>
@@ -5370,7 +5401,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>52</v>
@@ -5410,10 +5441,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="11">
         <f>F12+G12+H12+I12+K12+L12+J12-M12</f>
@@ -5504,7 +5535,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -5534,7 +5565,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5542,10 +5573,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="15">
         <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
@@ -5585,7 +5616,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="16">
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
@@ -5625,7 +5656,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
@@ -5665,7 +5696,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="17">
         <f>F6+G6+H6+I6+K6+L6+J6-M6</f>
@@ -5714,7 +5745,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="F5" sqref="F5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5787,7 +5818,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -5795,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>50</v>
@@ -5835,10 +5866,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="16">
         <f>F4+G4+H4+I4+J4+K4+L4-M4</f>
@@ -5875,10 +5906,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
@@ -5915,10 +5946,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="16">
         <f>F6+G6+H6+I6+J6+K6+L6-M6</f>
@@ -5955,10 +5986,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="16">
         <f>F7+G7+H7+I7+J7+K7+L7-M7</f>
@@ -5995,7 +6026,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>50</v>
@@ -6035,10 +6066,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="16">
         <f>F9+G9+H9+I9+J9+K9+L9-M9</f>
@@ -6075,10 +6106,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>129</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>130</v>
       </c>
       <c r="D10" s="16">
         <f>F10+G10+H10+I10+J10+K10+L10-M10</f>
@@ -6115,10 +6146,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="16">
         <f>F11+G11+H11+I11+J11+K11+L11-M11</f>
@@ -6170,7 +6201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39FFA4E-86D6-4557-95F4-DE21C8C50016}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6191,7 +6222,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
@@ -6244,7 +6275,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6252,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>50</v>
@@ -6292,7 +6323,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>42</v>
@@ -6332,7 +6363,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
@@ -6575,7 +6606,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>52</v>
@@ -6606,7 +6637,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>38</v>
@@ -6730,7 +6761,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>38</v>
@@ -6761,10 +6792,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
@@ -6800,26 +6831,28 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDEA901-26C0-41C5-B438-AE40E4689819}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDEA901-26C0-41C5-B438-AE40E4689819}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6870,19 +6903,19 @@
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6890,39 +6923,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D3" s="15">
-        <f>F3+G3+H3+I3+J3+K3+L3+M3-N3</f>
-        <v>0</v>
+        <f>F3+G3+H3+I3+L3+M3+J3+K3-N3</f>
+        <v>70</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="7">
         <v>0</v>
@@ -6933,39 +6966,39 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D15" si="0">F4+G4+H4+I4+J4+K4+L4+M4-N4</f>
-        <v>0</v>
+        <f>F4+G4+H4+I4+L4+M4+J4+K4-N4</f>
+        <v>68</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9">
-        <v>0</v>
+      <c r="F4" s="68">
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="9">
         <v>0</v>
@@ -6976,39 +7009,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F5+G5+H5+I5+L5+M5+J5+K5-N5</f>
+        <v>68</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="9">
         <v>0</v>
@@ -7019,39 +7052,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F6+G6+H6+I6+L6+M6+J6+K6-N6</f>
+        <v>65</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N6" s="9">
         <v>0</v>
@@ -7062,39 +7095,39 @@
         <v>5</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F7+G7+H7+I7+L7+M7+J7+K7-N7</f>
+        <v>64</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="9">
         <v>0</v>
@@ -7105,39 +7138,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F8+G8+H8+I8+L8+M8+J8+K8-N8</f>
+        <v>62</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="M8" s="68">
+        <v>8</v>
       </c>
       <c r="N8" s="9">
         <v>0</v>
@@ -7148,39 +7181,39 @@
         <v>7</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F9+G9+H9+I9+L9+M9+J9+K9-N9</f>
+        <v>62</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N9" s="9">
         <v>0</v>
@@ -7191,39 +7224,39 @@
         <v>8</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F10+G10+H10+I10+L10+M10+J10+K10-N10</f>
+        <v>61</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
@@ -7234,39 +7267,39 @@
         <v>9</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F11+G11+H11+I11+L11+M11+J11+K11-N11</f>
+        <v>61</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N11" s="9">
         <v>0</v>
@@ -7277,42 +7310,42 @@
         <v>10</v>
       </c>
       <c r="B12" s="90" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F12+G12+H12+I12+L12+M12+J12+K12-N12</f>
+        <v>59</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N12" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7323,36 +7356,36 @@
         <v>143</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F13+G13+H13+I13+L13+M13+J13+K13-N13</f>
+        <v>57</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N13" s="9">
         <v>0</v>
@@ -7363,39 +7396,39 @@
         <v>12</v>
       </c>
       <c r="B14" s="90" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F14+G14+H14+I14+L14+M14+J14+K14-N14</f>
+        <v>55</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N14" s="9">
         <v>0</v>
@@ -7406,13 +7439,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="0"/>
+        <f>F15+G15+H15+I15+L15+M15+J15+K15-N15</f>
         <v>0</v>
       </c>
       <c r="E15" s="11"/>
@@ -7445,10 +7478,14 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:N15">
+    <sortCondition descending="1" ref="D3:D15"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7526,7 +7563,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7571,7 +7608,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>36</v>
@@ -7608,7 +7645,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>36</v>
@@ -7682,7 +7719,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>36</v>
@@ -7719,7 +7756,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>36</v>
@@ -7756,7 +7793,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>36</v>
@@ -7793,7 +7830,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>52</v>
@@ -7830,7 +7867,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>51</v>
@@ -7867,10 +7904,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="0"/>
@@ -7904,7 +7941,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>52</v>
@@ -7941,7 +7978,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>50</v>
@@ -7978,10 +8015,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" si="0"/>
@@ -8098,7 +8135,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -8136,7 +8173,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(F3:L3)</f>
@@ -8173,7 +8210,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="9">
         <f>SUM(F4:L4)</f>
@@ -8207,10 +8244,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="9">
         <f>SUM(F5:L5)</f>
@@ -8247,7 +8284,7 @@
         <v>45</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="11">
         <f>SUM(F6:L6)</f>
@@ -8336,7 +8373,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>4</v>
@@ -8366,7 +8403,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -8377,7 +8414,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -8415,7 +8452,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="16">
         <f>F4+G4+H4+I4+J4+K4+L4-M4</f>
@@ -8452,10 +8489,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
@@ -8492,10 +8529,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>190</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>191</v>
       </c>
       <c r="D6" s="17">
         <f>SUM(F6:L6)</f>
@@ -8625,7 +8662,7 @@
         <v>9</v>
       </c>
       <c r="O2" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -8633,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>36</v>
@@ -8677,7 +8714,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>36</v>
@@ -8721,7 +8758,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>52</v>
@@ -8765,10 +8802,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:N6)</f>
@@ -8809,7 +8846,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>42</v>
@@ -8855,7 +8892,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>36</v>
@@ -8949,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -8982,7 +9019,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -9028,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>36</v>
@@ -9066,7 +9103,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>42</v>
@@ -9104,7 +9141,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>51</v>
@@ -9180,10 +9217,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>64</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" si="0"/>
@@ -9218,7 +9255,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>36</v>
@@ -9256,7 +9293,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>53</v>
@@ -9294,10 +9331,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" si="0"/>
@@ -9332,10 +9369,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="0"/>
@@ -9370,7 +9407,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>40</v>
@@ -9408,7 +9445,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>42</v>
@@ -9446,10 +9483,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="16">
         <f>F15+G15+H15+I15+J15+K15+L15-M15</f>
@@ -9486,10 +9523,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>69</v>
       </c>
       <c r="D16" s="16">
         <f>SUM(F16:L16)</f>
@@ -9524,7 +9561,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>36</v>
@@ -9562,7 +9599,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>45</v>
@@ -9650,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -9688,10 +9725,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="15">
         <f t="shared" ref="D3:D8" si="0">SUM(F3:L3)</f>
@@ -9725,10 +9762,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="D4" s="16">
         <f t="shared" si="0"/>
@@ -9762,10 +9799,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" si="0"/>
@@ -9799,10 +9836,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" si="0"/>
@@ -9836,7 +9873,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>36</v>
@@ -9873,7 +9910,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>36</v>
@@ -9962,7 +9999,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -9992,7 +10029,7 @@
         <v>32</v>
       </c>
       <c r="M2" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -10003,7 +10040,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" s="15">
         <f>SUM(F3:L3)</f>
@@ -10041,7 +10078,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="44">
         <f>SUM(F4:L4)</f>
@@ -10079,7 +10116,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="16">
         <f>F5+G5+H5+I5+J5+K5+L5-M5</f>
@@ -10119,7 +10156,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(F6:L6)</f>
@@ -10154,10 +10191,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="17">
         <f>SUM(F7:L7)</f>
@@ -10280,7 +10317,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -10288,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>42</v>
@@ -10329,7 +10366,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>42</v>
@@ -10370,7 +10407,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>51</v>
@@ -10411,7 +10448,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>36</v>
@@ -10452,10 +10489,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="0"/>
@@ -10493,10 +10530,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" si="0"/>
@@ -10534,7 +10571,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>42</v>
@@ -10575,7 +10612,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>36</v>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC59B774-7C38-4452-A822-F88545B82507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEFDC8-8587-4982-8863-0BDD5886B43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="15" activeTab="19" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="15" activeTab="20" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PAREJAS GUAGUANCO" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
     <author>TECNO</author>
   </authors>
   <commentList>
-    <comment ref="N12" authorId="0" shapeId="0" xr:uid="{5A0DA761-CE2A-45CA-A87F-FA9768CE87FB}">
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{5A0DA761-CE2A-45CA-A87F-FA9768CE87FB}">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,6 +1100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1710,9 +1716,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1816,9 +1819,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1842,6 +1842,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2174,18 +2189,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2378,22 +2393,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2503,7 +2518,7 @@
       <c r="G4" s="9">
         <v>7</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="67">
         <v>7</v>
       </c>
       <c r="I4" s="9">
@@ -2775,22 +2790,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2811,28 +2826,28 @@
       <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="66" t="s">
+      <c r="G2" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="66" t="s">
+      <c r="K2" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="65" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2840,10 +2855,10 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="29">
@@ -2903,7 +2918,7 @@
       <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="73">
         <v>9</v>
       </c>
       <c r="J4" s="7">
@@ -2992,7 +3007,7 @@
       <c r="I6" s="9">
         <v>9</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="67">
         <v>9</v>
       </c>
       <c r="K6" s="9">
@@ -3164,7 +3179,7 @@
       <c r="I10" s="9">
         <v>8</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="67">
         <v>9</v>
       </c>
       <c r="K10" s="9">
@@ -3388,22 +3403,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3700,30 +3715,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="53" t="s">
@@ -3735,25 +3750,25 @@
       <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="66" t="s">
+      <c r="G2" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="65" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3772,7 +3787,7 @@
         <v>69</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="99">
+      <c r="F3" s="97">
         <v>10</v>
       </c>
       <c r="G3" s="7">
@@ -3811,7 +3826,7 @@
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
         <v>69</v>
       </c>
-      <c r="E4" s="98"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="9">
         <v>10</v>
       </c>
@@ -3841,10 +3856,10 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="94" t="s">
         <v>101</v>
       </c>
       <c r="D5" s="29">
@@ -3861,7 +3876,7 @@
       <c r="H5" s="29">
         <v>9</v>
       </c>
-      <c r="I5" s="97">
+      <c r="I5" s="95">
         <v>10</v>
       </c>
       <c r="J5" s="29">
@@ -3978,7 +3993,7 @@
       <c r="G8" s="9">
         <v>7</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="67">
         <v>10</v>
       </c>
       <c r="I8" s="9">
@@ -4107,7 +4122,7 @@
       <c r="J11" s="9">
         <v>9</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="67">
         <v>7</v>
       </c>
       <c r="L11" s="9">
@@ -4273,30 +4288,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="85" t="s">
         <v>190</v>
       </c>
       <c r="D2" s="53" t="s">
@@ -4308,25 +4323,25 @@
       <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="66" t="s">
+      <c r="G2" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="65" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4360,7 +4375,7 @@
       <c r="J3" s="7">
         <v>7</v>
       </c>
-      <c r="K3" s="74">
+      <c r="K3" s="73">
         <v>9</v>
       </c>
       <c r="L3" s="7">
@@ -4487,21 +4502,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
@@ -4545,20 +4560,20 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="102">
+      <c r="A3" s="100">
         <v>1</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="101" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="7">
         <f>F3+G3+H3+I3+K3+L3+J3-M3</f>
         <v>60</v>
       </c>
-      <c r="E3" s="100"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="7">
         <v>10</v>
       </c>
@@ -4598,7 +4613,7 @@
         <f>F4+G4+H4+I4+K4+L4+J4-M4</f>
         <v>52</v>
       </c>
-      <c r="E4" s="98"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="9">
         <v>7</v>
       </c>
@@ -4617,7 +4632,7 @@
       <c r="K4" s="9">
         <v>8</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="67">
         <v>8</v>
       </c>
       <c r="M4" s="9">
@@ -4638,7 +4653,7 @@
         <f>F5+G5+H5+I5+K5+L5+J5-M5</f>
         <v>52</v>
       </c>
-      <c r="E5" s="98"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="9">
         <v>7</v>
       </c>
@@ -4657,7 +4672,7 @@
       <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="68">
+      <c r="L5" s="67">
         <v>8</v>
       </c>
       <c r="M5" s="9">
@@ -4678,7 +4693,7 @@
         <f>F6+G6+H6+I6+K6+L6+J6-M6</f>
         <v>52</v>
       </c>
-      <c r="E6" s="98"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="9">
         <v>10</v>
       </c>
@@ -4718,7 +4733,7 @@
         <f>F7+G7+H7+I7+K7+L7+J7-M7</f>
         <v>49</v>
       </c>
-      <c r="E7" s="98"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="9">
         <v>7</v>
       </c>
@@ -4758,7 +4773,7 @@
         <f>F8+G8+H8+I8+K8+L8+J8-M8</f>
         <v>49</v>
       </c>
-      <c r="E8" s="98"/>
+      <c r="E8" s="96"/>
       <c r="F8" s="9">
         <v>7</v>
       </c>
@@ -4798,7 +4813,7 @@
         <f>F9+G9+H9+I9+K9+L9+J9-M9</f>
         <v>49</v>
       </c>
-      <c r="E9" s="98"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="9">
         <v>7</v>
       </c>
@@ -4838,7 +4853,7 @@
         <f>F10+G10+H10+I10+K10+L10+J10-M10</f>
         <v>49</v>
       </c>
-      <c r="E10" s="98"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="9">
         <v>10</v>
       </c>
@@ -4878,7 +4893,7 @@
         <f>F11+G11+H11+I11+K11+L11+J11-M11</f>
         <v>46</v>
       </c>
-      <c r="E11" s="98"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="9">
         <v>7</v>
       </c>
@@ -4918,7 +4933,7 @@
         <f>F12+G12+H12+I12+K12+L12+J12-M12</f>
         <v>45</v>
       </c>
-      <c r="E12" s="98"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="9">
         <v>5</v>
       </c>
@@ -4958,7 +4973,7 @@
         <f>F13+G13+H13+I13+K13+L13+J13-M13</f>
         <v>44</v>
       </c>
-      <c r="E13" s="101"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="11">
         <v>7</v>
       </c>
@@ -5019,21 +5034,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5042,7 +5057,7 @@
       <c r="B2" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5080,10 +5095,10 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="101" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="7">
@@ -5511,30 +5526,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="87" t="s">
         <v>190</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5638,7 +5653,7 @@
       <c r="J4" s="9">
         <v>7</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="67">
         <v>9</v>
       </c>
       <c r="L4" s="9">
@@ -5764,21 +5779,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -5825,7 +5840,7 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="54" t="s">
@@ -5865,7 +5880,7 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="89" t="s">
         <v>176</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -5891,7 +5906,7 @@
       <c r="J4" s="9">
         <v>8</v>
       </c>
-      <c r="K4" s="68">
+      <c r="K4" s="67">
         <v>8</v>
       </c>
       <c r="L4" s="9">
@@ -5905,7 +5920,7 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="89" t="s">
         <v>134</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -5945,7 +5960,7 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="90" t="s">
         <v>188</v>
       </c>
       <c r="C6" s="55" t="s">
@@ -5974,7 +5989,7 @@
       <c r="K6" s="9">
         <v>9</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="67">
         <v>7</v>
       </c>
       <c r="M6" s="9">
@@ -5985,7 +6000,7 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="89" t="s">
         <v>175</v>
       </c>
       <c r="C7" s="55" t="s">
@@ -6025,7 +6040,7 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="89" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="55" t="s">
@@ -6065,7 +6080,7 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="89" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="55" t="s">
@@ -6105,7 +6120,7 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="89" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="55" t="s">
@@ -6145,7 +6160,7 @@
       <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="91" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="56" t="s">
@@ -6221,21 +6236,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6282,7 +6297,7 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="54" t="s">
@@ -6322,7 +6337,7 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="89" t="s">
         <v>198</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -6362,7 +6377,7 @@
       <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="91" t="s">
         <v>200</v>
       </c>
       <c r="C5" s="56" t="s">
@@ -6432,18 +6447,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6834,8 +6849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDEA901-26C0-41C5-B438-AE40E4689819}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,22 +6872,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -6922,7 +6937,7 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>135</v>
       </c>
       <c r="C3" s="54" t="s">
@@ -6965,7 +6980,7 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="89" t="s">
         <v>142</v>
       </c>
       <c r="C4" s="55" t="s">
@@ -6976,7 +6991,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="68">
+      <c r="F4" s="67">
         <v>10</v>
       </c>
       <c r="G4" s="9">
@@ -7008,7 +7023,7 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="89" t="s">
         <v>136</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -7051,7 +7066,7 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="89" t="s">
         <v>184</v>
       </c>
       <c r="C6" s="55" t="s">
@@ -7094,7 +7109,7 @@
       <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="89" t="s">
         <v>141</v>
       </c>
       <c r="C7" s="55" t="s">
@@ -7137,40 +7152,40 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>138</v>
+      <c r="B8" s="89" t="s">
+        <v>144</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D8" s="16">
         <f>F8+G8+H8+I8+L8+M8+J8+K8-N8</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="9">
         <v>7</v>
       </c>
       <c r="I8" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="9">
         <v>7</v>
       </c>
       <c r="K8" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L8" s="9">
         <v>8</v>
       </c>
-      <c r="M8" s="68">
-        <v>8</v>
+      <c r="M8" s="9">
+        <v>7</v>
       </c>
       <c r="N8" s="9">
         <v>0</v>
@@ -7180,11 +7195,11 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="s">
-        <v>180</v>
+      <c r="B9" s="89" t="s">
+        <v>138</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="D9" s="16">
         <f>F9+G9+H9+I9+L9+M9+J9+K9-N9</f>
@@ -7192,28 +7207,28 @@
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="9">
         <v>7</v>
       </c>
       <c r="H9" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="9">
         <v>7</v>
       </c>
       <c r="K9" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="9">
-        <v>7</v>
-      </c>
-      <c r="M9" s="9">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="M9" s="67">
+        <v>8</v>
       </c>
       <c r="N9" s="9">
         <v>0</v>
@@ -7223,25 +7238,25 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="90" t="s">
-        <v>137</v>
+      <c r="B10" s="89" t="s">
+        <v>180</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="D10" s="16">
         <f>F10+G10+H10+I10+L10+M10+J10+K10-N10</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="9">
         <v>7</v>
       </c>
       <c r="H10" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="9">
         <v>8</v>
@@ -7250,13 +7265,13 @@
         <v>7</v>
       </c>
       <c r="K10" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M10" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
@@ -7266,11 +7281,11 @@
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="90" t="s">
-        <v>177</v>
+      <c r="B11" s="89" t="s">
+        <v>137</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D11" s="16">
         <f>F11+G11+H11+I11+L11+M11+J11+K11-N11</f>
@@ -7278,7 +7293,7 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="9">
         <v>7</v>
@@ -7290,7 +7305,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" s="9">
         <v>7</v>
@@ -7309,15 +7324,15 @@
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>140</v>
+      <c r="B12" s="89" t="s">
+        <v>177</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="D12" s="16">
         <f>F12+G12+H12+I12+L12+M12+J12+K12-N12</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
@@ -7330,41 +7345,41 @@
         <v>7</v>
       </c>
       <c r="I12" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" s="9">
         <v>7</v>
       </c>
       <c r="L12" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M12" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N12" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="90" t="s">
-        <v>143</v>
+      <c r="B13" s="89" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="D13" s="16">
         <f>F13+G13+H13+I13+L13+M13+J13+K13-N13</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="9">
         <v>7</v>
@@ -7373,7 +7388,7 @@
         <v>7</v>
       </c>
       <c r="I13" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J13" s="9">
         <v>7</v>
@@ -7388,41 +7403,41 @@
         <v>7</v>
       </c>
       <c r="N13" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="90" t="s">
-        <v>139</v>
+      <c r="B14" s="89" t="s">
+        <v>143</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D14" s="16">
         <f>F14+G14+H14+I14+L14+M14+J14+K14-N14</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="9">
         <v>7</v>
       </c>
       <c r="K14" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L14" s="9">
         <v>7</v>
@@ -7438,40 +7453,40 @@
       <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="92" t="s">
-        <v>144</v>
+      <c r="B15" s="91" t="s">
+        <v>139</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D15" s="17">
         <f>F15+G15+H15+I15+L15+M15+J15+K15-N15</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J15" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K15" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M15" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N15" s="11">
         <v>0</v>
@@ -7493,8 +7508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB67CF2-EE9A-43D1-97E0-98D4A8CEBB5B}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7513,20 +7528,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -7551,18 +7566,18 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="84" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7570,34 +7585,34 @@
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="101" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="15">
-        <f>F3+G3+H3+I3+J3+K3-L3</f>
-        <v>0</v>
+        <f>F3+G3+J3+K3+H3+I3-L3</f>
+        <v>52</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" s="7">
         <v>0</v>
@@ -7607,34 +7622,34 @@
       <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
-        <v>94</v>
+      <c r="B4" s="89" t="s">
+        <v>69</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" ref="D4:D16" si="0">F4+G4+H4+I4+J4+K4-L4</f>
-        <v>0</v>
+        <f>F4+G4+J4+K4+H4+I4-L4</f>
+        <v>47</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K4" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
@@ -7644,34 +7659,34 @@
       <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>69</v>
+      <c r="B5" s="89" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F5+G5+J5+K5+H5+I5-L5</f>
+        <v>46</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -7681,34 +7696,34 @@
       <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="90" t="s">
-        <v>41</v>
+      <c r="B6" s="89" t="s">
+        <v>94</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F6+G6+J6+K6+H6+I6-L6</f>
+        <v>45</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I6" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K6" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -7719,33 +7734,33 @@
         <v>5</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>36</v>
+        <v>148</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F7+G7+J7+K7+H7+I7-L7</f>
+        <v>45</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -7755,34 +7770,34 @@
       <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="90" t="s">
-        <v>146</v>
+      <c r="B8" s="89" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F8+G8+J8+K8+H8+I8-L8</f>
+        <v>44</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -7792,34 +7807,34 @@
       <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="s">
-        <v>145</v>
+      <c r="B9" s="89" t="s">
+        <v>77</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F9+G9+J9+K9+H9+I9-L9</f>
+        <v>44</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
@@ -7829,34 +7844,34 @@
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="90" t="s">
-        <v>179</v>
+      <c r="B10" s="89" t="s">
+        <v>145</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F10+G10+J10+K10+H10+I10-L10</f>
+        <v>43</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -7866,34 +7881,34 @@
       <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="90" t="s">
-        <v>178</v>
+      <c r="B11" s="89" t="s">
+        <v>179</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F11+G11+J11+K11+H11+I11-L11</f>
+        <v>43</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I11" s="9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -7903,34 +7918,34 @@
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>147</v>
+      <c r="B12" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F12+G12+J12+K12+H12+I12-L12</f>
+        <v>42</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J12" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -7940,34 +7955,34 @@
       <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="90" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F13+G13+J13+K13+H13+I13-L13</f>
+        <v>41</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K13" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -7977,34 +7992,34 @@
       <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="91" t="s">
-        <v>148</v>
+      <c r="B14" s="90" t="s">
+        <v>87</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F14+G14+J14+K14+H14+I14-L14</f>
+        <v>41</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J14" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -8014,34 +8029,34 @@
       <c r="A15" s="13">
         <v>13</v>
       </c>
-      <c r="B15" s="91" t="s">
-        <v>87</v>
+      <c r="B15" s="90" t="s">
+        <v>83</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="D15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>F15+G15+J15+K15+H15+I15-L15</f>
+        <v>39</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I15" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J15" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
@@ -8051,40 +8066,43 @@
       <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="17">
-        <f t="shared" si="0"/>
+      <c r="B16" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="105">
+        <f>F16+G16+J16+K16+H16+I16-L16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11">
+      <c r="E16" s="106"/>
+      <c r="F16" s="106">
         <v>0</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="106">
         <v>0</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="106">
         <v>0</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="106">
         <v>0</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="106">
         <v>0</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="106">
         <v>0</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="106">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L16">
+    <sortCondition descending="1" ref="D3:D16"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
@@ -8112,20 +8130,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8314,7 +8332,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
+      <c r="B7" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:L6">
@@ -8349,21 +8367,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8439,10 +8457,10 @@
       <c r="K3" s="7">
         <v>7</v>
       </c>
-      <c r="L3" s="61">
-        <v>8</v>
-      </c>
-      <c r="M3" s="64"/>
+      <c r="L3" s="60">
+        <v>8</v>
+      </c>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -8477,10 +8495,10 @@
       <c r="K4" s="9">
         <v>6</v>
       </c>
-      <c r="L4" s="62">
-        <v>7</v>
-      </c>
-      <c r="M4" s="65">
+      <c r="L4" s="61">
+        <v>7</v>
+      </c>
+      <c r="M4" s="64">
         <v>2</v>
       </c>
     </row>
@@ -8517,10 +8535,10 @@
       <c r="K5" s="9">
         <v>7</v>
       </c>
-      <c r="L5" s="62">
-        <v>7</v>
-      </c>
-      <c r="M5" s="65">
+      <c r="L5" s="61">
+        <v>7</v>
+      </c>
+      <c r="M5" s="64">
         <v>2</v>
       </c>
     </row>
@@ -8557,13 +8575,13 @@
       <c r="K6" s="11">
         <v>6</v>
       </c>
-      <c r="L6" s="63">
+      <c r="L6" s="62">
         <v>6</v>
       </c>
       <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
+      <c r="B7" s="59"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M6">
@@ -8601,22 +8619,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:15" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -8661,7 +8679,7 @@
       <c r="N2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="65" t="s">
         <v>193</v>
       </c>
     </row>
@@ -8704,7 +8722,7 @@
       <c r="M3" s="7">
         <v>7</v>
       </c>
-      <c r="N3" s="61">
+      <c r="N3" s="60">
         <v>7</v>
       </c>
       <c r="O3" s="51"/>
@@ -8748,7 +8766,7 @@
       <c r="M4" s="9">
         <v>7</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="61">
         <v>8</v>
       </c>
       <c r="O4" s="49"/>
@@ -8777,7 +8795,7 @@
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="67">
         <v>7</v>
       </c>
       <c r="J5" s="9">
@@ -8792,7 +8810,7 @@
       <c r="M5" s="9">
         <v>7</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="61">
         <v>7</v>
       </c>
       <c r="O5" s="49"/>
@@ -8836,7 +8854,7 @@
       <c r="M6" s="9">
         <v>8</v>
       </c>
-      <c r="N6" s="62">
+      <c r="N6" s="61">
         <v>7</v>
       </c>
       <c r="O6" s="49"/>
@@ -8880,10 +8898,10 @@
       <c r="M7" s="9">
         <v>7</v>
       </c>
-      <c r="N7" s="62">
-        <v>7</v>
-      </c>
-      <c r="O7" s="65">
+      <c r="N7" s="61">
+        <v>7</v>
+      </c>
+      <c r="O7" s="64">
         <v>2</v>
       </c>
     </row>
@@ -8926,7 +8944,7 @@
       <c r="M8" s="11">
         <v>7</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="62">
         <v>6</v>
       </c>
       <c r="O8" s="50"/>
@@ -8965,21 +8983,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9055,10 +9073,10 @@
       <c r="K3" s="7">
         <v>9</v>
       </c>
-      <c r="L3" s="61">
-        <v>10</v>
-      </c>
-      <c r="M3" s="64"/>
+      <c r="L3" s="60">
+        <v>10</v>
+      </c>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -9093,7 +9111,7 @@
       <c r="K4" s="9">
         <v>9</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="61">
         <v>9</v>
       </c>
       <c r="M4" s="49"/>
@@ -9119,7 +9137,7 @@
       <c r="G5" s="9">
         <v>8</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="67">
         <v>9</v>
       </c>
       <c r="I5" s="9">
@@ -9131,7 +9149,7 @@
       <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="61">
         <v>8</v>
       </c>
       <c r="M5" s="49"/>
@@ -9169,7 +9187,7 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="61">
         <v>8</v>
       </c>
       <c r="M6" s="49"/>
@@ -9207,7 +9225,7 @@
       <c r="K7" s="9">
         <v>9</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="61">
         <v>8</v>
       </c>
       <c r="M7" s="49"/>
@@ -9245,7 +9263,7 @@
       <c r="K8" s="9">
         <v>7</v>
       </c>
-      <c r="L8" s="62">
+      <c r="L8" s="61">
         <v>8</v>
       </c>
       <c r="M8" s="49"/>
@@ -9283,7 +9301,7 @@
       <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="61">
         <v>8</v>
       </c>
       <c r="M9" s="49"/>
@@ -9321,7 +9339,7 @@
       <c r="K10" s="9">
         <v>7</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="61">
         <v>8</v>
       </c>
       <c r="M10" s="49"/>
@@ -9359,7 +9377,7 @@
       <c r="K11" s="9">
         <v>7</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="61">
         <v>7</v>
       </c>
       <c r="M11" s="49"/>
@@ -9397,7 +9415,7 @@
       <c r="K12" s="9">
         <v>7</v>
       </c>
-      <c r="L12" s="62">
+      <c r="L12" s="61">
         <v>7</v>
       </c>
       <c r="M12" s="49"/>
@@ -9423,7 +9441,7 @@
       <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="67">
         <v>7</v>
       </c>
       <c r="I13" s="9">
@@ -9435,7 +9453,7 @@
       <c r="K13" s="9">
         <v>7</v>
       </c>
-      <c r="L13" s="62">
+      <c r="L13" s="61">
         <v>6</v>
       </c>
       <c r="M13" s="49"/>
@@ -9473,7 +9491,7 @@
       <c r="K14" s="9">
         <v>7</v>
       </c>
-      <c r="L14" s="62">
+      <c r="L14" s="61">
         <v>6</v>
       </c>
       <c r="M14" s="49"/>
@@ -9499,7 +9517,7 @@
       <c r="G15" s="9">
         <v>7</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="67">
         <v>7</v>
       </c>
       <c r="I15" s="9">
@@ -9511,10 +9529,10 @@
       <c r="K15" s="9">
         <v>7</v>
       </c>
-      <c r="L15" s="62">
-        <v>7</v>
-      </c>
-      <c r="M15" s="65">
+      <c r="L15" s="61">
+        <v>7</v>
+      </c>
+      <c r="M15" s="64">
         <v>2</v>
       </c>
     </row>
@@ -9551,7 +9569,7 @@
       <c r="K16" s="9">
         <v>7</v>
       </c>
-      <c r="L16" s="62">
+      <c r="L16" s="61">
         <v>7</v>
       </c>
       <c r="M16" s="49"/>
@@ -9589,7 +9607,7 @@
       <c r="K17" s="9">
         <v>6</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="61">
         <v>7</v>
       </c>
       <c r="M17" s="49"/>
@@ -9608,7 +9626,7 @@
         <f>F18+G18+H18+I18+J18+K18+L18-M18</f>
         <v>40</v>
       </c>
-      <c r="E18" s="69"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="11">
         <v>5</v>
       </c>
@@ -9627,10 +9645,10 @@
       <c r="K18" s="11">
         <v>6</v>
       </c>
-      <c r="L18" s="63">
-        <v>6</v>
-      </c>
-      <c r="M18" s="70">
+      <c r="L18" s="62">
+        <v>6</v>
+      </c>
+      <c r="M18" s="69">
         <v>2</v>
       </c>
     </row>
@@ -9667,20 +9685,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9790,7 +9808,7 @@
       <c r="K4" s="9">
         <v>7</v>
       </c>
-      <c r="L4" s="68">
+      <c r="L4" s="67">
         <v>8</v>
       </c>
     </row>
@@ -9975,21 +9993,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10028,7 +10046,7 @@
       <c r="L2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="70" t="s">
         <v>193</v>
       </c>
     </row>
@@ -10065,10 +10083,10 @@
       <c r="K3" s="7">
         <v>8</v>
       </c>
-      <c r="L3" s="61">
-        <v>9</v>
-      </c>
-      <c r="M3" s="64"/>
+      <c r="L3" s="60">
+        <v>9</v>
+      </c>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
@@ -10103,7 +10121,7 @@
       <c r="K4" s="29">
         <v>8</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="66">
         <v>8</v>
       </c>
       <c r="M4" s="49"/>
@@ -10141,10 +10159,10 @@
       <c r="K5" s="9">
         <v>9</v>
       </c>
-      <c r="L5" s="62">
-        <v>7</v>
-      </c>
-      <c r="M5" s="65">
+      <c r="L5" s="61">
+        <v>7</v>
+      </c>
+      <c r="M5" s="64">
         <v>2</v>
       </c>
     </row>
@@ -10181,7 +10199,7 @@
       <c r="K6" s="9">
         <v>8</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="61">
         <v>8</v>
       </c>
       <c r="M6" s="49"/>
@@ -10219,7 +10237,7 @@
       <c r="K7" s="11">
         <v>7</v>
       </c>
-      <c r="L7" s="63">
+      <c r="L7" s="62">
         <v>7</v>
       </c>
       <c r="M7" s="50"/>
@@ -10259,22 +10277,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10356,10 +10374,10 @@
       <c r="L3" s="7">
         <v>9</v>
       </c>
-      <c r="M3" s="61">
-        <v>10</v>
-      </c>
-      <c r="N3" s="64"/>
+      <c r="M3" s="60">
+        <v>10</v>
+      </c>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
@@ -10397,7 +10415,7 @@
       <c r="L4" s="9">
         <v>9</v>
       </c>
-      <c r="M4" s="62">
+      <c r="M4" s="61">
         <v>9</v>
       </c>
       <c r="N4" s="49"/>
@@ -10438,7 +10456,7 @@
       <c r="L5" s="9">
         <v>10</v>
       </c>
-      <c r="M5" s="62">
+      <c r="M5" s="61">
         <v>8</v>
       </c>
       <c r="N5" s="49"/>
@@ -10458,28 +10476,28 @@
         <v>67</v>
       </c>
       <c r="E6" s="49"/>
-      <c r="F6" s="65">
-        <v>10</v>
-      </c>
-      <c r="G6" s="65">
-        <v>8</v>
-      </c>
-      <c r="H6" s="65">
-        <v>8</v>
-      </c>
-      <c r="I6" s="65">
-        <v>9</v>
-      </c>
-      <c r="J6" s="65">
-        <v>8</v>
-      </c>
-      <c r="K6" s="65">
-        <v>8</v>
-      </c>
-      <c r="L6" s="65">
-        <v>8</v>
-      </c>
-      <c r="M6" s="73">
+      <c r="F6" s="64">
+        <v>10</v>
+      </c>
+      <c r="G6" s="64">
+        <v>8</v>
+      </c>
+      <c r="H6" s="64">
+        <v>8</v>
+      </c>
+      <c r="I6" s="64">
+        <v>9</v>
+      </c>
+      <c r="J6" s="64">
+        <v>8</v>
+      </c>
+      <c r="K6" s="64">
+        <v>8</v>
+      </c>
+      <c r="L6" s="64">
+        <v>8</v>
+      </c>
+      <c r="M6" s="72">
         <v>8</v>
       </c>
       <c r="N6" s="49"/>
@@ -10520,7 +10538,7 @@
       <c r="L7" s="9">
         <v>8</v>
       </c>
-      <c r="M7" s="72">
+      <c r="M7" s="71">
         <v>9</v>
       </c>
       <c r="N7" s="49"/>
@@ -10561,7 +10579,7 @@
       <c r="L8" s="9">
         <v>9</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="61">
         <v>8</v>
       </c>
       <c r="N8" s="49"/>
@@ -10602,7 +10620,7 @@
       <c r="L9" s="9">
         <v>9</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="71">
         <v>8</v>
       </c>
       <c r="N9" s="49"/>
@@ -10643,7 +10661,7 @@
       <c r="L10" s="11">
         <v>8</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="62">
         <v>7</v>
       </c>
       <c r="N10" s="50"/>

--- a/assets/data/enruedate2019.xlsx
+++ b/assets/data/enruedate2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TECNO\Documents\arcela43.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAEFDC8-8587-4982-8863-0BDD5886B43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80F8F22-6C2C-4AD3-8CEA-0B1DBAC566D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="949" firstSheet="15" activeTab="20" xr2:uid="{CFA91A2F-D3C5-4056-901E-5E58B99EF3EB}"/>
   </bookViews>
